--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27820"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A9170-E38E-4B26-9A2B-C1C573989DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD651C-121C-4D18-B104-A493FE24EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="336" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20378" uniqueCount="2904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20410" uniqueCount="2909">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8746,6 +8746,21 @@
   </si>
   <si>
     <t>Props Name</t>
+  </si>
+  <si>
+    <t>Valente Bellozo</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sa3006119</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>sa3020409</t>
   </si>
 </sst>
 </file>
@@ -8826,7 +8841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8837,9 +8852,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9146,11 +9158,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1547"/>
+  <dimension ref="A1:S1549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2:S1547"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1549" sqref="A1549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9225,7 +9237,7 @@
       <c r="R1" s="4" t="s">
         <v>2788</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>2903</v>
       </c>
     </row>
@@ -26019,10 +26031,10 @@
         <v>1283</v>
       </c>
       <c r="C359" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="D359" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="E359" t="s">
         <v>1346</v>
@@ -26053,6 +26065,15 @@
       </c>
       <c r="N359">
         <v>1</v>
+      </c>
+      <c r="P359" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q359">
+        <v>572971</v>
+      </c>
+      <c r="R359" t="s">
+        <v>194</v>
       </c>
       <c r="S359" t="s">
         <v>194</v>
@@ -65493,10 +65514,10 @@
         <v>1283</v>
       </c>
       <c r="C1194" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="D1194" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="E1194" t="s">
         <v>1347</v>
@@ -82235,6 +82256,106 @@
       </c>
       <c r="S1547" t="s">
         <v>2902</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1548" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>2906</v>
+      </c>
+      <c r="I1548" t="s">
+        <v>2904</v>
+      </c>
+      <c r="J1548" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1548" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L1548" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1548" t="s">
+        <v>2904</v>
+      </c>
+      <c r="P1548" t="s">
+        <v>2904</v>
+      </c>
+      <c r="Q1548">
+        <v>678368</v>
+      </c>
+      <c r="R1548" t="s">
+        <v>2904</v>
+      </c>
+      <c r="S1548" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1549" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>2908</v>
+      </c>
+      <c r="I1549" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J1549" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1549" t="s">
+        <v>2907</v>
+      </c>
+      <c r="L1549" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1549" t="s">
+        <v>2907</v>
+      </c>
+      <c r="P1549" t="s">
+        <v>2907</v>
+      </c>
+      <c r="Q1549">
+        <v>806185</v>
+      </c>
+      <c r="R1549" t="s">
+        <v>2907</v>
+      </c>
+      <c r="S1549" t="s">
+        <v>2907</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD651C-121C-4D18-B104-A493FE24EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D4590-D796-43E9-8598-B3BDC44CD309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20410" uniqueCount="2909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20410" uniqueCount="2908">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8749,9 +8749,6 @@
   </si>
   <si>
     <t>Valente Bellozo</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>sa3006119</t>
@@ -9160,9 +9157,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1549"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1549" sqref="A1549"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1322" sqref="Q1322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82263,7 +82260,7 @@
         <v>2904</v>
       </c>
       <c r="B1548" t="s">
-        <v>2905</v>
+        <v>1283</v>
       </c>
       <c r="C1548" t="s">
         <v>1298</v>
@@ -82278,7 +82275,7 @@
         <v>1347</v>
       </c>
       <c r="H1548" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="I1548" t="s">
         <v>2904</v>
@@ -82310,7 +82307,7 @@
     </row>
     <row r="1549" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1549" t="s">
         <v>1283</v>
@@ -82328,34 +82325,34 @@
         <v>1347</v>
       </c>
       <c r="H1549" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="I1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="J1549" t="s">
         <v>1283</v>
       </c>
       <c r="K1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="L1549" t="s">
         <v>1283</v>
       </c>
       <c r="M1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="P1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="Q1549">
         <v>806185</v>
       </c>
       <c r="R1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="S1549" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D4590-D796-43E9-8598-B3BDC44CD309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C942329D-DFF0-4FF8-AB0E-1DEE0C275434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20410" uniqueCount="2908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20441" uniqueCount="2911">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8758,6 +8758,15 @@
   </si>
   <si>
     <t>sa3020409</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>Davis Daniel</t>
+  </si>
+  <si>
+    <t>sa3017788</t>
   </si>
 </sst>
 </file>
@@ -9155,11 +9164,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1549"/>
+  <dimension ref="A1:S1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1322" sqref="Q1322"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1538" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1538" sqref="A1538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21773,10 +21782,10 @@
         <v>1283</v>
       </c>
       <c r="C270" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D270" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E270" t="s">
         <v>1347</v>
@@ -21807,6 +21816,15 @@
       </c>
       <c r="N270">
         <v>1</v>
+      </c>
+      <c r="P270" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q270">
+        <v>641771</v>
+      </c>
+      <c r="R270" t="s">
+        <v>143</v>
       </c>
       <c r="S270" t="s">
         <v>143</v>
@@ -82353,6 +82371,106 @@
       </c>
       <c r="S1549" t="s">
         <v>2906</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1550" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I1550" t="s">
+        <v>2908</v>
+      </c>
+      <c r="J1550" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1550" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L1550" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1550" t="s">
+        <v>2908</v>
+      </c>
+      <c r="P1550" t="s">
+        <v>2908</v>
+      </c>
+      <c r="Q1550">
+        <v>701581</v>
+      </c>
+      <c r="R1550" t="s">
+        <v>2908</v>
+      </c>
+      <c r="S1550" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1551">
+        <v>27582</v>
+      </c>
+      <c r="I1551" t="s">
+        <v>2909</v>
+      </c>
+      <c r="J1551" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1551" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L1551" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1551" t="s">
+        <v>2909</v>
+      </c>
+      <c r="P1551" t="s">
+        <v>2909</v>
+      </c>
+      <c r="Q1551">
+        <v>669721</v>
+      </c>
+      <c r="R1551" t="s">
+        <v>2909</v>
+      </c>
+      <c r="S1551" t="s">
+        <v>2909</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C942329D-DFF0-4FF8-AB0E-1DEE0C275434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3321B3-454A-4DEC-B8B7-E7F9931FCFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20441" uniqueCount="2911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20441" uniqueCount="2912">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8767,6 +8767,9 @@
   </si>
   <si>
     <t>sa3017788</t>
+  </si>
+  <si>
+    <t>Albert Suárez</t>
   </si>
 </sst>
 </file>
@@ -9166,9 +9169,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1538" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1538" sqref="A1538"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11077,13 +11080,13 @@
         <v>2853</v>
       </c>
       <c r="P40" t="s">
-        <v>2853</v>
+        <v>2911</v>
       </c>
       <c r="Q40">
         <v>544150</v>
       </c>
       <c r="R40" t="s">
-        <v>2853</v>
+        <v>2911</v>
       </c>
       <c r="S40" t="s">
         <v>2853</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3321B3-454A-4DEC-B8B7-E7F9931FCFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57881129-8F99-4658-B86B-4DD0CCB044AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20441" uniqueCount="2912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20441" uniqueCount="2913">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8770,6 +8770,9 @@
   </si>
   <si>
     <t>Albert Suárez</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
   </si>
 </sst>
 </file>
@@ -9169,9 +9172,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1165" sqref="S1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64175,13 +64178,13 @@
         <v>2793</v>
       </c>
       <c r="P1165" t="s">
-        <v>2793</v>
+        <v>2912</v>
       </c>
       <c r="Q1165">
         <v>681190</v>
       </c>
       <c r="R1165" t="s">
-        <v>2793</v>
+        <v>2912</v>
       </c>
       <c r="S1165" t="s">
         <v>2793</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57881129-8F99-4658-B86B-4DD0CCB044AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EAE24-3543-47CA-9780-F5E19D5946E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20441" uniqueCount="2913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20455" uniqueCount="2914">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8773,6 +8773,9 @@
   </si>
   <si>
     <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Erik Miller</t>
   </si>
 </sst>
 </file>
@@ -9170,11 +9173,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1551"/>
+  <dimension ref="A1:S1552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1165" sqref="S1165"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1552" sqref="P1552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82479,6 +82482,56 @@
         <v>2909</v>
       </c>
     </row>
+    <row r="1552" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1552">
+        <v>26252</v>
+      </c>
+      <c r="I1552" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J1552" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1552" t="s">
+        <v>2913</v>
+      </c>
+      <c r="L1552" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1552" t="s">
+        <v>2913</v>
+      </c>
+      <c r="P1552" t="s">
+        <v>2913</v>
+      </c>
+      <c r="Q1552">
+        <v>669062</v>
+      </c>
+      <c r="R1552" t="s">
+        <v>2913</v>
+      </c>
+      <c r="S1552" t="s">
+        <v>2913</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1499" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1531">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EAE24-3543-47CA-9780-F5E19D5946E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B4BF2-5A12-4AA7-88E5-F325BBA04F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20455" uniqueCount="2914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20486" uniqueCount="2916">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8776,6 +8776,12 @@
   </si>
   <si>
     <t>Erik Miller</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Michael Mercado</t>
   </si>
 </sst>
 </file>
@@ -9173,11 +9179,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1552"/>
+  <dimension ref="A1:S1554"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1552" sqref="P1552"/>
+      <pane ySplit="1" topLeftCell="A1530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1554" sqref="P1554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -70835,6 +70841,12 @@
       <c r="F1308" t="s">
         <v>1347</v>
       </c>
+      <c r="H1308">
+        <v>24977</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>1248</v>
+      </c>
       <c r="J1308" t="s">
         <v>1283</v>
       </c>
@@ -70852,6 +70864,15 @@
       </c>
       <c r="O1308" t="s">
         <v>2623</v>
+      </c>
+      <c r="P1308" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q1308">
+        <v>681869</v>
+      </c>
+      <c r="R1308" t="s">
+        <v>1248</v>
       </c>
       <c r="S1308" t="s">
         <v>1248</v>
@@ -82530,6 +82551,106 @@
       </c>
       <c r="S1552" t="s">
         <v>2913</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1553">
+        <v>30076</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J1553" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1553" t="s">
+        <v>2914</v>
+      </c>
+      <c r="L1553" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1553" t="s">
+        <v>2914</v>
+      </c>
+      <c r="P1553" t="s">
+        <v>2914</v>
+      </c>
+      <c r="Q1553">
+        <v>689017</v>
+      </c>
+      <c r="R1553" t="s">
+        <v>2914</v>
+      </c>
+      <c r="S1553" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1554">
+        <v>23223</v>
+      </c>
+      <c r="I1554" t="s">
+        <v>2915</v>
+      </c>
+      <c r="J1554" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1554" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L1554" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1554" t="s">
+        <v>2915</v>
+      </c>
+      <c r="P1554" t="s">
+        <v>2915</v>
+      </c>
+      <c r="Q1554">
+        <v>675650</v>
+      </c>
+      <c r="R1554" t="s">
+        <v>2915</v>
+      </c>
+      <c r="S1554" t="s">
+        <v>2915</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B4BF2-5A12-4AA7-88E5-F325BBA04F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C84F5-D9A2-4CB4-9C76-05D796EBCE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20486" uniqueCount="2916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20501" uniqueCount="2918">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8782,6 +8782,12 @@
   </si>
   <si>
     <t>Michael Mercado</t>
+  </si>
+  <si>
+    <t>Cristian Mena</t>
+  </si>
+  <si>
+    <t>sa3015302</t>
   </si>
 </sst>
 </file>
@@ -9179,11 +9185,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1554"/>
+  <dimension ref="A1:S1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1554" sqref="P1554"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1531" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1555" sqref="Q1555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82653,6 +82659,56 @@
         <v>2915</v>
       </c>
     </row>
+    <row r="1555" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>2917</v>
+      </c>
+      <c r="I1555" t="s">
+        <v>2916</v>
+      </c>
+      <c r="J1555" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1555" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L1555" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1555" t="s">
+        <v>2916</v>
+      </c>
+      <c r="P1555" t="s">
+        <v>2916</v>
+      </c>
+      <c r="Q1555">
+        <v>691441</v>
+      </c>
+      <c r="R1555" t="s">
+        <v>2916</v>
+      </c>
+      <c r="S1555" t="s">
+        <v>2916</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1499" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1531">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C84F5-D9A2-4CB4-9C76-05D796EBCE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D91AEFF-65FB-4C67-B3A2-2FF49C74AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9187,9 +9187,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1531" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1555" sqref="Q1555"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U536" sqref="U536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34419,6 +34419,9 @@
       <c r="P536" t="s">
         <v>2813</v>
       </c>
+      <c r="Q536">
+        <v>668909</v>
+      </c>
       <c r="R536" t="s">
         <v>2813</v>
       </c>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D91AEFF-65FB-4C67-B3A2-2FF49C74AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF76EB-EC12-44F9-8A50-BDE85B364A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9187,9 +9187,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U536" sqref="U536"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9655,10 +9655,10 @@
         <v>1283</v>
       </c>
       <c r="C10" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D10" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E10" t="s">
         <v>1347</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF76EB-EC12-44F9-8A50-BDE85B364A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB180B1F-B882-431F-88B2-9A234910B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20501" uniqueCount="2918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20531" uniqueCount="2922">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8788,6 +8788,18 @@
   </si>
   <si>
     <t>sa3015302</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>sa3010570</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>sa3019501</t>
   </si>
 </sst>
 </file>
@@ -9185,11 +9197,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1555"/>
+  <dimension ref="A1:S1557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1538" sqref="K1538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82712,6 +82724,106 @@
         <v>2916</v>
       </c>
     </row>
+    <row r="1556" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I1556" t="s">
+        <v>2918</v>
+      </c>
+      <c r="J1556" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1556" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L1556" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1556" t="s">
+        <v>2918</v>
+      </c>
+      <c r="P1556" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q1556">
+        <v>685299</v>
+      </c>
+      <c r="R1556" t="s">
+        <v>2918</v>
+      </c>
+      <c r="S1556" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>2921</v>
+      </c>
+      <c r="I1557" t="s">
+        <v>2920</v>
+      </c>
+      <c r="J1557" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1557" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L1557" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1557" t="s">
+        <v>2920</v>
+      </c>
+      <c r="P1557" t="s">
+        <v>2920</v>
+      </c>
+      <c r="Q1557">
+        <v>680736</v>
+      </c>
+      <c r="R1557" t="s">
+        <v>2920</v>
+      </c>
+      <c r="S1557" t="s">
+        <v>2920</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1499" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1531">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB180B1F-B882-431F-88B2-9A234910B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C30D7-3E21-4777-8840-26B55129987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20531" uniqueCount="2922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20546" uniqueCount="2924">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8800,6 +8800,12 @@
   </si>
   <si>
     <t>sa3019501</t>
+  </si>
+  <si>
+    <t>Yilber Diaz</t>
+  </si>
+  <si>
+    <t>sa3016055</t>
   </si>
 </sst>
 </file>
@@ -9197,11 +9203,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1557"/>
+  <dimension ref="A1:S1558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1538" sqref="K1538"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1559" sqref="Q1559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82824,6 +82830,56 @@
         <v>2920</v>
       </c>
     </row>
+    <row r="1558" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>2923</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J1558" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1558" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L1558" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1558" t="s">
+        <v>2922</v>
+      </c>
+      <c r="P1558" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Q1558">
+        <v>700270</v>
+      </c>
+      <c r="R1558" t="s">
+        <v>2922</v>
+      </c>
+      <c r="S1558" t="s">
+        <v>2922</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1499" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1531">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C30D7-3E21-4777-8840-26B55129987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E1018-4087-4FD6-B41C-9140C20B2EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20546" uniqueCount="2924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20553" uniqueCount="2918">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8751,24 +8751,15 @@
     <t>Valente Bellozo</t>
   </si>
   <si>
-    <t>sa3006119</t>
-  </si>
-  <si>
     <t>Hayden Birdsong</t>
   </si>
   <si>
-    <t>sa3020409</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
     <t>Davis Daniel</t>
   </si>
   <si>
-    <t>sa3017788</t>
-  </si>
-  <si>
     <t>Albert Suárez</t>
   </si>
   <si>
@@ -8787,25 +8778,16 @@
     <t>Cristian Mena</t>
   </si>
   <si>
-    <t>sa3015302</t>
-  </si>
-  <si>
     <t>Tanner Gordon</t>
   </si>
   <si>
-    <t>sa3010570</t>
-  </si>
-  <si>
     <t>Justin Wrobleski</t>
   </si>
   <si>
-    <t>sa3019501</t>
-  </si>
-  <si>
     <t>Yilber Diaz</t>
   </si>
   <si>
-    <t>sa3016055</t>
+    <t>Gordon Graceffo</t>
   </si>
 </sst>
 </file>
@@ -9203,11 +9185,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1558"/>
+  <dimension ref="A1:S1559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1559" sqref="Q1559"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1546" sqref="I1546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9215,7 +9197,8 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="19.88671875" customWidth="1"/>
@@ -11116,13 +11099,13 @@
         <v>2853</v>
       </c>
       <c r="P40" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="Q40">
         <v>544150</v>
       </c>
       <c r="R40" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="S40" t="s">
         <v>2853</v>
@@ -64214,13 +64197,13 @@
         <v>2793</v>
       </c>
       <c r="P1165" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="Q1165">
         <v>681190</v>
       </c>
       <c r="R1165" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="S1165" t="s">
         <v>2793</v>
@@ -82349,8 +82332,8 @@
       <c r="F1548" t="s">
         <v>1347</v>
       </c>
-      <c r="H1548" t="s">
-        <v>2905</v>
+      <c r="H1548">
+        <v>23899</v>
       </c>
       <c r="I1548" t="s">
         <v>2904</v>
@@ -82382,7 +82365,7 @@
     </row>
     <row r="1549" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B1549" t="s">
         <v>1283</v>
@@ -82399,40 +82382,40 @@
       <c r="F1549" t="s">
         <v>1347</v>
       </c>
-      <c r="H1549" t="s">
-        <v>2907</v>
+      <c r="H1549">
+        <v>31635</v>
       </c>
       <c r="I1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="J1549" t="s">
         <v>1283</v>
       </c>
       <c r="K1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="L1549" t="s">
         <v>1283</v>
       </c>
       <c r="M1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="P1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="Q1549">
         <v>806185</v>
       </c>
       <c r="R1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="S1549" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1550" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="B1550" t="s">
         <v>1283</v>
@@ -82449,40 +82432,40 @@
       <c r="F1550" t="s">
         <v>1347</v>
       </c>
-      <c r="H1550" t="s">
-        <v>2910</v>
+      <c r="H1550">
+        <v>30056</v>
       </c>
       <c r="I1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="J1550" t="s">
         <v>1283</v>
       </c>
       <c r="K1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="L1550" t="s">
         <v>1283</v>
       </c>
       <c r="M1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="P1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="Q1550">
         <v>701581</v>
       </c>
       <c r="R1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="S1550" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1551" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="B1551" t="s">
         <v>1283</v>
@@ -82503,36 +82486,36 @@
         <v>27582</v>
       </c>
       <c r="I1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="J1551" t="s">
         <v>1283</v>
       </c>
       <c r="K1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="L1551" t="s">
         <v>1283</v>
       </c>
       <c r="M1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="P1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="Q1551">
         <v>669721</v>
       </c>
       <c r="R1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="S1551" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1552" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="B1552" t="s">
         <v>1283</v>
@@ -82553,36 +82536,36 @@
         <v>26252</v>
       </c>
       <c r="I1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="J1552" t="s">
         <v>1283</v>
       </c>
       <c r="K1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="L1552" t="s">
         <v>1283</v>
       </c>
       <c r="M1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="P1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="Q1552">
         <v>669062</v>
       </c>
       <c r="R1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="S1552" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1553" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="B1553" t="s">
         <v>1283</v>
@@ -82603,36 +82586,36 @@
         <v>30076</v>
       </c>
       <c r="I1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="J1553" t="s">
         <v>1283</v>
       </c>
       <c r="K1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="L1553" t="s">
         <v>1283</v>
       </c>
       <c r="M1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="P1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="Q1553">
         <v>689017</v>
       </c>
       <c r="R1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="S1553" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1554" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="B1554" t="s">
         <v>1283</v>
@@ -82653,36 +82636,36 @@
         <v>23223</v>
       </c>
       <c r="I1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="J1554" t="s">
         <v>1283</v>
       </c>
       <c r="K1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="L1554" t="s">
         <v>1283</v>
       </c>
       <c r="M1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="P1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="Q1554">
         <v>675650</v>
       </c>
       <c r="R1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="S1554" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1555" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="B1555" t="s">
         <v>1283</v>
@@ -82699,40 +82682,40 @@
       <c r="F1555" t="s">
         <v>1347</v>
       </c>
-      <c r="H1555" t="s">
-        <v>2917</v>
+      <c r="H1555">
+        <v>27974</v>
       </c>
       <c r="I1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="J1555" t="s">
         <v>1283</v>
       </c>
       <c r="K1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="L1555" t="s">
         <v>1283</v>
       </c>
       <c r="M1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="P1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="Q1555">
         <v>691441</v>
       </c>
       <c r="R1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="S1555" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1556" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="B1556" t="s">
         <v>1283</v>
@@ -82749,40 +82732,40 @@
       <c r="F1556" t="s">
         <v>1347</v>
       </c>
-      <c r="H1556" t="s">
-        <v>2919</v>
+      <c r="H1556">
+        <v>27669</v>
       </c>
       <c r="I1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="J1556" t="s">
         <v>1283</v>
       </c>
       <c r="K1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="L1556" t="s">
         <v>1283</v>
       </c>
       <c r="M1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="P1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="Q1556">
         <v>685299</v>
       </c>
       <c r="R1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="S1556" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1557" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="B1557" t="s">
         <v>1283</v>
@@ -82799,40 +82782,40 @@
       <c r="F1557" t="s">
         <v>1346</v>
       </c>
-      <c r="H1557" t="s">
-        <v>2921</v>
+      <c r="H1557">
+        <v>31204</v>
       </c>
       <c r="I1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="J1557" t="s">
         <v>1283</v>
       </c>
       <c r="K1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="L1557" t="s">
         <v>1283</v>
       </c>
       <c r="M1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="P1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="Q1557">
         <v>680736</v>
       </c>
       <c r="R1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="S1557" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1558" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="B1558" t="s">
         <v>1283</v>
@@ -82849,35 +82832,82 @@
       <c r="F1558" t="s">
         <v>1347</v>
       </c>
-      <c r="H1558" t="s">
-        <v>2923</v>
+      <c r="H1558">
+        <v>29271</v>
       </c>
       <c r="I1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="J1558" t="s">
         <v>1283</v>
       </c>
       <c r="K1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="L1558" t="s">
         <v>1283</v>
       </c>
       <c r="M1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="P1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="Q1558">
         <v>700270</v>
       </c>
       <c r="R1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="S1558" t="s">
-        <v>2922</v>
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1559">
+        <v>29519</v>
+      </c>
+      <c r="I1559" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J1559" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1559" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L1559" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1559" t="s">
+        <v>2917</v>
+      </c>
+      <c r="P1559" t="s">
+        <v>2917</v>
+      </c>
+      <c r="R1559" t="s">
+        <v>2917</v>
+      </c>
+      <c r="S1559" t="s">
+        <v>2917</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E1018-4087-4FD6-B41C-9140C20B2EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D02BBC-0AE7-4C67-8C6F-14B1D23F3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9187,9 +9187,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1559"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1546" sqref="I1546"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V216" sqref="V216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82903,6 +82903,9 @@
       <c r="P1559" t="s">
         <v>2917</v>
       </c>
+      <c r="Q1559">
+        <v>700669</v>
+      </c>
       <c r="R1559" t="s">
         <v>2917</v>
       </c>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D02BBC-0AE7-4C67-8C6F-14B1D23F3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796EE59-5287-4E37-91D6-D4BE31D5EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20553" uniqueCount="2918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20570" uniqueCount="2920">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8788,6 +8788,12 @@
   </si>
   <si>
     <t>Gordon Graceffo</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>sa3014539</t>
   </si>
 </sst>
 </file>
@@ -9185,11 +9191,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1559"/>
+  <dimension ref="A1:S1560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V216" sqref="V216"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1300" sqref="R1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -70478,6 +70484,15 @@
       <c r="O1300" t="s">
         <v>2620</v>
       </c>
+      <c r="P1300" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q1300">
+        <v>669358</v>
+      </c>
+      <c r="R1300" t="s">
+        <v>1245</v>
+      </c>
       <c r="S1300" t="s">
         <v>1245</v>
       </c>
@@ -71452,10 +71467,10 @@
         <v>1283</v>
       </c>
       <c r="C1320" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="D1320" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
       <c r="E1320" t="s">
         <v>1347</v>
@@ -82911,6 +82926,56 @@
       </c>
       <c r="S1559" t="s">
         <v>2917</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>2918</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1560" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L1560" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1560" t="s">
+        <v>2918</v>
+      </c>
+      <c r="P1560" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q1560">
+        <v>686799</v>
+      </c>
+      <c r="R1560" t="s">
+        <v>2918</v>
+      </c>
+      <c r="S1560" t="s">
+        <v>2918</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796EE59-5287-4E37-91D6-D4BE31D5EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B4109-1998-414B-9274-E5E8488A6F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20570" uniqueCount="2920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20573" uniqueCount="2920">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9193,9 +9193,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1300" sqref="R1300"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q619" sqref="Q619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38229,6 +38229,12 @@
       <c r="F618" t="s">
         <v>1347</v>
       </c>
+      <c r="H618">
+        <v>26215</v>
+      </c>
+      <c r="I618" t="s">
+        <v>1137</v>
+      </c>
       <c r="J618" t="s">
         <v>1283</v>
       </c>
@@ -38246,6 +38252,15 @@
       </c>
       <c r="O618" t="s">
         <v>2465</v>
+      </c>
+      <c r="P618" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q618">
+        <v>671131</v>
+      </c>
+      <c r="R618" t="s">
+        <v>1137</v>
       </c>
       <c r="S618" t="s">
         <v>1137</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B4109-1998-414B-9274-E5E8488A6F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D376DFC0-58D8-44D5-B49C-109BC2C8E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20573" uniqueCount="2920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20575" uniqueCount="2920">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9194,8 +9194,8 @@
   <dimension ref="A1:S1560"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q619" sqref="Q619"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q262" sqref="Q262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21290,10 +21290,10 @@
         <v>1283</v>
       </c>
       <c r="C259" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="D259" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="E259" t="s">
         <v>1347</v>
@@ -21371,6 +21371,15 @@
       </c>
       <c r="O260" t="s">
         <v>2376</v>
+      </c>
+      <c r="P260" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q260">
+        <v>608334</v>
+      </c>
+      <c r="R260" t="s">
+        <v>139</v>
       </c>
       <c r="S260" t="s">
         <v>139</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D376DFC0-58D8-44D5-B49C-109BC2C8E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043973C-E8E4-47D4-9601-10D8E967A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20575" uniqueCount="2920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20590" uniqueCount="2922">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8794,6 +8794,12 @@
   </si>
   <si>
     <t>sa3014539</t>
+  </si>
+  <si>
+    <t>River Ryan</t>
+  </si>
+  <si>
+    <t>sa3016863</t>
   </si>
 </sst>
 </file>
@@ -9191,11 +9197,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1560"/>
+  <dimension ref="A1:S1561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q262" sqref="Q262"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1561" sqref="P1561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83002,6 +83008,56 @@
         <v>2918</v>
       </c>
     </row>
+    <row r="1561" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>2921</v>
+      </c>
+      <c r="I1561" t="s">
+        <v>2920</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1561" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L1561" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1561" t="s">
+        <v>2920</v>
+      </c>
+      <c r="P1561" t="s">
+        <v>2920</v>
+      </c>
+      <c r="Q1561">
+        <v>689981</v>
+      </c>
+      <c r="R1561" t="s">
+        <v>2920</v>
+      </c>
+      <c r="S1561" t="s">
+        <v>2920</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1499" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1531">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043973C-E8E4-47D4-9601-10D8E967A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A379B99-3438-4FBE-9DA9-5444BFBEC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9200,8 +9200,8 @@
   <dimension ref="A1:S1561"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1561" sqref="P1561"/>
+      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1117" sqref="S1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61962,10 +61962,10 @@
         <v>1283</v>
       </c>
       <c r="C1117" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="D1117" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="E1117" t="s">
         <v>1347</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A379B99-3438-4FBE-9DA9-5444BFBEC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5766D-1A3D-402B-B0F9-FD4F353D9F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20590" uniqueCount="2922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20607" uniqueCount="2924">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8800,6 +8800,12 @@
   </si>
   <si>
     <t>sa3016863</t>
+  </si>
+  <si>
+    <t>Chayce McDermott</t>
+  </si>
+  <si>
+    <t>sa3017420</t>
   </si>
 </sst>
 </file>
@@ -9197,11 +9203,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1561"/>
+  <dimension ref="A1:S1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1117" sqref="S1117"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1200" sqref="Q1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65822,10 +65828,10 @@
         <v>1283</v>
       </c>
       <c r="C1199" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D1199" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E1199" t="s">
         <v>1346</v>
@@ -65856,6 +65862,15 @@
       </c>
       <c r="N1199">
         <v>1</v>
+      </c>
+      <c r="P1199" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q1199">
+        <v>592662</v>
+      </c>
+      <c r="R1199" t="s">
+        <v>647</v>
       </c>
       <c r="S1199" t="s">
         <v>647</v>
@@ -83056,6 +83071,56 @@
       </c>
       <c r="S1561" t="s">
         <v>2920</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1562" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L1562" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1562" t="s">
+        <v>2922</v>
+      </c>
+      <c r="P1562" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Q1562">
+        <v>694646</v>
+      </c>
+      <c r="R1562" t="s">
+        <v>2922</v>
+      </c>
+      <c r="S1562" t="s">
+        <v>2922</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAF3C7A-EA07-4627-90A1-470411753CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31390A43-17CC-4312-84C2-7FE128A6CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20593" uniqueCount="2923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20607" uniqueCount="2924">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8803,6 +8803,9 @@
   </si>
   <si>
     <t>sa3017420</t>
+  </si>
+  <si>
+    <t>Kenny Rosenberg</t>
   </si>
 </sst>
 </file>
@@ -9200,11 +9203,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1561"/>
+  <dimension ref="A1:S1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V234" sqref="V234"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1538" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1563" sqref="H1563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83073,6 +83076,56 @@
         <v>2921</v>
       </c>
     </row>
+    <row r="1562" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1562">
+        <v>20009</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="L1562" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="P1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="Q1562">
+        <v>670046</v>
+      </c>
+      <c r="R1562" t="s">
+        <v>2923</v>
+      </c>
+      <c r="S1562" t="s">
+        <v>2923</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1498" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1530">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31390A43-17CC-4312-84C2-7FE128A6CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA04D4-1EDE-4003-8E1B-F1D8C7A112B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20607" uniqueCount="2924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20611" uniqueCount="2925">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8806,6 +8806,9 @@
   </si>
   <si>
     <t>Kenny Rosenberg</t>
+  </si>
+  <si>
+    <t>sa3005246</t>
   </si>
 </sst>
 </file>
@@ -9205,9 +9208,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1538" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1563" sqref="H1563"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q741" sqref="Q741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44118,6 +44121,12 @@
       <c r="F741" t="s">
         <v>1346</v>
       </c>
+      <c r="H741" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I741" t="s">
+        <v>1148</v>
+      </c>
       <c r="J741" t="s">
         <v>1283</v>
       </c>
@@ -44135,6 +44144,15 @@
       </c>
       <c r="O741" t="s">
         <v>2486</v>
+      </c>
+      <c r="P741" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Q741">
+        <v>676282</v>
+      </c>
+      <c r="R741" t="s">
+        <v>1148</v>
       </c>
       <c r="S741" t="s">
         <v>1148</v>
@@ -51404,10 +51422,10 @@
         <v>1283</v>
       </c>
       <c r="C896" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="D896" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="E896" t="s">
         <v>1346</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA04D4-1EDE-4003-8E1B-F1D8C7A112B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE0684-9EC6-4EBB-B4B9-C0AF6AF27E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20611" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20614" uniqueCount="2925">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9208,9 +9208,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q741" sqref="Q741"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F554" sqref="F554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35279,10 +35279,10 @@
         <v>1283</v>
       </c>
       <c r="C554" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D554" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E554" t="s">
         <v>1346</v>
@@ -35293,6 +35293,12 @@
       <c r="G554">
         <v>1996</v>
       </c>
+      <c r="H554">
+        <v>16944</v>
+      </c>
+      <c r="I554" t="s">
+        <v>894</v>
+      </c>
       <c r="J554" t="s">
         <v>1283</v>
       </c>
@@ -35307,6 +35313,15 @@
       </c>
       <c r="N554">
         <v>1</v>
+      </c>
+      <c r="P554" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q554">
+        <v>656550</v>
+      </c>
+      <c r="R554" t="s">
+        <v>894</v>
       </c>
       <c r="S554" t="s">
         <v>894</v>
@@ -80667,10 +80682,10 @@
         <v>1283</v>
       </c>
       <c r="C1513" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D1513" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E1513" t="s">
         <v>1347</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27920"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE0684-9EC6-4EBB-B4B9-C0AF6AF27E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A1A79-3096-486E-B382-9BEE3F44C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20614" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20645" uniqueCount="2928">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8809,6 +8809,15 @@
   </si>
   <si>
     <t>sa3005246</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>sa3018149</t>
+  </si>
+  <si>
+    <t>Lyon Richardson</t>
   </si>
 </sst>
 </file>
@@ -9206,11 +9215,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1562"/>
+  <dimension ref="A1:S1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F554" sqref="F554"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1564" sqref="Q1564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33724,10 +33733,10 @@
         <v>1283</v>
       </c>
       <c r="C522" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="D522" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="E522" t="s">
         <v>1347</v>
@@ -40088,10 +40097,10 @@
         <v>1283</v>
       </c>
       <c r="C656" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D656" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="E656" t="s">
         <v>1346</v>
@@ -41601,10 +41610,10 @@
         <v>1283</v>
       </c>
       <c r="C688" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="D688" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="E688" t="s">
         <v>1346</v>
@@ -41635,6 +41644,15 @@
       </c>
       <c r="N688">
         <v>1</v>
+      </c>
+      <c r="P688" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q688">
+        <v>605488</v>
+      </c>
+      <c r="R688" t="s">
+        <v>371</v>
       </c>
       <c r="S688" t="s">
         <v>371</v>
@@ -83157,6 +83175,106 @@
       </c>
       <c r="S1562" t="s">
         <v>2923</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>2926</v>
+      </c>
+      <c r="I1563" t="s">
+        <v>2925</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1563" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L1563" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1563" t="s">
+        <v>2925</v>
+      </c>
+      <c r="P1563" t="s">
+        <v>2925</v>
+      </c>
+      <c r="Q1563">
+        <v>701542</v>
+      </c>
+      <c r="R1563" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S1563" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1564">
+        <v>24581</v>
+      </c>
+      <c r="I1564" t="s">
+        <v>2927</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1564" t="s">
+        <v>2927</v>
+      </c>
+      <c r="L1564" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1564" t="s">
+        <v>2927</v>
+      </c>
+      <c r="P1564" t="s">
+        <v>2927</v>
+      </c>
+      <c r="Q1564">
+        <v>680689</v>
+      </c>
+      <c r="R1564" t="s">
+        <v>2927</v>
+      </c>
+      <c r="S1564" t="s">
+        <v>2927</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A1A79-3096-486E-B382-9BEE3F44C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AFB74E-D903-4F65-8E5A-0C5EFFFD20EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20645" uniqueCount="2928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20674" uniqueCount="2930">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8818,6 +8818,12 @@
   </si>
   <si>
     <t>Lyon Richardson</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>sa3017598</t>
   </si>
 </sst>
 </file>
@@ -9215,11 +9221,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1564"/>
+  <dimension ref="A1:S1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1564" sqref="Q1564"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X645" sqref="X645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39553,10 +39559,10 @@
         <v>1283</v>
       </c>
       <c r="C645" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="D645" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E645" t="s">
         <v>1347</v>
@@ -83275,6 +83281,106 @@
       </c>
       <c r="S1564" t="s">
         <v>2927</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1565">
+        <v>8246</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1565" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L1565" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1565" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P1565" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Q1565">
+        <v>502179</v>
+      </c>
+      <c r="R1565" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S1565" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>2928</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1566" t="s">
+        <v>2928</v>
+      </c>
+      <c r="L1566" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1566" t="s">
+        <v>2928</v>
+      </c>
+      <c r="P1566" t="s">
+        <v>2928</v>
+      </c>
+      <c r="Q1566">
+        <v>700241</v>
+      </c>
+      <c r="R1566" t="s">
+        <v>2928</v>
+      </c>
+      <c r="S1566" t="s">
+        <v>2928</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AFB74E-D903-4F65-8E5A-0C5EFFFD20EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E2238-14F2-4EF5-AECF-AF223244D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9223,9 +9223,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X645" sqref="X645"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1403" sqref="T1403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75512,10 +75512,10 @@
         <v>1283</v>
       </c>
       <c r="C1403" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="D1403" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="E1403" t="s">
         <v>1346</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234A9CA8-3F9B-42FA-8BE8-8643EA56BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90949302-8DF9-49C8-B0A5-3743CAB090E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20670" uniqueCount="2926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20685" uniqueCount="2928">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8812,6 +8812,12 @@
   </si>
   <si>
     <t>sa3018091</t>
+  </si>
+  <si>
+    <t>Ky Bush</t>
+  </si>
+  <si>
+    <t>SA1234</t>
   </si>
 </sst>
 </file>
@@ -9209,11 +9215,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1566"/>
+  <dimension ref="A1:S1567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1566" sqref="O1566"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1568" sqref="H1568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83374,6 +83380,53 @@
         <v>2924</v>
       </c>
     </row>
+    <row r="1567" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I1567" t="s">
+        <v>2926</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1567" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L1567" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1567" t="s">
+        <v>2926</v>
+      </c>
+      <c r="P1567" t="s">
+        <v>2926</v>
+      </c>
+      <c r="R1567" t="s">
+        <v>2926</v>
+      </c>
+      <c r="S1567" t="s">
+        <v>2926</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1529">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90949302-8DF9-49C8-B0A5-3743CAB090E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C923097F-C139-44DF-8A0F-4C62118311FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20685" uniqueCount="2928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20689" uniqueCount="2928">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9217,9 +9217,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1568" sqref="H1568"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P466" sqref="P466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31130,10 +31130,10 @@
         <v>1283</v>
       </c>
       <c r="C466" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="D466" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="E466" t="s">
         <v>1346</v>
@@ -31164,6 +31164,15 @@
       </c>
       <c r="N466">
         <v>1</v>
+      </c>
+      <c r="P466" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q466">
+        <v>593958</v>
+      </c>
+      <c r="R466" t="s">
+        <v>258</v>
       </c>
       <c r="S466" t="s">
         <v>258</v>
@@ -76896,10 +76905,10 @@
         <v>1283</v>
       </c>
       <c r="C1432" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="D1432" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="E1432" t="s">
         <v>1347</v>
@@ -76930,6 +76939,15 @@
       </c>
       <c r="N1432">
         <v>1</v>
+      </c>
+      <c r="P1432" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q1432">
+        <v>641816</v>
+      </c>
+      <c r="R1432" t="s">
+        <v>775</v>
       </c>
       <c r="S1432" t="s">
         <v>775</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C923097F-C139-44DF-8A0F-4C62118311FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B607E8E-8B33-4086-99F5-EA08671445C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20689" uniqueCount="2928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20701" uniqueCount="2927">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8811,13 +8811,10 @@
     <t>Brant Hurter</t>
   </si>
   <si>
-    <t>sa3018091</t>
-  </si>
-  <si>
     <t>Ky Bush</t>
   </si>
   <si>
-    <t>SA1234</t>
+    <t>Davis Martin</t>
   </si>
 </sst>
 </file>
@@ -9215,11 +9212,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1567"/>
+  <dimension ref="A1:S1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P466" sqref="P466"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11396,10 +11393,10 @@
         <v>1283</v>
       </c>
       <c r="C46" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="D46" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
       <c r="E46" t="s">
         <v>1347</v>
@@ -32312,10 +32309,10 @@
         <v>1283</v>
       </c>
       <c r="C491" t="s">
-        <v>1292</v>
+        <v>1301</v>
       </c>
       <c r="D491" t="s">
-        <v>1322</v>
+        <v>1331</v>
       </c>
       <c r="E491" t="s">
         <v>1347</v>
@@ -62598,10 +62595,10 @@
         <v>1283</v>
       </c>
       <c r="C1129" t="s">
-        <v>1289</v>
+        <v>1315</v>
       </c>
       <c r="D1129" t="s">
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="E1129" t="s">
         <v>1347</v>
@@ -80227,10 +80224,10 @@
         <v>1283</v>
       </c>
       <c r="C1503" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="D1503" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="E1503" t="s">
         <v>1346</v>
@@ -83367,8 +83364,8 @@
       <c r="F1566" t="s">
         <v>1346</v>
       </c>
-      <c r="H1566" t="s">
-        <v>2925</v>
+      <c r="H1566">
+        <v>30133</v>
       </c>
       <c r="I1566" t="s">
         <v>2924</v>
@@ -83400,7 +83397,7 @@
     </row>
     <row r="1567" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1567" t="s">
         <v>1283</v>
@@ -83417,31 +83414,84 @@
       <c r="F1567" t="s">
         <v>1346</v>
       </c>
-      <c r="H1567" t="s">
-        <v>2927</v>
+      <c r="H1567">
+        <v>29823</v>
       </c>
       <c r="I1567" t="s">
+        <v>2925</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1567" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L1567" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1567" t="s">
+        <v>2925</v>
+      </c>
+      <c r="P1567" t="s">
+        <v>2925</v>
+      </c>
+      <c r="Q1567">
+        <v>681066</v>
+      </c>
+      <c r="R1567" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S1567" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
         <v>2926</v>
       </c>
-      <c r="J1567" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K1567" t="s">
+      <c r="B1568" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1568">
+        <v>21448</v>
+      </c>
+      <c r="I1568" t="s">
         <v>2926</v>
       </c>
-      <c r="L1567" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1567" t="s">
+      <c r="J1568" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1568" t="s">
         <v>2926</v>
       </c>
-      <c r="P1567" t="s">
+      <c r="L1568" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1568" t="s">
         <v>2926</v>
       </c>
-      <c r="R1567" t="s">
+      <c r="P1568" t="s">
         <v>2926</v>
       </c>
-      <c r="S1567" t="s">
+      <c r="Q1568">
+        <v>663436</v>
+      </c>
+      <c r="R1568" t="s">
+        <v>2926</v>
+      </c>
+      <c r="S1568" t="s">
         <v>2926</v>
       </c>
     </row>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B607E8E-8B33-4086-99F5-EA08671445C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4362724-3602-4676-9462-DDF024A5495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9215,8 +9215,8 @@
   <dimension ref="A1:S1568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16811,10 +16811,10 @@
         <v>1283</v>
       </c>
       <c r="C163" t="s">
-        <v>1292</v>
+        <v>1307</v>
       </c>
       <c r="D163" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="E163" t="s">
         <v>1347</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28015"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4362724-3602-4676-9462-DDF024A5495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37E4DF-015A-4364-8ECA-B3C6066CD53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20701" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20745" uniqueCount="2931">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8235,9 +8235,6 @@
     <t>Adam Oller</t>
   </si>
   <si>
-    <t>sa913099</t>
-  </si>
-  <si>
     <t>Kyle Bradish</t>
   </si>
   <si>
@@ -8815,6 +8812,21 @@
   </si>
   <si>
     <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Bradley Blalock</t>
+  </si>
+  <si>
+    <t>Julian Aguiar</t>
+  </si>
+  <si>
+    <t>sa3017763</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
+    <t>Daniel Matthews</t>
   </si>
 </sst>
 </file>
@@ -9212,11 +9224,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1568"/>
+  <dimension ref="A1:S1571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1243" sqref="T1243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9284,16 +9296,16 @@
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>2785</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>2786</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -9457,7 +9469,7 @@
         <v>1359</v>
       </c>
       <c r="I5" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="J5" t="s">
         <v>1283</v>
@@ -10385,10 +10397,10 @@
         <v>1283</v>
       </c>
       <c r="C25" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
       <c r="D25" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="E25" t="s">
         <v>1347</v>
@@ -10396,8 +10408,8 @@
       <c r="F25" t="s">
         <v>1347</v>
       </c>
-      <c r="H25" t="s">
-        <v>2733</v>
+      <c r="H25">
+        <v>20132</v>
       </c>
       <c r="I25" t="s">
         <v>2732</v>
@@ -10412,6 +10424,15 @@
         <v>1283</v>
       </c>
       <c r="M25" t="s">
+        <v>2732</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Q25">
+        <v>670124</v>
+      </c>
+      <c r="R25" t="s">
         <v>2732</v>
       </c>
       <c r="S25" t="s">
@@ -10993,7 +11014,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B38" t="s">
         <v>1283</v>
@@ -11014,31 +11035,31 @@
         <v>29960</v>
       </c>
       <c r="I38" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="J38" t="s">
         <v>1283</v>
       </c>
       <c r="K38" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="L38" t="s">
         <v>1283</v>
       </c>
       <c r="M38" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="P38" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="Q38">
         <v>700363</v>
       </c>
       <c r="R38" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="S38" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -11090,7 +11111,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B40" t="s">
         <v>1283</v>
@@ -11111,31 +11132,31 @@
         <v>6175</v>
       </c>
       <c r="I40" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="J40" t="s">
         <v>1283</v>
       </c>
       <c r="K40" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="L40" t="s">
         <v>1283</v>
       </c>
       <c r="M40" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="P40" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="Q40">
         <v>544150</v>
       </c>
       <c r="R40" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="S40" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -11187,7 +11208,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B42" t="s">
         <v>1283</v>
@@ -11208,31 +11229,31 @@
         <v>27451</v>
       </c>
       <c r="I42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="J42" t="s">
         <v>1283</v>
       </c>
       <c r="K42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="L42" t="s">
         <v>1283</v>
       </c>
       <c r="M42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="P42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="Q42">
         <v>679525</v>
       </c>
       <c r="R42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="S42" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -12165,7 +12186,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B63" t="s">
         <v>1283</v>
@@ -12186,31 +12207,31 @@
         <v>21238</v>
       </c>
       <c r="I63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="J63" t="s">
         <v>1283</v>
       </c>
       <c r="K63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="L63" t="s">
         <v>1283</v>
       </c>
       <c r="M63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="P63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="Q63">
         <v>642216</v>
       </c>
       <c r="R63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="S63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -12573,7 +12594,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B72" t="s">
         <v>1283</v>
@@ -12594,31 +12615,31 @@
         <v>29911</v>
       </c>
       <c r="I72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="J72" t="s">
         <v>1283</v>
       </c>
       <c r="K72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="L72" t="s">
         <v>1283</v>
       </c>
       <c r="M72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="P72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="Q72">
         <v>671096</v>
       </c>
       <c r="R72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="S72" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -15671,7 +15692,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B139" t="s">
         <v>1283</v>
@@ -15692,31 +15713,31 @@
         <v>23590</v>
       </c>
       <c r="I139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="J139" t="s">
         <v>1283</v>
       </c>
       <c r="K139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="L139" t="s">
         <v>1283</v>
       </c>
       <c r="M139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="P139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="Q139">
         <v>676962</v>
       </c>
       <c r="R139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="S139" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
@@ -16567,7 +16588,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B158" t="s">
         <v>1283</v>
@@ -16588,31 +16609,31 @@
         <v>20548</v>
       </c>
       <c r="I158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="J158" t="s">
         <v>1283</v>
       </c>
       <c r="K158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="L158" t="s">
         <v>1283</v>
       </c>
       <c r="M158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="P158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="Q158">
         <v>670102</v>
       </c>
       <c r="R158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="S158" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.3">
@@ -17566,7 +17587,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B179" t="s">
         <v>1283</v>
@@ -17587,36 +17608,36 @@
         <v>27782</v>
       </c>
       <c r="I179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="J179" t="s">
         <v>1283</v>
       </c>
       <c r="K179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="L179" t="s">
         <v>1283</v>
       </c>
       <c r="M179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="P179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="Q179">
         <v>694297</v>
       </c>
       <c r="R179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="S179" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B180" t="s">
         <v>1283</v>
@@ -17637,31 +17658,31 @@
         <v>26056</v>
       </c>
       <c r="I180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="J180" t="s">
         <v>1283</v>
       </c>
       <c r="K180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="L180" t="s">
         <v>1283</v>
       </c>
       <c r="M180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="P180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="Q180">
         <v>687888</v>
       </c>
       <c r="R180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="S180" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.3">
@@ -17693,7 +17714,7 @@
         <v>1283</v>
       </c>
       <c r="K181" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="L181" t="s">
         <v>1283</v>
@@ -17919,7 +17940,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B186" t="s">
         <v>1283</v>
@@ -17940,31 +17961,31 @@
         <v>23920</v>
       </c>
       <c r="I186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="J186" t="s">
         <v>1283</v>
       </c>
       <c r="K186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="L186" t="s">
         <v>1283</v>
       </c>
       <c r="M186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="P186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="Q186">
         <v>678394</v>
       </c>
       <c r="R186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="S186" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.3">
@@ -18063,7 +18084,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B189" t="s">
         <v>1283</v>
@@ -18084,33 +18105,33 @@
         <v>26024</v>
       </c>
       <c r="I189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="J189" t="s">
         <v>1283</v>
       </c>
       <c r="K189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="L189" t="s">
         <v>1283</v>
       </c>
       <c r="M189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="P189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="R189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="S189" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B190" t="s">
         <v>1283</v>
@@ -18131,31 +18152,31 @@
         <v>27702</v>
       </c>
       <c r="I190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="J190" t="s">
         <v>1283</v>
       </c>
       <c r="K190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="L190" t="s">
         <v>1283</v>
       </c>
       <c r="M190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="P190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="Q190">
         <v>687396</v>
       </c>
       <c r="R190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="S190" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.3">
@@ -18389,7 +18410,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B196" t="s">
         <v>1283</v>
@@ -18410,28 +18431,28 @@
         <v>17877</v>
       </c>
       <c r="I196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="J196" t="s">
         <v>1283</v>
       </c>
       <c r="K196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="L196" t="s">
         <v>1283</v>
       </c>
       <c r="M196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="P196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="R196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="S196" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.3">
@@ -19299,7 +19320,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B216" t="s">
         <v>1283</v>
@@ -19320,31 +19341,31 @@
         <v>26304</v>
       </c>
       <c r="I216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="J216" t="s">
         <v>1283</v>
       </c>
       <c r="K216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="L216" t="s">
         <v>1283</v>
       </c>
       <c r="M216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="P216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="Q216">
         <v>663773</v>
       </c>
       <c r="R216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="S216" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.3">
@@ -19531,7 +19552,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B221" t="s">
         <v>1283</v>
@@ -19552,36 +19573,36 @@
         <v>30279</v>
       </c>
       <c r="I221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="J221" t="s">
         <v>1283</v>
       </c>
       <c r="K221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="L221" t="s">
         <v>1283</v>
       </c>
       <c r="M221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="P221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="Q221">
         <v>693433</v>
       </c>
       <c r="R221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="S221" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B222" t="s">
         <v>1283</v>
@@ -19602,31 +19623,31 @@
         <v>27779</v>
       </c>
       <c r="I222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="J222" t="s">
         <v>1283</v>
       </c>
       <c r="K222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="L222" t="s">
         <v>1283</v>
       </c>
       <c r="M222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="P222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="Q222">
         <v>693821</v>
       </c>
       <c r="R222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="S222" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.3">
@@ -19728,7 +19749,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B225" t="s">
         <v>1283</v>
@@ -19749,31 +19770,31 @@
         <v>29837</v>
       </c>
       <c r="I225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="J225" t="s">
         <v>1283</v>
       </c>
       <c r="K225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="L225" t="s">
         <v>1283</v>
       </c>
       <c r="M225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="P225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="Q225">
         <v>682243</v>
       </c>
       <c r="R225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="S225" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.3">
@@ -20336,7 +20357,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B238" t="s">
         <v>1283</v>
@@ -20357,28 +20378,28 @@
         <v>26213</v>
       </c>
       <c r="I238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="J238" t="s">
         <v>1283</v>
       </c>
       <c r="K238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="L238" t="s">
         <v>1283</v>
       </c>
       <c r="M238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="P238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="R238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="S238" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.3">
@@ -20565,7 +20586,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B243" t="s">
         <v>1283</v>
@@ -20586,28 +20607,28 @@
         <v>25078</v>
       </c>
       <c r="I243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="J243" t="s">
         <v>1283</v>
       </c>
       <c r="K243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="L243" t="s">
         <v>1283</v>
       </c>
       <c r="M243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="P243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="R243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="S243" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.3">
@@ -21109,13 +21130,13 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="Q254">
         <v>607074</v>
       </c>
       <c r="R254" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="S254" t="s">
         <v>137</v>
@@ -22184,7 +22205,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B277" t="s">
         <v>1283</v>
@@ -22205,31 +22226,31 @@
         <v>30074</v>
       </c>
       <c r="I277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="J277" t="s">
         <v>1283</v>
       </c>
       <c r="K277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="L277" t="s">
         <v>1283</v>
       </c>
       <c r="M277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="P277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="Q277">
         <v>681217</v>
       </c>
       <c r="R277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="S277" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.3">
@@ -22919,7 +22940,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B292" t="s">
         <v>1283</v>
@@ -22940,28 +22961,28 @@
         <v>26214</v>
       </c>
       <c r="I292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="J292" t="s">
         <v>1283</v>
       </c>
       <c r="K292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="L292" t="s">
         <v>1283</v>
       </c>
       <c r="M292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="P292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="R292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="S292" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.3">
@@ -23395,7 +23416,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B302" t="s">
         <v>1283</v>
@@ -23416,31 +23437,31 @@
         <v>30107</v>
       </c>
       <c r="I302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="J302" t="s">
         <v>1283</v>
       </c>
       <c r="K302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="L302" t="s">
         <v>1283</v>
       </c>
       <c r="M302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="P302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="Q302">
         <v>681035</v>
       </c>
       <c r="R302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="S302" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.3">
@@ -23492,7 +23513,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B304" t="s">
         <v>1283</v>
@@ -23513,31 +23534,31 @@
         <v>19899</v>
       </c>
       <c r="I304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="J304" t="s">
         <v>1283</v>
       </c>
       <c r="K304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="L304" t="s">
         <v>1283</v>
       </c>
       <c r="M304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="P304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="Q304">
         <v>657376</v>
       </c>
       <c r="R304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="S304" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.3">
@@ -24138,7 +24159,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B318" t="s">
         <v>1283</v>
@@ -24159,31 +24180,31 @@
         <v>27597</v>
       </c>
       <c r="I318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="J318" t="s">
         <v>1283</v>
       </c>
       <c r="K318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="L318" t="s">
         <v>1283</v>
       </c>
       <c r="M318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="P318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="Q318">
         <v>674003</v>
       </c>
       <c r="R318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="S318" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.3">
@@ -24529,7 +24550,7 @@
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B326" t="s">
         <v>1283</v>
@@ -24550,31 +24571,31 @@
         <v>21846</v>
       </c>
       <c r="I326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="J326" t="s">
         <v>1283</v>
       </c>
       <c r="K326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="L326" t="s">
         <v>1283</v>
       </c>
       <c r="M326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="P326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="Q326">
         <v>666142</v>
       </c>
       <c r="R326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="S326" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.3">
@@ -24714,7 +24735,7 @@
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B330" t="s">
         <v>1283</v>
@@ -24735,31 +24756,31 @@
         <v>12317</v>
       </c>
       <c r="I330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="J330" t="s">
         <v>1283</v>
       </c>
       <c r="K330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="L330" t="s">
         <v>1283</v>
       </c>
       <c r="M330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="P330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="Q330">
         <v>607067</v>
       </c>
       <c r="R330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="S330" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.3">
@@ -25096,7 +25117,7 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B338" t="s">
         <v>1283</v>
@@ -25117,31 +25138,31 @@
         <v>24975</v>
       </c>
       <c r="I338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="J338" t="s">
         <v>1283</v>
       </c>
       <c r="K338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="L338" t="s">
         <v>1283</v>
       </c>
       <c r="M338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="P338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="Q338">
         <v>681867</v>
       </c>
       <c r="R338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="S338" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.3">
@@ -25717,13 +25738,13 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="Q350">
         <v>650911</v>
       </c>
       <c r="R350" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="S350" t="s">
         <v>869</v>
@@ -27537,7 +27558,7 @@
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B390" t="s">
         <v>1283</v>
@@ -27558,36 +27579,36 @@
         <v>25928</v>
       </c>
       <c r="I390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="J390" t="s">
         <v>1283</v>
       </c>
       <c r="K390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="L390" t="s">
         <v>1283</v>
       </c>
       <c r="M390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="P390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="Q390">
         <v>670241</v>
       </c>
       <c r="R390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="S390" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="391" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B391" t="s">
         <v>1283</v>
@@ -27608,31 +27629,31 @@
         <v>20038</v>
       </c>
       <c r="I391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="J391" t="s">
         <v>1283</v>
       </c>
       <c r="K391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="L391" t="s">
         <v>1283</v>
       </c>
       <c r="M391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="P391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="Q391">
         <v>670766</v>
       </c>
       <c r="R391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="S391" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.3">
@@ -30146,7 +30167,7 @@
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B445" t="s">
         <v>1283</v>
@@ -30167,22 +30188,22 @@
         <v>12499</v>
       </c>
       <c r="I445" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="J445" t="s">
         <v>1283</v>
       </c>
       <c r="K445" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="L445" t="s">
         <v>1283</v>
       </c>
       <c r="M445" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="S445" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.3">
@@ -30328,7 +30349,7 @@
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B449" t="s">
         <v>1283</v>
@@ -30346,34 +30367,34 @@
         <v>1347</v>
       </c>
       <c r="H449" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="I449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="J449" t="s">
         <v>1283</v>
       </c>
       <c r="K449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="L449" t="s">
         <v>1283</v>
       </c>
       <c r="M449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="P449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="Q449">
         <v>689672</v>
       </c>
       <c r="R449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="S449" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.3">
@@ -30804,7 +30825,7 @@
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B459" t="s">
         <v>1283</v>
@@ -30825,22 +30846,22 @@
         <v>29928</v>
       </c>
       <c r="I459" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="J459" t="s">
         <v>1283</v>
       </c>
       <c r="K459" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="L459" t="s">
         <v>1283</v>
       </c>
       <c r="M459" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="S459" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.3">
@@ -31885,7 +31906,7 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B482" t="s">
         <v>1283</v>
@@ -31906,29 +31927,29 @@
         <v>29839</v>
       </c>
       <c r="I482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="J482" t="s">
         <v>1283</v>
       </c>
       <c r="K482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="L482" t="s">
         <v>1283</v>
       </c>
       <c r="M482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="P482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="Q482" s="5"/>
       <c r="R482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="S482" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.3">
@@ -32670,7 +32691,7 @@
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B499" t="s">
         <v>1283</v>
@@ -32691,31 +32712,31 @@
         <v>27768</v>
       </c>
       <c r="I499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="J499" t="s">
         <v>1283</v>
       </c>
       <c r="K499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="L499" t="s">
         <v>1283</v>
       </c>
       <c r="M499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="P499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="Q499">
         <v>691587</v>
       </c>
       <c r="R499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="S499" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.3">
@@ -33886,7 +33907,7 @@
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B525" t="s">
         <v>1283</v>
@@ -33913,7 +33934,7 @@
         <v>1283</v>
       </c>
       <c r="K525" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="L525" t="s">
         <v>1283</v>
@@ -33931,7 +33952,7 @@
         <v>1124</v>
       </c>
       <c r="S525" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.3">
@@ -34136,7 +34157,7 @@
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B530" t="s">
         <v>1283</v>
@@ -34157,31 +34178,31 @@
         <v>25097</v>
       </c>
       <c r="I530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="J530" t="s">
         <v>1283</v>
       </c>
       <c r="K530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="L530" t="s">
         <v>1283</v>
       </c>
       <c r="M530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="P530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="Q530">
         <v>682051</v>
       </c>
       <c r="R530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="S530" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.3">
@@ -34233,7 +34254,7 @@
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B532" t="s">
         <v>1283</v>
@@ -34254,36 +34275,36 @@
         <v>20191</v>
       </c>
       <c r="I532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="J532" t="s">
         <v>1283</v>
       </c>
       <c r="K532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="L532" t="s">
         <v>1283</v>
       </c>
       <c r="M532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="P532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="Q532">
         <v>676477</v>
       </c>
       <c r="R532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="S532" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B533" t="s">
         <v>1283</v>
@@ -34304,36 +34325,36 @@
         <v>27792</v>
       </c>
       <c r="I533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="J533" t="s">
         <v>1283</v>
       </c>
       <c r="K533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="L533" t="s">
         <v>1283</v>
       </c>
       <c r="M533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="P533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="Q533">
         <v>694813</v>
       </c>
       <c r="R533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="S533" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B534" t="s">
         <v>1283</v>
@@ -34354,31 +34375,31 @@
         <v>30122</v>
       </c>
       <c r="I534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="J534" t="s">
         <v>1283</v>
       </c>
       <c r="K534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="L534" t="s">
         <v>1283</v>
       </c>
       <c r="M534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="P534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="Q534">
         <v>668909</v>
       </c>
       <c r="R534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="S534" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.3">
@@ -34818,7 +34839,7 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B544" t="s">
         <v>1283</v>
@@ -34836,34 +34857,34 @@
         <v>1347</v>
       </c>
       <c r="H544" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="I544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="J544" t="s">
         <v>1283</v>
       </c>
       <c r="K544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="L544" t="s">
         <v>1283</v>
       </c>
       <c r="M544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="P544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="Q544">
         <v>642520</v>
       </c>
       <c r="R544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="S544" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.3">
@@ -35097,7 +35118,7 @@
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B550" t="s">
         <v>1283</v>
@@ -35118,31 +35139,31 @@
         <v>27552</v>
       </c>
       <c r="I550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="J550" t="s">
         <v>1283</v>
       </c>
       <c r="K550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="L550" t="s">
         <v>1283</v>
       </c>
       <c r="M550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="P550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="Q550">
         <v>668933</v>
       </c>
       <c r="R550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="S550" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.3">
@@ -35717,7 +35738,7 @@
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B563" t="s">
         <v>1283</v>
@@ -35738,31 +35759,31 @@
         <v>27581</v>
       </c>
       <c r="I563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="J563" t="s">
         <v>1283</v>
       </c>
       <c r="K563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="L563" t="s">
         <v>1283</v>
       </c>
       <c r="M563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="P563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="Q563">
         <v>669713</v>
       </c>
       <c r="R563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S563" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.3">
@@ -36501,7 +36522,7 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B580" t="s">
         <v>1283</v>
@@ -36522,31 +36543,31 @@
         <v>21520</v>
       </c>
       <c r="I580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="J580" t="s">
         <v>1283</v>
       </c>
       <c r="K580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="L580" t="s">
         <v>1283</v>
       </c>
       <c r="M580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="P580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="Q580">
         <v>663687</v>
       </c>
       <c r="R580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="S580" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.3">
@@ -36780,7 +36801,7 @@
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B586" t="s">
         <v>1283</v>
@@ -36801,36 +36822,36 @@
         <v>25880</v>
       </c>
       <c r="I586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="J586" t="s">
         <v>1283</v>
       </c>
       <c r="K586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="L586" t="s">
         <v>1283</v>
       </c>
       <c r="M586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="P586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="Q586">
         <v>686613</v>
       </c>
       <c r="R586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="S586" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B587" t="s">
         <v>1283</v>
@@ -36851,28 +36872,28 @@
         <v>25636</v>
       </c>
       <c r="I587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="J587" t="s">
         <v>1283</v>
       </c>
       <c r="K587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="L587" t="s">
         <v>1283</v>
       </c>
       <c r="M587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="P587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="R587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="S587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.3">
@@ -37881,7 +37902,7 @@
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B610" t="s">
         <v>1283</v>
@@ -37902,31 +37923,31 @@
         <v>21212</v>
       </c>
       <c r="I610" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="J610" t="s">
         <v>1283</v>
       </c>
       <c r="K610" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="L610" t="s">
         <v>1283</v>
       </c>
       <c r="M610" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="P610" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="Q610">
         <v>641585</v>
       </c>
       <c r="R610" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="S610" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.3">
@@ -38034,7 +38055,7 @@
     </row>
     <row r="613" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B613" t="s">
         <v>1283</v>
@@ -38055,31 +38076,31 @@
         <v>30146</v>
       </c>
       <c r="I613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="J613" t="s">
         <v>1283</v>
       </c>
       <c r="K613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="L613" t="s">
         <v>1283</v>
       </c>
       <c r="M613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="P613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="Q613">
         <v>683004</v>
       </c>
       <c r="R613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="S613" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="614" spans="1:19" x14ac:dyDescent="0.3">
@@ -38228,7 +38249,7 @@
     </row>
     <row r="617" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B617" t="s">
         <v>1283</v>
@@ -38249,28 +38270,28 @@
         <v>29832</v>
       </c>
       <c r="I617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="J617" t="s">
         <v>1283</v>
       </c>
       <c r="K617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="L617" t="s">
         <v>1283</v>
       </c>
       <c r="M617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="P617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="R617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="S617" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="618" spans="1:19" x14ac:dyDescent="0.3">
@@ -40438,7 +40459,7 @@
     </row>
     <row r="663" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B663" t="s">
         <v>1283</v>
@@ -40459,31 +40480,31 @@
         <v>27863</v>
       </c>
       <c r="I663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="J663" t="s">
         <v>1283</v>
       </c>
       <c r="K663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="L663" t="s">
         <v>1283</v>
       </c>
       <c r="M663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="P663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="Q663">
         <v>683003</v>
       </c>
       <c r="R663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="S663" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="664" spans="1:19" x14ac:dyDescent="0.3">
@@ -40867,7 +40888,7 @@
     </row>
     <row r="672" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B672" t="s">
         <v>1283</v>
@@ -40888,31 +40909,31 @@
         <v>21741</v>
       </c>
       <c r="I672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="J672" t="s">
         <v>1283</v>
       </c>
       <c r="K672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="L672" t="s">
         <v>1283</v>
       </c>
       <c r="M672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="P672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="Q672">
         <v>665871</v>
       </c>
       <c r="R672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="S672" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="673" spans="1:19" x14ac:dyDescent="0.3">
@@ -41334,7 +41355,7 @@
     </row>
     <row r="682" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B682" t="s">
         <v>1283</v>
@@ -41352,31 +41373,31 @@
         <v>1347</v>
       </c>
       <c r="H682" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="I682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="J682" t="s">
         <v>1283</v>
       </c>
       <c r="K682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="L682" t="s">
         <v>1283</v>
       </c>
       <c r="M682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="P682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="R682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="S682" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="683" spans="1:19" x14ac:dyDescent="0.3">
@@ -41428,7 +41449,7 @@
     </row>
     <row r="684" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B684" t="s">
         <v>1283</v>
@@ -41449,22 +41470,22 @@
         <v>25830</v>
       </c>
       <c r="I684" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="J684" t="s">
         <v>1283</v>
       </c>
       <c r="K684" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="L684" t="s">
         <v>1283</v>
       </c>
       <c r="M684" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="S684" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="685" spans="1:19" x14ac:dyDescent="0.3">
@@ -42280,7 +42301,7 @@
     </row>
     <row r="702" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B702" t="s">
         <v>1283</v>
@@ -42301,28 +42322,28 @@
         <v>19205</v>
       </c>
       <c r="I702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="J702" t="s">
         <v>1283</v>
       </c>
       <c r="K702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="L702" t="s">
         <v>1283</v>
       </c>
       <c r="M702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="P702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="R702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="S702" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="703" spans="1:19" x14ac:dyDescent="0.3">
@@ -42662,7 +42683,7 @@
     </row>
     <row r="710" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B710" t="s">
         <v>1283</v>
@@ -42683,22 +42704,22 @@
         <v>25386</v>
       </c>
       <c r="I710" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="J710" t="s">
         <v>1283</v>
       </c>
       <c r="K710" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="L710" t="s">
         <v>1283</v>
       </c>
       <c r="M710" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="S710" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="711" spans="1:19" x14ac:dyDescent="0.3">
@@ -43361,7 +43382,7 @@
     </row>
     <row r="725" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B725" t="s">
         <v>1283</v>
@@ -43382,31 +43403,31 @@
         <v>29608</v>
       </c>
       <c r="I725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="J725" t="s">
         <v>1283</v>
       </c>
       <c r="K725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="L725" t="s">
         <v>1283</v>
       </c>
       <c r="M725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="P725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="Q725">
         <v>671212</v>
       </c>
       <c r="R725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="S725" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="726" spans="1:19" x14ac:dyDescent="0.3">
@@ -44114,7 +44135,7 @@
         <v>1346</v>
       </c>
       <c r="H740" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="I740" t="s">
         <v>1148</v>
@@ -44152,7 +44173,7 @@
     </row>
     <row r="741" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B741" t="s">
         <v>1283</v>
@@ -44173,31 +44194,31 @@
         <v>26257</v>
       </c>
       <c r="I741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="J741" t="s">
         <v>1283</v>
       </c>
       <c r="K741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="L741" t="s">
         <v>1283</v>
       </c>
       <c r="M741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="P741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="Q741">
         <v>683155</v>
       </c>
       <c r="R741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="S741" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="742" spans="1:19" x14ac:dyDescent="0.3">
@@ -44331,7 +44352,7 @@
     </row>
     <row r="745" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B745" t="s">
         <v>1283</v>
@@ -44352,31 +44373,31 @@
         <v>19962</v>
       </c>
       <c r="I745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="J745" t="s">
         <v>1283</v>
       </c>
       <c r="K745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="L745" t="s">
         <v>1283</v>
       </c>
       <c r="M745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="P745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="Q745">
         <v>666214</v>
       </c>
       <c r="R745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="S745" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="746" spans="1:19" x14ac:dyDescent="0.3">
@@ -45136,7 +45157,7 @@
     </row>
     <row r="762" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B762" t="s">
         <v>1283</v>
@@ -45157,36 +45178,36 @@
         <v>24607</v>
       </c>
       <c r="I762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="J762" t="s">
         <v>1283</v>
       </c>
       <c r="K762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="L762" t="s">
         <v>1283</v>
       </c>
       <c r="M762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="P762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="Q762">
         <v>680742</v>
       </c>
       <c r="R762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="S762" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="763" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B763" t="s">
         <v>1283</v>
@@ -45207,36 +45228,36 @@
         <v>31730</v>
       </c>
       <c r="I763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="J763" t="s">
         <v>1283</v>
       </c>
       <c r="K763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="L763" t="s">
         <v>1283</v>
       </c>
       <c r="M763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="P763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="Q763">
         <v>686563</v>
       </c>
       <c r="R763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="S763" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="764" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B764" t="s">
         <v>1283</v>
@@ -45263,7 +45284,7 @@
         <v>1283</v>
       </c>
       <c r="K764" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="L764" t="s">
         <v>1283</v>
@@ -45272,7 +45293,7 @@
         <v>2720</v>
       </c>
       <c r="S764" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="765" spans="1:19" x14ac:dyDescent="0.3">
@@ -46020,7 +46041,7 @@
     </row>
     <row r="781" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B781" t="s">
         <v>1283</v>
@@ -46041,31 +46062,31 @@
         <v>30094</v>
       </c>
       <c r="I781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="J781" t="s">
         <v>1283</v>
       </c>
       <c r="K781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="L781" t="s">
         <v>1283</v>
       </c>
       <c r="M781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="P781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="Q781">
         <v>696136</v>
       </c>
       <c r="R781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="S781" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="782" spans="1:19" x14ac:dyDescent="0.3">
@@ -46476,7 +46497,7 @@
         <v>1</v>
       </c>
       <c r="P790" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="Q790">
         <v>621244</v>
@@ -46490,7 +46511,7 @@
     </row>
     <row r="791" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B791" t="s">
         <v>1283</v>
@@ -46511,31 +46532,31 @@
         <v>23313</v>
       </c>
       <c r="I791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="J791" t="s">
         <v>1283</v>
       </c>
       <c r="K791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="L791" t="s">
         <v>1283</v>
       </c>
       <c r="M791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="P791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="Q791">
         <v>676130</v>
       </c>
       <c r="R791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="S791" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="792" spans="1:19" x14ac:dyDescent="0.3">
@@ -47160,7 +47181,7 @@
     </row>
     <row r="805" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B805" t="s">
         <v>1283</v>
@@ -47181,31 +47202,31 @@
         <v>22100</v>
       </c>
       <c r="I805" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="J805" t="s">
         <v>1283</v>
       </c>
       <c r="K805" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="L805" t="s">
         <v>1283</v>
       </c>
       <c r="M805" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="P805" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q805">
         <v>667755</v>
       </c>
       <c r="R805" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="S805" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="806" spans="1:19" x14ac:dyDescent="0.3">
@@ -47252,13 +47273,13 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="Q806">
         <v>660761</v>
       </c>
       <c r="R806" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="S806" t="s">
         <v>441</v>
@@ -47355,7 +47376,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q808">
         <v>570632</v>
@@ -48394,7 +48415,7 @@
     </row>
     <row r="831" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B831" t="s">
         <v>1283</v>
@@ -48415,31 +48436,31 @@
         <v>22387</v>
       </c>
       <c r="I831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="J831" t="s">
         <v>1283</v>
       </c>
       <c r="K831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="L831" t="s">
         <v>1283</v>
       </c>
       <c r="M831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="P831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="Q831">
         <v>670174</v>
       </c>
       <c r="R831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="S831" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="832" spans="1:19" x14ac:dyDescent="0.3">
@@ -48541,7 +48562,7 @@
     </row>
     <row r="834" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B834" t="s">
         <v>1283</v>
@@ -48562,31 +48583,31 @@
         <v>23429</v>
       </c>
       <c r="I834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="J834" t="s">
         <v>1283</v>
       </c>
       <c r="K834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="L834" t="s">
         <v>1283</v>
       </c>
       <c r="M834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="P834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="Q834">
         <v>676664</v>
       </c>
       <c r="R834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="S834" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="835" spans="1:19" x14ac:dyDescent="0.3">
@@ -50057,7 +50078,7 @@
     </row>
     <row r="866" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B866" t="s">
         <v>1283</v>
@@ -50078,31 +50099,31 @@
         <v>23499</v>
       </c>
       <c r="I866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="J866" t="s">
         <v>1283</v>
       </c>
       <c r="K866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="L866" t="s">
         <v>1283</v>
       </c>
       <c r="M866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="P866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="Q866">
         <v>676775</v>
       </c>
       <c r="R866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="S866" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="867" spans="1:19" x14ac:dyDescent="0.3">
@@ -50342,7 +50363,7 @@
     </row>
     <row r="872" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B872" t="s">
         <v>1283</v>
@@ -50363,22 +50384,22 @@
         <v>27681</v>
       </c>
       <c r="I872" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="J872" t="s">
         <v>1283</v>
       </c>
       <c r="K872" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="L872" t="s">
         <v>1283</v>
       </c>
       <c r="M872" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="S872" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="873" spans="1:19" x14ac:dyDescent="0.3">
@@ -50865,7 +50886,7 @@
     </row>
     <row r="883" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B883" t="s">
         <v>1283</v>
@@ -50886,28 +50907,28 @@
         <v>25679</v>
       </c>
       <c r="I883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="J883" t="s">
         <v>1283</v>
       </c>
       <c r="K883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="L883" t="s">
         <v>1283</v>
       </c>
       <c r="M883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="P883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="R883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="S883" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="884" spans="1:19" x14ac:dyDescent="0.3">
@@ -51188,7 +51209,7 @@
     </row>
     <row r="890" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B890" t="s">
         <v>1283</v>
@@ -51209,31 +51230,31 @@
         <v>31838</v>
       </c>
       <c r="I890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="J890" t="s">
         <v>1283</v>
       </c>
       <c r="K890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="L890" t="s">
         <v>1283</v>
       </c>
       <c r="M890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="P890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="Q890">
         <v>673540</v>
       </c>
       <c r="R890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="S890" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="891" spans="1:19" x14ac:dyDescent="0.3">
@@ -51749,7 +51770,7 @@
     </row>
     <row r="902" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B902" t="s">
         <v>1283</v>
@@ -51770,31 +51791,31 @@
         <v>24586</v>
       </c>
       <c r="I902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="J902" t="s">
         <v>1283</v>
       </c>
       <c r="K902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="L902" t="s">
         <v>1283</v>
       </c>
       <c r="M902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="P902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="Q902">
         <v>680694</v>
       </c>
       <c r="R902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="S902" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="903" spans="1:19" x14ac:dyDescent="0.3">
@@ -52175,7 +52196,7 @@
     </row>
     <row r="911" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B911" t="s">
         <v>1283</v>
@@ -52196,31 +52217,31 @@
         <v>27758</v>
       </c>
       <c r="I911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="J911" t="s">
         <v>1283</v>
       </c>
       <c r="K911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="L911" t="s">
         <v>1283</v>
       </c>
       <c r="M911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="P911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="Q911">
         <v>690986</v>
       </c>
       <c r="R911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="S911" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="912" spans="1:19" x14ac:dyDescent="0.3">
@@ -52622,7 +52643,7 @@
     </row>
     <row r="920" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B920" t="s">
         <v>1283</v>
@@ -52643,31 +52664,31 @@
         <v>22092</v>
       </c>
       <c r="I920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="J920" t="s">
         <v>1283</v>
       </c>
       <c r="K920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="L920" t="s">
         <v>1283</v>
       </c>
       <c r="M920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="P920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="Q920">
         <v>667725</v>
       </c>
       <c r="R920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="S920" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="921" spans="1:19" x14ac:dyDescent="0.3">
@@ -53401,7 +53422,7 @@
     </row>
     <row r="936" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B936" t="s">
         <v>1283</v>
@@ -53422,31 +53443,31 @@
         <v>27691</v>
       </c>
       <c r="I936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="J936" t="s">
         <v>1283</v>
       </c>
       <c r="K936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="L936" t="s">
         <v>1283</v>
       </c>
       <c r="M936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="P936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="Q936">
         <v>686973</v>
       </c>
       <c r="R936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="S936" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="937" spans="1:19" x14ac:dyDescent="0.3">
@@ -55377,7 +55398,7 @@
         <v>1</v>
       </c>
       <c r="P976" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="Q976">
         <v>527048</v>
@@ -55438,7 +55459,7 @@
     </row>
     <row r="978" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B978" t="s">
         <v>1283</v>
@@ -55459,36 +55480,36 @@
         <v>30171</v>
       </c>
       <c r="I978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="J978" t="s">
         <v>1283</v>
       </c>
       <c r="K978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="L978" t="s">
         <v>1283</v>
       </c>
       <c r="M978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="P978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="Q978">
         <v>696131</v>
       </c>
       <c r="R978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="S978" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="979" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B979" t="s">
         <v>1283</v>
@@ -55509,28 +55530,28 @@
         <v>22288</v>
       </c>
       <c r="I979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="J979" t="s">
         <v>1283</v>
       </c>
       <c r="K979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="L979" t="s">
         <v>1283</v>
       </c>
       <c r="M979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="P979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="R979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="S979" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="980" spans="1:19" x14ac:dyDescent="0.3">
@@ -55582,7 +55603,7 @@
     </row>
     <row r="981" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B981" t="s">
         <v>1283</v>
@@ -55603,22 +55624,22 @@
         <v>21757</v>
       </c>
       <c r="I981" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="J981" t="s">
         <v>1283</v>
       </c>
       <c r="K981" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="L981" t="s">
         <v>1283</v>
       </c>
       <c r="M981" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="S981" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="982" spans="1:19" x14ac:dyDescent="0.3">
@@ -56707,7 +56728,7 @@
     </row>
     <row r="1005" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1005" t="s">
         <v>1283</v>
@@ -56728,31 +56749,31 @@
         <v>25550</v>
       </c>
       <c r="I1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="J1005" t="s">
         <v>1283</v>
       </c>
       <c r="K1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="L1005" t="s">
         <v>1283</v>
       </c>
       <c r="M1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="P1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="Q1005">
         <v>663362</v>
       </c>
       <c r="R1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="S1005" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="1006" spans="1:19" x14ac:dyDescent="0.3">
@@ -56981,7 +57002,7 @@
         <v>1283</v>
       </c>
       <c r="K1010" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="L1010" t="s">
         <v>1283</v>
@@ -57051,7 +57072,7 @@
     </row>
     <row r="1012" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B1012" t="s">
         <v>1283</v>
@@ -57072,22 +57093,22 @@
         <v>21956</v>
       </c>
       <c r="I1012" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="J1012" t="s">
         <v>1283</v>
       </c>
       <c r="K1012" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="L1012" t="s">
         <v>1283</v>
       </c>
       <c r="M1012" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="S1012" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1013" spans="1:19" x14ac:dyDescent="0.3">
@@ -57425,13 +57446,13 @@
         <v>20206</v>
       </c>
       <c r="I1019" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="J1019" t="s">
         <v>1283</v>
       </c>
       <c r="K1019" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="L1019" t="s">
         <v>1283</v>
@@ -57980,7 +58001,7 @@
     </row>
     <row r="1031" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B1031" t="s">
         <v>1283</v>
@@ -58007,30 +58028,30 @@
         <v>1283</v>
       </c>
       <c r="K1031" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="L1031" t="s">
         <v>1283</v>
       </c>
       <c r="M1031" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="P1031" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="Q1031">
         <v>647336</v>
       </c>
       <c r="R1031" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="S1031" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1032" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1032" t="s">
         <v>1283</v>
@@ -58051,28 +58072,28 @@
         <v>10315</v>
       </c>
       <c r="I1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="J1032" t="s">
         <v>1283</v>
       </c>
       <c r="K1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="L1032" t="s">
         <v>1283</v>
       </c>
       <c r="M1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="P1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="R1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="S1032" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1033" spans="1:19" x14ac:dyDescent="0.3">
@@ -59320,7 +59341,7 @@
     </row>
     <row r="1059" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1059" t="s">
         <v>1283</v>
@@ -59341,31 +59362,31 @@
         <v>27707</v>
       </c>
       <c r="I1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="J1059" t="s">
         <v>1283</v>
       </c>
       <c r="K1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="L1059" t="s">
         <v>1283</v>
       </c>
       <c r="M1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="P1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="Q1059">
         <v>687765</v>
       </c>
       <c r="R1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="S1059" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1060" spans="1:19" x14ac:dyDescent="0.3">
@@ -59458,7 +59479,7 @@
     </row>
     <row r="1062" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1062" t="s">
         <v>1283</v>
@@ -59479,31 +59500,31 @@
         <v>27636</v>
       </c>
       <c r="I1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J1062" t="s">
         <v>1283</v>
       </c>
       <c r="K1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="L1062" t="s">
         <v>1283</v>
       </c>
       <c r="M1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="P1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="Q1062">
         <v>680730</v>
       </c>
       <c r="R1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="S1062" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1063" spans="1:19" x14ac:dyDescent="0.3">
@@ -60633,7 +60654,7 @@
     </row>
     <row r="1087" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B1087" t="s">
         <v>1283</v>
@@ -60654,31 +60675,31 @@
         <v>12730</v>
       </c>
       <c r="I1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="J1087" t="s">
         <v>1283</v>
       </c>
       <c r="K1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="L1087" t="s">
         <v>1283</v>
       </c>
       <c r="M1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="P1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="Q1087">
         <v>607259</v>
       </c>
       <c r="R1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="S1087" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1088" spans="1:19" x14ac:dyDescent="0.3">
@@ -60724,7 +60745,7 @@
     </row>
     <row r="1089" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B1089" t="s">
         <v>1283</v>
@@ -60745,31 +60766,31 @@
         <v>29833</v>
       </c>
       <c r="I1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="J1089" t="s">
         <v>1283</v>
       </c>
       <c r="K1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="L1089" t="s">
         <v>1283</v>
       </c>
       <c r="M1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="P1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="Q1089">
         <v>680897</v>
       </c>
       <c r="R1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="S1089" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1090" spans="1:19" x14ac:dyDescent="0.3">
@@ -60965,7 +60986,7 @@
     </row>
     <row r="1094" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B1094" t="s">
         <v>1283</v>
@@ -60986,28 +61007,28 @@
         <v>26226</v>
       </c>
       <c r="I1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="J1094" t="s">
         <v>1283</v>
       </c>
       <c r="K1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="L1094" t="s">
         <v>1283</v>
       </c>
       <c r="M1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="P1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="R1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="S1094" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1095" spans="1:19" x14ac:dyDescent="0.3">
@@ -61511,7 +61532,7 @@
     </row>
     <row r="1106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1106" t="s">
         <v>1283</v>
@@ -61532,22 +61553,22 @@
         <v>25862</v>
       </c>
       <c r="I1106" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="J1106" t="s">
         <v>1283</v>
       </c>
       <c r="K1106" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="L1106" t="s">
         <v>1283</v>
       </c>
       <c r="M1106" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="S1106" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1107" spans="1:19" x14ac:dyDescent="0.3">
@@ -61925,7 +61946,7 @@
     </row>
     <row r="1115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1115" t="s">
         <v>1283</v>
@@ -61946,31 +61967,31 @@
         <v>23150</v>
       </c>
       <c r="I1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="J1115" t="s">
         <v>1283</v>
       </c>
       <c r="K1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="L1115" t="s">
         <v>1283</v>
       </c>
       <c r="M1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="P1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="Q1115">
         <v>674370</v>
       </c>
       <c r="R1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="S1115" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1116" spans="1:19" x14ac:dyDescent="0.3">
@@ -62022,7 +62043,7 @@
     </row>
     <row r="1117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1117" t="s">
         <v>1283</v>
@@ -62064,16 +62085,16 @@
         <v>1</v>
       </c>
       <c r="P1117" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="Q1117">
         <v>641154</v>
       </c>
       <c r="R1117" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="S1117" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1118" spans="1:19" x14ac:dyDescent="0.3">
@@ -62739,7 +62760,7 @@
     </row>
     <row r="1132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1132" t="s">
         <v>1283</v>
@@ -62760,31 +62781,31 @@
         <v>33677</v>
       </c>
       <c r="I1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="J1132" t="s">
         <v>1283</v>
       </c>
       <c r="K1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="L1132" t="s">
         <v>1283</v>
       </c>
       <c r="M1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="P1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="Q1132">
         <v>694973</v>
       </c>
       <c r="R1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="S1132" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1133" spans="1:19" x14ac:dyDescent="0.3">
@@ -63262,7 +63283,7 @@
     </row>
     <row r="1143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B1143" t="s">
         <v>1283</v>
@@ -63283,22 +63304,22 @@
         <v>25777</v>
       </c>
       <c r="I1143" t="s">
+        <v>2762</v>
+      </c>
+      <c r="J1143" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1143" t="s">
         <v>2763</v>
       </c>
-      <c r="J1143" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K1143" t="s">
-        <v>2764</v>
-      </c>
       <c r="L1143" t="s">
         <v>1283</v>
       </c>
       <c r="M1143" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="S1143" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1144" spans="1:19" x14ac:dyDescent="0.3">
@@ -63620,7 +63641,7 @@
     </row>
     <row r="1151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1151" t="s">
         <v>1283</v>
@@ -63641,28 +63662,28 @@
         <v>25977</v>
       </c>
       <c r="I1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="J1151" t="s">
         <v>1283</v>
       </c>
       <c r="K1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="L1151" t="s">
         <v>1283</v>
       </c>
       <c r="M1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="P1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="R1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="S1151" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="1152" spans="1:19" x14ac:dyDescent="0.3">
@@ -64166,7 +64187,7 @@
     </row>
     <row r="1163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B1163" t="s">
         <v>1283</v>
@@ -64187,31 +64208,31 @@
         <v>24719</v>
       </c>
       <c r="I1163" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="J1163" t="s">
         <v>1283</v>
       </c>
       <c r="K1163" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="L1163" t="s">
         <v>1283</v>
       </c>
       <c r="M1163" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="P1163" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="Q1163">
         <v>681190</v>
       </c>
       <c r="R1163" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="S1163" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1164" spans="1:19" x14ac:dyDescent="0.3">
@@ -64258,13 +64279,13 @@
         <v>1</v>
       </c>
       <c r="P1164" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="Q1164">
         <v>624133</v>
       </c>
       <c r="R1164" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="S1164" t="s">
         <v>630</v>
@@ -64319,7 +64340,7 @@
     </row>
     <row r="1166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1166" t="s">
         <v>1283</v>
@@ -64340,31 +64361,31 @@
         <v>23809</v>
       </c>
       <c r="I1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="J1166" t="s">
         <v>1283</v>
       </c>
       <c r="K1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="L1166" t="s">
         <v>1283</v>
       </c>
       <c r="M1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="P1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="Q1166">
         <v>678061</v>
       </c>
       <c r="R1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="S1166" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1167" spans="1:19" x14ac:dyDescent="0.3">
@@ -64463,7 +64484,7 @@
     </row>
     <row r="1169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1169" t="s">
         <v>1283</v>
@@ -64484,31 +64505,31 @@
         <v>24968</v>
       </c>
       <c r="I1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="J1169" t="s">
         <v>1283</v>
       </c>
       <c r="K1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="L1169" t="s">
         <v>1283</v>
       </c>
       <c r="M1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="P1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="Q1169">
         <v>681857</v>
       </c>
       <c r="R1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="S1169" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1170" spans="1:19" x14ac:dyDescent="0.3">
@@ -64657,7 +64678,7 @@
     </row>
     <row r="1173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1173" t="s">
         <v>1283</v>
@@ -64681,22 +64702,22 @@
         <v>19754</v>
       </c>
       <c r="I1173" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="J1173" t="s">
         <v>1283</v>
       </c>
       <c r="K1173" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="L1173" t="s">
         <v>1283</v>
       </c>
       <c r="M1173" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="S1173" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1174" spans="1:19" x14ac:dyDescent="0.3">
@@ -65935,7 +65956,7 @@
     </row>
     <row r="1200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1200" t="s">
         <v>1283</v>
@@ -65956,31 +65977,31 @@
         <v>29812</v>
       </c>
       <c r="I1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="J1200" t="s">
         <v>1283</v>
       </c>
       <c r="K1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="L1200" t="s">
         <v>1283</v>
       </c>
       <c r="M1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="P1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="Q1200">
         <v>688107</v>
       </c>
       <c r="R1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="S1200" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1201" spans="1:19" x14ac:dyDescent="0.3">
@@ -66214,7 +66235,7 @@
     </row>
     <row r="1206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1206" t="s">
         <v>1283</v>
@@ -66235,31 +66256,31 @@
         <v>25311</v>
       </c>
       <c r="I1206" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="J1206" t="s">
         <v>1283</v>
       </c>
       <c r="K1206" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="L1206" t="s">
         <v>1283</v>
       </c>
       <c r="M1206" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="P1206" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="Q1206">
         <v>682610</v>
       </c>
       <c r="R1206" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="S1206" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1207" spans="1:19" x14ac:dyDescent="0.3">
@@ -67965,10 +67986,10 @@
         <v>1283</v>
       </c>
       <c r="C1243" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="D1243" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="E1243" t="s">
         <v>1347</v>
@@ -68103,7 +68124,7 @@
     </row>
     <row r="1246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1246" t="s">
         <v>1283</v>
@@ -68124,31 +68145,31 @@
         <v>26253</v>
       </c>
       <c r="I1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="J1246" t="s">
         <v>1283</v>
       </c>
       <c r="K1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="L1246" t="s">
         <v>1283</v>
       </c>
       <c r="M1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="P1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="Q1246">
         <v>669194</v>
       </c>
       <c r="R1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="S1246" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1247" spans="1:19" x14ac:dyDescent="0.3">
@@ -68200,7 +68221,7 @@
     </row>
     <row r="1248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B1248" t="s">
         <v>1283</v>
@@ -68221,22 +68242,22 @@
         <v>31839</v>
       </c>
       <c r="I1248" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="J1248" t="s">
         <v>1283</v>
       </c>
       <c r="K1248" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L1248" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1248" t="s">
         <v>2751</v>
       </c>
-      <c r="L1248" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1248" t="s">
-        <v>2752</v>
-      </c>
       <c r="S1248" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1249" spans="1:19" x14ac:dyDescent="0.3">
@@ -71110,7 +71131,7 @@
     </row>
     <row r="1311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B1311" t="s">
         <v>1283</v>
@@ -71131,31 +71152,31 @@
         <v>33829</v>
       </c>
       <c r="I1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="J1311" t="s">
         <v>1283</v>
       </c>
       <c r="K1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="L1311" t="s">
         <v>1283</v>
       </c>
       <c r="M1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="P1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="Q1311">
         <v>684007</v>
       </c>
       <c r="R1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="S1311" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1312" spans="1:19" x14ac:dyDescent="0.3">
@@ -71228,7 +71249,7 @@
         <v>1283</v>
       </c>
       <c r="K1313" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="L1313" t="s">
         <v>1283</v>
@@ -71299,7 +71320,7 @@
         <v>1</v>
       </c>
       <c r="P1314" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="Q1314">
         <v>664350</v>
@@ -71313,7 +71334,7 @@
     </row>
     <row r="1315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1315" t="s">
         <v>1283</v>
@@ -71334,31 +71355,31 @@
         <v>27500</v>
       </c>
       <c r="I1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="J1315" t="s">
         <v>1283</v>
       </c>
       <c r="K1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="L1315" t="s">
         <v>1283</v>
       </c>
       <c r="M1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="P1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="Q1315">
         <v>677944</v>
       </c>
       <c r="R1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="S1315" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1316" spans="1:19" x14ac:dyDescent="0.3">
@@ -71419,7 +71440,7 @@
     </row>
     <row r="1317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B1317" t="s">
         <v>1283</v>
@@ -71440,31 +71461,31 @@
         <v>29921</v>
       </c>
       <c r="I1317" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="J1317" t="s">
         <v>1283</v>
       </c>
       <c r="K1317" t="s">
+        <v>2843</v>
+      </c>
+      <c r="L1317" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1317" t="s">
         <v>2844</v>
       </c>
-      <c r="L1317" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1317" t="s">
-        <v>2845</v>
-      </c>
       <c r="P1317" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="Q1317">
         <v>681293</v>
       </c>
       <c r="R1317" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="S1317" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1318" spans="1:19" x14ac:dyDescent="0.3">
@@ -71525,7 +71546,7 @@
     </row>
     <row r="1319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B1319" t="s">
         <v>1283</v>
@@ -71546,31 +71567,31 @@
         <v>27498</v>
       </c>
       <c r="I1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="J1319" t="s">
         <v>1283</v>
       </c>
       <c r="K1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="L1319" t="s">
         <v>1283</v>
       </c>
       <c r="M1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="P1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="Q1319">
         <v>675911</v>
       </c>
       <c r="R1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="S1319" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1320" spans="1:19" x14ac:dyDescent="0.3">
@@ -72424,7 +72445,7 @@
     </row>
     <row r="1338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B1338" t="s">
         <v>1283</v>
@@ -72445,31 +72466,31 @@
         <v>22543</v>
       </c>
       <c r="I1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="J1338" t="s">
         <v>1283</v>
       </c>
       <c r="K1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="L1338" t="s">
         <v>1283</v>
       </c>
       <c r="M1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="P1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="Q1338">
         <v>671737</v>
       </c>
       <c r="R1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="S1338" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1339" spans="1:19" x14ac:dyDescent="0.3">
@@ -72521,7 +72542,7 @@
     </row>
     <row r="1340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B1340" t="s">
         <v>1283</v>
@@ -72542,31 +72563,31 @@
         <v>30134</v>
       </c>
       <c r="I1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="J1340" t="s">
         <v>1283</v>
       </c>
       <c r="K1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="L1340" t="s">
         <v>1283</v>
       </c>
       <c r="M1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="P1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="Q1340">
         <v>676440</v>
       </c>
       <c r="R1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="S1340" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1341" spans="1:19" x14ac:dyDescent="0.3">
@@ -74075,7 +74096,7 @@
     </row>
     <row r="1373" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1373" t="s">
         <v>1283</v>
@@ -74096,31 +74117,31 @@
         <v>22191</v>
       </c>
       <c r="I1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="J1373" t="s">
         <v>1283</v>
       </c>
       <c r="K1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="L1373" t="s">
         <v>1283</v>
       </c>
       <c r="M1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="P1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="Q1373">
         <v>668964</v>
       </c>
       <c r="R1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="S1373" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1374" spans="1:19" x14ac:dyDescent="0.3">
@@ -75800,7 +75821,7 @@
     </row>
     <row r="1409" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B1409" t="s">
         <v>1283</v>
@@ -75821,31 +75842,31 @@
         <v>21584</v>
       </c>
       <c r="I1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="J1409" t="s">
         <v>1283</v>
       </c>
       <c r="K1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="L1409" t="s">
         <v>1283</v>
       </c>
       <c r="M1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="P1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="Q1409">
         <v>663941</v>
       </c>
       <c r="R1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="S1409" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1410" spans="1:19" x14ac:dyDescent="0.3">
@@ -76711,7 +76732,7 @@
     </row>
     <row r="1428" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1428" t="s">
         <v>1283</v>
@@ -76732,31 +76753,31 @@
         <v>26231</v>
       </c>
       <c r="I1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="J1428" t="s">
         <v>1283</v>
       </c>
       <c r="K1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="L1428" t="s">
         <v>1283</v>
       </c>
       <c r="M1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="P1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="Q1428">
         <v>663947</v>
       </c>
       <c r="R1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="S1428" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1429" spans="1:19" x14ac:dyDescent="0.3">
@@ -77067,7 +77088,7 @@
         <v>1997</v>
       </c>
       <c r="H1435" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="I1435" t="s">
         <v>1004</v>
@@ -77328,7 +77349,7 @@
     </row>
     <row r="1441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1441" t="s">
         <v>1283</v>
@@ -77349,31 +77370,31 @@
         <v>20000</v>
       </c>
       <c r="I1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="J1441" t="s">
         <v>1283</v>
       </c>
       <c r="K1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="L1441" t="s">
         <v>1283</v>
       </c>
       <c r="M1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="P1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="Q1441">
         <v>669330</v>
       </c>
       <c r="R1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="S1441" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1442" spans="1:19" x14ac:dyDescent="0.3">
@@ -78999,7 +79020,7 @@
     </row>
     <row r="1477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1477" t="s">
         <v>1283</v>
@@ -79017,25 +79038,25 @@
         <v>1346</v>
       </c>
       <c r="H1477" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="I1477" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="J1477" t="s">
         <v>1283</v>
       </c>
       <c r="K1477" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="L1477" t="s">
         <v>1283</v>
       </c>
       <c r="M1477" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="S1477" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1478" spans="1:19" x14ac:dyDescent="0.3">
@@ -79269,7 +79290,7 @@
     </row>
     <row r="1483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1483" t="s">
         <v>1283</v>
@@ -79290,31 +79311,31 @@
         <v>25595</v>
       </c>
       <c r="I1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="J1483" t="s">
         <v>1283</v>
       </c>
       <c r="K1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="L1483" t="s">
         <v>1283</v>
       </c>
       <c r="M1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="P1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="Q1483">
         <v>675540</v>
       </c>
       <c r="R1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="S1483" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1484" spans="1:19" x14ac:dyDescent="0.3">
@@ -79501,7 +79522,7 @@
     </row>
     <row r="1488" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1488" t="s">
         <v>1283</v>
@@ -79522,31 +79543,31 @@
         <v>33838</v>
       </c>
       <c r="I1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="J1488" t="s">
         <v>1283</v>
       </c>
       <c r="K1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="L1488" t="s">
         <v>1283</v>
       </c>
       <c r="M1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="P1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="Q1488">
         <v>684320</v>
       </c>
       <c r="R1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="S1488" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1489" spans="1:19" x14ac:dyDescent="0.3">
@@ -80112,7 +80133,7 @@
     </row>
     <row r="1501" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B1501" t="s">
         <v>1283</v>
@@ -80133,31 +80154,31 @@
         <v>33825</v>
       </c>
       <c r="I1501" t="s">
+        <v>2840</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1501" t="s">
         <v>2841</v>
       </c>
-      <c r="J1501" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K1501" t="s">
-        <v>2842</v>
-      </c>
       <c r="L1501" t="s">
         <v>1283</v>
       </c>
       <c r="M1501" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="P1501" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="Q1501">
         <v>808967</v>
       </c>
       <c r="R1501" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="S1501" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1502" spans="1:19" x14ac:dyDescent="0.3">
@@ -80765,7 +80786,7 @@
     </row>
     <row r="1514" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1514" t="s">
         <v>1283</v>
@@ -80786,31 +80807,31 @@
         <v>20231</v>
       </c>
       <c r="I1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="J1514" t="s">
         <v>1283</v>
       </c>
       <c r="K1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="L1514" t="s">
         <v>1283</v>
       </c>
       <c r="M1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="P1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="Q1514">
         <v>656657</v>
       </c>
       <c r="R1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="S1514" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="1515" spans="1:19" x14ac:dyDescent="0.3">
@@ -80862,7 +80883,7 @@
     </row>
     <row r="1516" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1516" t="s">
         <v>1283</v>
@@ -80883,22 +80904,22 @@
         <v>11294</v>
       </c>
       <c r="I1516" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="J1516" t="s">
         <v>1283</v>
       </c>
       <c r="K1516" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="L1516" t="s">
         <v>1283</v>
       </c>
       <c r="M1516" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="S1516" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1517" spans="1:19" x14ac:dyDescent="0.3">
@@ -81547,7 +81568,7 @@
     </row>
     <row r="1530" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1530" t="s">
         <v>1283</v>
@@ -81568,36 +81589,36 @@
         <v>26952</v>
       </c>
       <c r="I1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="J1530" t="s">
         <v>1283</v>
       </c>
       <c r="K1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="L1530" t="s">
         <v>1283</v>
       </c>
       <c r="M1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="P1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="Q1530">
         <v>683627</v>
       </c>
       <c r="R1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="S1530" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1531" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1531" t="s">
         <v>1283</v>
@@ -81618,36 +81639,36 @@
         <v>26108</v>
       </c>
       <c r="I1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="J1531" t="s">
         <v>1283</v>
       </c>
       <c r="K1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="L1531" t="s">
         <v>1283</v>
       </c>
       <c r="M1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="P1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="Q1531">
         <v>669467</v>
       </c>
       <c r="R1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="S1531" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1532" t="s">
         <v>1283</v>
@@ -81668,36 +81689,36 @@
         <v>22630</v>
       </c>
       <c r="I1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="J1532" t="s">
         <v>1283</v>
       </c>
       <c r="K1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="L1532" t="s">
         <v>1283</v>
       </c>
       <c r="M1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="P1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="Q1532">
         <v>672456</v>
       </c>
       <c r="R1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="S1532" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1533" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1533" t="s">
         <v>1283</v>
@@ -81718,36 +81739,36 @@
         <v>31846</v>
       </c>
       <c r="I1533" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="J1533" t="s">
         <v>1283</v>
       </c>
       <c r="K1533" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="L1533" t="s">
         <v>1283</v>
       </c>
       <c r="M1533" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="P1533" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="Q1533">
         <v>680885</v>
       </c>
       <c r="R1533" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="S1533" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1534" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1534" t="s">
         <v>1283</v>
@@ -81768,36 +81789,36 @@
         <v>26389</v>
       </c>
       <c r="I1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="J1534" t="s">
         <v>1283</v>
       </c>
       <c r="K1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="L1534" t="s">
         <v>1283</v>
       </c>
       <c r="M1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="P1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="Q1534">
         <v>687792</v>
       </c>
       <c r="R1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="S1534" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1535" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1535" t="s">
         <v>1283</v>
@@ -81818,36 +81839,36 @@
         <v>31900</v>
       </c>
       <c r="I1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="J1535" t="s">
         <v>1283</v>
       </c>
       <c r="K1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="L1535" t="s">
         <v>1283</v>
       </c>
       <c r="M1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="P1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="Q1535">
         <v>800049</v>
       </c>
       <c r="R1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="S1535" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1536" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1536" t="s">
         <v>1283</v>
@@ -81868,36 +81889,36 @@
         <v>30055</v>
       </c>
       <c r="I1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="J1536" t="s">
         <v>1283</v>
       </c>
       <c r="K1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="L1536" t="s">
         <v>1283</v>
       </c>
       <c r="M1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="P1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="Q1536">
         <v>700249</v>
       </c>
       <c r="R1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="S1536" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1537" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B1537" t="s">
         <v>1283</v>
@@ -81918,36 +81939,36 @@
         <v>33527</v>
       </c>
       <c r="I1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="J1537" t="s">
         <v>1283</v>
       </c>
       <c r="K1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="L1537" t="s">
         <v>1283</v>
       </c>
       <c r="M1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="P1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="Q1537">
         <v>694462</v>
       </c>
       <c r="R1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="S1537" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1538" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B1538" t="s">
         <v>1283</v>
@@ -81968,36 +81989,36 @@
         <v>16835</v>
       </c>
       <c r="I1538" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="J1538" t="s">
         <v>1283</v>
       </c>
       <c r="K1538" t="s">
+        <v>2884</v>
+      </c>
+      <c r="L1538" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1538" t="s">
         <v>2885</v>
       </c>
-      <c r="L1538" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1538" t="s">
-        <v>2886</v>
-      </c>
       <c r="P1538" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="Q1538">
         <v>657514</v>
       </c>
       <c r="R1538" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="S1538" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1539" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B1539" t="s">
         <v>1283</v>
@@ -82018,36 +82039,36 @@
         <v>30161</v>
       </c>
       <c r="I1539" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="J1539" t="s">
         <v>1283</v>
       </c>
       <c r="K1539" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L1539" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1539" t="s">
         <v>2888</v>
       </c>
-      <c r="L1539" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1539" t="s">
-        <v>2889</v>
-      </c>
       <c r="P1539" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="Q1539">
         <v>692230</v>
       </c>
       <c r="R1539" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="S1539" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1540" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B1540" t="s">
         <v>1283</v>
@@ -82068,36 +82089,36 @@
         <v>27572</v>
       </c>
       <c r="I1540" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="J1540" t="s">
         <v>1283</v>
       </c>
       <c r="K1540" t="s">
+        <v>2890</v>
+      </c>
+      <c r="L1540" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1540" t="s">
         <v>2891</v>
       </c>
-      <c r="L1540" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1540" t="s">
-        <v>2892</v>
-      </c>
       <c r="P1540" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="Q1540">
         <v>669387</v>
       </c>
       <c r="R1540" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="S1540" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1541" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B1541" t="s">
         <v>1283</v>
@@ -82118,36 +82139,36 @@
         <v>30226</v>
       </c>
       <c r="I1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="J1541" t="s">
         <v>1283</v>
       </c>
       <c r="K1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="L1541" t="s">
         <v>1283</v>
       </c>
       <c r="M1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="P1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="Q1541">
         <v>702352</v>
       </c>
       <c r="R1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="S1541" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1542" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B1542" t="s">
         <v>1283</v>
@@ -82168,36 +82189,36 @@
         <v>27685</v>
       </c>
       <c r="I1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="J1542" t="s">
         <v>1283</v>
       </c>
       <c r="K1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="L1542" t="s">
         <v>1283</v>
       </c>
       <c r="M1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="P1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="Q1542">
         <v>686730</v>
       </c>
       <c r="R1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="S1542" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1543" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B1543" t="s">
         <v>1283</v>
@@ -82218,36 +82239,36 @@
         <v>33168</v>
       </c>
       <c r="I1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="J1543" t="s">
         <v>1283</v>
       </c>
       <c r="K1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="L1543" t="s">
         <v>1283</v>
       </c>
       <c r="M1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="P1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="Q1543">
         <v>814005</v>
       </c>
       <c r="R1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="S1543" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1544" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B1544" t="s">
         <v>1283</v>
@@ -82265,39 +82286,39 @@
         <v>1346</v>
       </c>
       <c r="H1544" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="I1544" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="J1544" t="s">
         <v>1283</v>
       </c>
       <c r="K1544" t="s">
+        <v>2896</v>
+      </c>
+      <c r="L1544" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1544" t="s">
         <v>2897</v>
       </c>
-      <c r="L1544" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M1544" t="s">
-        <v>2898</v>
-      </c>
       <c r="P1544" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="Q1544">
         <v>687931</v>
       </c>
       <c r="R1544" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="S1544" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1545" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B1545" t="s">
         <v>1283</v>
@@ -82318,36 +82339,36 @@
         <v>21481</v>
       </c>
       <c r="I1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="J1545" t="s">
         <v>1283</v>
       </c>
       <c r="K1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="L1545" t="s">
         <v>1283</v>
       </c>
       <c r="M1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="P1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="Q1545">
         <v>663546</v>
       </c>
       <c r="R1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="S1545" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1546" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B1546" t="s">
         <v>1283</v>
@@ -82368,36 +82389,36 @@
         <v>23899</v>
       </c>
       <c r="I1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="J1546" t="s">
         <v>1283</v>
       </c>
       <c r="K1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="L1546" t="s">
         <v>1283</v>
       </c>
       <c r="M1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="P1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="Q1546">
         <v>678368</v>
       </c>
       <c r="R1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="S1546" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1547" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B1547" t="s">
         <v>1283</v>
@@ -82418,36 +82439,36 @@
         <v>31635</v>
       </c>
       <c r="I1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="J1547" t="s">
         <v>1283</v>
       </c>
       <c r="K1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="L1547" t="s">
         <v>1283</v>
       </c>
       <c r="M1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="P1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="Q1547">
         <v>806185</v>
       </c>
       <c r="R1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="S1547" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1548" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1548" t="s">
         <v>1283</v>
@@ -82468,36 +82489,36 @@
         <v>30056</v>
       </c>
       <c r="I1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="J1548" t="s">
         <v>1283</v>
       </c>
       <c r="K1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="L1548" t="s">
         <v>1283</v>
       </c>
       <c r="M1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="P1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="Q1548">
         <v>701581</v>
       </c>
       <c r="R1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="S1548" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1549" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B1549" t="s">
         <v>1283</v>
@@ -82518,36 +82539,36 @@
         <v>27582</v>
       </c>
       <c r="I1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="J1549" t="s">
         <v>1283</v>
       </c>
       <c r="K1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="L1549" t="s">
         <v>1283</v>
       </c>
       <c r="M1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="P1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="Q1549">
         <v>669721</v>
       </c>
       <c r="R1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="S1549" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1550" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1550" t="s">
         <v>1283</v>
@@ -82568,36 +82589,36 @@
         <v>26252</v>
       </c>
       <c r="I1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="J1550" t="s">
         <v>1283</v>
       </c>
       <c r="K1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="L1550" t="s">
         <v>1283</v>
       </c>
       <c r="M1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="P1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="Q1550">
         <v>669062</v>
       </c>
       <c r="R1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="S1550" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1551" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B1551" t="s">
         <v>1283</v>
@@ -82618,36 +82639,36 @@
         <v>30076</v>
       </c>
       <c r="I1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="J1551" t="s">
         <v>1283</v>
       </c>
       <c r="K1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="L1551" t="s">
         <v>1283</v>
       </c>
       <c r="M1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="P1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="Q1551">
         <v>689017</v>
       </c>
       <c r="R1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="S1551" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1552" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B1552" t="s">
         <v>1283</v>
@@ -82668,36 +82689,36 @@
         <v>23223</v>
       </c>
       <c r="I1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="J1552" t="s">
         <v>1283</v>
       </c>
       <c r="K1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="L1552" t="s">
         <v>1283</v>
       </c>
       <c r="M1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="P1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="Q1552">
         <v>675650</v>
       </c>
       <c r="R1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="S1552" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1553" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B1553" t="s">
         <v>1283</v>
@@ -82718,36 +82739,36 @@
         <v>27974</v>
       </c>
       <c r="I1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="J1553" t="s">
         <v>1283</v>
       </c>
       <c r="K1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="L1553" t="s">
         <v>1283</v>
       </c>
       <c r="M1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="P1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="Q1553">
         <v>691441</v>
       </c>
       <c r="R1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="S1553" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1554" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B1554" t="s">
         <v>1283</v>
@@ -82768,36 +82789,36 @@
         <v>27669</v>
       </c>
       <c r="I1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="J1554" t="s">
         <v>1283</v>
       </c>
       <c r="K1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="L1554" t="s">
         <v>1283</v>
       </c>
       <c r="M1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="P1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="Q1554">
         <v>685299</v>
       </c>
       <c r="R1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="S1554" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1555" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B1555" t="s">
         <v>1283</v>
@@ -82818,36 +82839,36 @@
         <v>31204</v>
       </c>
       <c r="I1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="J1555" t="s">
         <v>1283</v>
       </c>
       <c r="K1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L1555" t="s">
         <v>1283</v>
       </c>
       <c r="M1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="P1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="Q1555">
         <v>680736</v>
       </c>
       <c r="R1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="S1555" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1556" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B1556" t="s">
         <v>1283</v>
@@ -82868,36 +82889,36 @@
         <v>29271</v>
       </c>
       <c r="I1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="J1556" t="s">
         <v>1283</v>
       </c>
       <c r="K1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1556" t="s">
         <v>1283</v>
       </c>
       <c r="M1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="P1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="Q1556">
         <v>700270</v>
       </c>
       <c r="R1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="S1556" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1557" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1557" t="s">
         <v>1283</v>
@@ -82918,36 +82939,36 @@
         <v>29519</v>
       </c>
       <c r="I1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="J1557" t="s">
         <v>1283</v>
       </c>
       <c r="K1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="L1557" t="s">
         <v>1283</v>
       </c>
       <c r="M1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="P1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="Q1557">
         <v>700669</v>
       </c>
       <c r="R1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="S1557" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1558" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B1558" t="s">
         <v>1283</v>
@@ -82968,36 +82989,36 @@
         <v>27688</v>
       </c>
       <c r="I1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="J1558" t="s">
         <v>1283</v>
       </c>
       <c r="K1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="L1558" t="s">
         <v>1283</v>
       </c>
       <c r="M1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="P1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="Q1558">
         <v>686799</v>
       </c>
       <c r="R1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="S1558" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1559" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1559" t="s">
         <v>1283</v>
@@ -83018,36 +83039,36 @@
         <v>29514</v>
       </c>
       <c r="I1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="J1559" t="s">
         <v>1283</v>
       </c>
       <c r="K1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="L1559" t="s">
         <v>1283</v>
       </c>
       <c r="M1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="P1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="Q1559">
         <v>689981</v>
       </c>
       <c r="R1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="S1559" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1560" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B1560" t="s">
         <v>1283</v>
@@ -83068,36 +83089,36 @@
         <v>29866</v>
       </c>
       <c r="I1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="J1560" t="s">
         <v>1283</v>
       </c>
       <c r="K1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1560" t="s">
         <v>1283</v>
       </c>
       <c r="M1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="P1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="Q1560">
         <v>694646</v>
       </c>
       <c r="R1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="S1560" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1561" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B1561" t="s">
         <v>1283</v>
@@ -83118,36 +83139,36 @@
         <v>20009</v>
       </c>
       <c r="I1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="J1561" t="s">
         <v>1283</v>
       </c>
       <c r="K1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1561" t="s">
         <v>1283</v>
       </c>
       <c r="M1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="P1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="Q1561">
         <v>670046</v>
       </c>
       <c r="R1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="S1561" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1562" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1562" t="s">
         <v>1283</v>
@@ -83168,36 +83189,36 @@
         <v>30182</v>
       </c>
       <c r="I1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="J1562" t="s">
         <v>1283</v>
       </c>
       <c r="K1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="L1562" t="s">
         <v>1283</v>
       </c>
       <c r="M1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="P1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="Q1562">
         <v>701542</v>
       </c>
       <c r="R1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="S1562" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1563" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B1563" t="s">
         <v>1283</v>
@@ -83218,31 +83239,31 @@
         <v>24581</v>
       </c>
       <c r="I1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="J1563" t="s">
         <v>1283</v>
       </c>
       <c r="K1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="L1563" t="s">
         <v>1283</v>
       </c>
       <c r="M1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="P1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="Q1563">
         <v>680689</v>
       </c>
       <c r="R1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="S1563" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="1564" spans="1:19" x14ac:dyDescent="0.3">
@@ -83297,7 +83318,7 @@
     </row>
     <row r="1565" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1565" t="s">
         <v>1283</v>
@@ -83318,36 +83339,36 @@
         <v>29869</v>
       </c>
       <c r="I1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="J1565" t="s">
         <v>1283</v>
       </c>
       <c r="K1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="L1565" t="s">
         <v>1283</v>
       </c>
       <c r="M1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="P1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="Q1565">
         <v>700241</v>
       </c>
       <c r="R1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="S1565" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1566" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1566" t="s">
         <v>1283</v>
@@ -83368,36 +83389,36 @@
         <v>30133</v>
       </c>
       <c r="I1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="J1566" t="s">
         <v>1283</v>
       </c>
       <c r="K1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="L1566" t="s">
         <v>1283</v>
       </c>
       <c r="M1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="P1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="Q1566">
         <v>676428</v>
       </c>
       <c r="R1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="S1566" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1567" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1567" t="s">
         <v>1283</v>
@@ -83418,36 +83439,36 @@
         <v>29823</v>
       </c>
       <c r="I1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="J1567" t="s">
         <v>1283</v>
       </c>
       <c r="K1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="L1567" t="s">
         <v>1283</v>
       </c>
       <c r="M1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="P1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="Q1567">
         <v>681066</v>
       </c>
       <c r="R1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="S1567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1568" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1568" t="s">
         <v>1283</v>
@@ -83468,31 +83489,181 @@
         <v>21448</v>
       </c>
       <c r="I1568" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="J1568" t="s">
         <v>1283</v>
       </c>
       <c r="K1568" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="L1568" t="s">
         <v>1283</v>
       </c>
       <c r="M1568" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="P1568" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="Q1568">
         <v>663436</v>
       </c>
       <c r="R1568" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S1568" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
         <v>2926</v>
       </c>
-      <c r="S1568" t="s">
+      <c r="B1569" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1569">
+        <v>26419</v>
+      </c>
+      <c r="I1569" t="s">
         <v>2926</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1569" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L1569" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1569" t="s">
+        <v>2926</v>
+      </c>
+      <c r="P1569" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Q1569">
+        <v>687134</v>
+      </c>
+      <c r="R1569" t="s">
+        <v>2926</v>
+      </c>
+      <c r="S1569" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>2928</v>
+      </c>
+      <c r="I1570" t="s">
+        <v>2927</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1570" t="s">
+        <v>2927</v>
+      </c>
+      <c r="L1570" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1570" t="s">
+        <v>2927</v>
+      </c>
+      <c r="P1570" t="s">
+        <v>2927</v>
+      </c>
+      <c r="Q1570">
+        <v>687924</v>
+      </c>
+      <c r="R1570" t="s">
+        <v>2927</v>
+      </c>
+      <c r="S1570" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1571">
+        <v>31827</v>
+      </c>
+      <c r="I1571" t="s">
+        <v>2930</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1571" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L1571" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1571" t="s">
+        <v>2929</v>
+      </c>
+      <c r="P1571" t="s">
+        <v>2929</v>
+      </c>
+      <c r="Q1571">
+        <v>805673</v>
+      </c>
+      <c r="R1571" t="s">
+        <v>2929</v>
+      </c>
+      <c r="S1571" t="s">
+        <v>2929</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37E4DF-015A-4364-8ECA-B3C6066CD53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49FF28-185F-485E-9DC4-4E91FB02EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20745" uniqueCount="2931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20759" uniqueCount="2932">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8827,6 +8827,9 @@
   </si>
   <si>
     <t>Daniel Matthews</t>
+  </si>
+  <si>
+    <t>Casey Kelly</t>
   </si>
 </sst>
 </file>
@@ -9224,11 +9227,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1571"/>
+  <dimension ref="A1:S1572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1243" sqref="T1243"/>
+      <pane ySplit="1" topLeftCell="A1560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1572" sqref="P1572:Q1572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83666,6 +83669,56 @@
         <v>2929</v>
       </c>
     </row>
+    <row r="1572" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1572">
+        <v>9174</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>2931</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1572" t="s">
+        <v>2931</v>
+      </c>
+      <c r="L1572" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1572" t="s">
+        <v>2931</v>
+      </c>
+      <c r="P1572" t="s">
+        <v>2931</v>
+      </c>
+      <c r="Q1572">
+        <v>543391</v>
+      </c>
+      <c r="R1572" t="s">
+        <v>2931</v>
+      </c>
+      <c r="S1572" t="s">
+        <v>2931</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1529">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49FF28-185F-485E-9DC4-4E91FB02EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063B11B1-FB92-4EA6-986E-98949CDC500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20759" uniqueCount="2932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20773" uniqueCount="2934">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8830,6 +8830,12 @@
   </si>
   <si>
     <t>Casey Kelly</t>
+  </si>
+  <si>
+    <t>J.T. Ginn</t>
+  </si>
+  <si>
+    <t>JT Ginn</t>
   </si>
 </sst>
 </file>
@@ -9227,11 +9233,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1572"/>
+  <dimension ref="A1:S1573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1572" sqref="P1572:Q1572"/>
+      <selection pane="bottomLeft" activeCell="B1574" sqref="B1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83719,6 +83725,56 @@
         <v>2931</v>
       </c>
     </row>
+    <row r="1573" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1573">
+        <v>27889</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>2933</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1573" t="s">
+        <v>2932</v>
+      </c>
+      <c r="L1573" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1573" t="s">
+        <v>2932</v>
+      </c>
+      <c r="P1573" t="s">
+        <v>2932</v>
+      </c>
+      <c r="Q1573">
+        <v>669372</v>
+      </c>
+      <c r="R1573" t="s">
+        <v>2932</v>
+      </c>
+      <c r="S1573" t="s">
+        <v>2932</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1529">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063B11B1-FB92-4EA6-986E-98949CDC500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE66585-F9A4-47CF-A533-5494D04BF381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20773" uniqueCount="2934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20803" uniqueCount="2938">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8836,6 +8836,18 @@
   </si>
   <si>
     <t>JT Ginn</t>
+  </si>
+  <si>
+    <t>Rhett Lowder</t>
+  </si>
+  <si>
+    <t>sa3023360</t>
+  </si>
+  <si>
+    <t>Samuel Aldegheri</t>
+  </si>
+  <si>
+    <t>sa3015152</t>
   </si>
 </sst>
 </file>
@@ -9233,11 +9245,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1573"/>
+  <dimension ref="A1:S1575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1574" sqref="B1574"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1575" sqref="H1575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83775,6 +83787,106 @@
         <v>2932</v>
       </c>
     </row>
+    <row r="1574" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I1574" t="s">
+        <v>2934</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1574" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L1574" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1574" t="s">
+        <v>2934</v>
+      </c>
+      <c r="P1574" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Q1574">
+        <v>695076</v>
+      </c>
+      <c r="R1574" t="s">
+        <v>2934</v>
+      </c>
+      <c r="S1574" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>2937</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>2936</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1575" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L1575" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1575" t="s">
+        <v>2936</v>
+      </c>
+      <c r="P1575" t="s">
+        <v>2936</v>
+      </c>
+      <c r="Q1575">
+        <v>691951</v>
+      </c>
+      <c r="R1575" t="s">
+        <v>2936</v>
+      </c>
+      <c r="S1575" t="s">
+        <v>2936</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1529">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE66585-F9A4-47CF-A533-5494D04BF381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EEC9B1-6E19-4C72-BD54-DE67CED7534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20803" uniqueCount="2938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20828" uniqueCount="2937">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8820,9 +8820,6 @@
     <t>Julian Aguiar</t>
   </si>
   <si>
-    <t>sa3017763</t>
-  </si>
-  <si>
     <t>Zebby Matthews</t>
   </si>
   <si>
@@ -8841,13 +8838,13 @@
     <t>Rhett Lowder</t>
   </si>
   <si>
-    <t>sa3023360</t>
-  </si>
-  <si>
     <t>Samuel Aldegheri</t>
   </si>
   <si>
-    <t>sa3015152</t>
+    <t>Caden Dana</t>
+  </si>
+  <si>
+    <t>Ty Madden</t>
   </si>
 </sst>
 </file>
@@ -9245,11 +9242,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1575"/>
+  <dimension ref="A1:S1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1575" sqref="H1575"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1578" sqref="Q1578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83606,8 +83603,8 @@
       <c r="F1570" t="s">
         <v>1347</v>
       </c>
-      <c r="H1570" t="s">
-        <v>2928</v>
+      <c r="H1570">
+        <v>30031</v>
       </c>
       <c r="I1570" t="s">
         <v>2927</v>
@@ -83639,7 +83636,7 @@
     </row>
     <row r="1571" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1571" t="s">
         <v>1283</v>
@@ -83660,36 +83657,36 @@
         <v>31827</v>
       </c>
       <c r="I1571" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="J1571" t="s">
         <v>1283</v>
       </c>
       <c r="K1571" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="L1571" t="s">
         <v>1283</v>
       </c>
       <c r="M1571" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="P1571" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="Q1571">
         <v>805673</v>
       </c>
       <c r="R1571" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="S1571" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1572" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B1572" t="s">
         <v>1283</v>
@@ -83710,36 +83707,36 @@
         <v>9174</v>
       </c>
       <c r="I1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="J1572" t="s">
         <v>1283</v>
       </c>
       <c r="K1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="L1572" t="s">
         <v>1283</v>
       </c>
       <c r="M1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="P1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="Q1572">
         <v>543391</v>
       </c>
       <c r="R1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="S1572" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1573" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B1573" t="s">
         <v>1283</v>
@@ -83760,36 +83757,36 @@
         <v>27889</v>
       </c>
       <c r="I1573" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="J1573" t="s">
         <v>1283</v>
       </c>
       <c r="K1573" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="L1573" t="s">
         <v>1283</v>
       </c>
       <c r="M1573" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="P1573" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="Q1573">
         <v>669372</v>
       </c>
       <c r="R1573" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="S1573" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1574" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1574" t="s">
         <v>1283</v>
@@ -83806,40 +83803,40 @@
       <c r="F1574" t="s">
         <v>1347</v>
       </c>
-      <c r="H1574" t="s">
-        <v>2935</v>
+      <c r="H1574">
+        <v>33876</v>
       </c>
       <c r="I1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="J1574" t="s">
         <v>1283</v>
       </c>
       <c r="K1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="L1574" t="s">
         <v>1283</v>
       </c>
       <c r="M1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="P1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="Q1574">
         <v>695076</v>
       </c>
       <c r="R1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="S1574" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1575" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B1575" t="s">
         <v>1283</v>
@@ -83856,34 +83853,134 @@
       <c r="F1575" t="s">
         <v>1346</v>
       </c>
-      <c r="H1575" t="s">
-        <v>2937</v>
+      <c r="H1575">
+        <v>26443</v>
       </c>
       <c r="I1575" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="J1575" t="s">
         <v>1283</v>
       </c>
       <c r="K1575" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="L1575" t="s">
         <v>1283</v>
       </c>
       <c r="M1575" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="P1575" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="Q1575">
         <v>691951</v>
       </c>
       <c r="R1575" t="s">
+        <v>2934</v>
+      </c>
+      <c r="S1575" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1576">
+        <v>31508</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>2935</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1576" t="s">
+        <v>2935</v>
+      </c>
+      <c r="L1576" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1576" t="s">
+        <v>2935</v>
+      </c>
+      <c r="P1576" t="s">
+        <v>2935</v>
+      </c>
+      <c r="Q1576">
+        <v>702674</v>
+      </c>
+      <c r="R1576" t="s">
+        <v>2935</v>
+      </c>
+      <c r="S1576" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
         <v>2936</v>
       </c>
-      <c r="S1575" t="s">
+      <c r="B1577" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1577">
+        <v>30140</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>2936</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1577" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L1577" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1577" t="s">
+        <v>2936</v>
+      </c>
+      <c r="P1577" t="s">
+        <v>2936</v>
+      </c>
+      <c r="Q1577">
+        <v>680744</v>
+      </c>
+      <c r="R1577" t="s">
+        <v>2936</v>
+      </c>
+      <c r="S1577" t="s">
         <v>2936</v>
       </c>
     </row>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EEC9B1-6E19-4C72-BD54-DE67CED7534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD822C0-4B23-492E-BB12-FA849A9686F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9244,9 +9244,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1578" sqref="Q1578"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29677,10 +29677,10 @@
         <v>1283</v>
       </c>
       <c r="C434" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="D434" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="E434" t="s">
         <v>1347</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD822C0-4B23-492E-BB12-FA849A9686F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0AE2EF-78F7-4DA5-8A06-9F1AAE4E8204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9245,8 +9245,8 @@
   <dimension ref="A1:S1577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C435" sqref="C435"/>
+      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1010" sqref="C1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39607,10 +39607,10 @@
         <v>1283</v>
       </c>
       <c r="C645" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="D645" t="s">
-        <v>1326</v>
+        <v>1336</v>
       </c>
       <c r="E645" t="s">
         <v>1347</v>
@@ -56943,10 +56943,10 @@
         <v>1283</v>
       </c>
       <c r="C1009" t="s">
-        <v>1313</v>
+        <v>1287</v>
       </c>
       <c r="D1009" t="s">
-        <v>1343</v>
+        <v>1317</v>
       </c>
       <c r="E1009" t="s">
         <v>1346</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0AE2EF-78F7-4DA5-8A06-9F1AAE4E8204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5443BBFA-0EA9-472D-972D-BD85E0345D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20828" uniqueCount="2937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20858" uniqueCount="2940">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8845,6 +8845,15 @@
   </si>
   <si>
     <t>Ty Madden</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>sa123</t>
+  </si>
+  <si>
+    <t>Seth Johnson</t>
   </si>
 </sst>
 </file>
@@ -9242,11 +9251,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1577"/>
+  <dimension ref="A1:S1579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1010" sqref="C1010"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1579" sqref="P1579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83984,6 +83993,106 @@
         <v>2936</v>
       </c>
     </row>
+    <row r="1578" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I1578" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1578" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L1578" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1578" t="s">
+        <v>2937</v>
+      </c>
+      <c r="P1578" t="s">
+        <v>2937</v>
+      </c>
+      <c r="Q1578">
+        <v>690916</v>
+      </c>
+      <c r="R1578" t="s">
+        <v>2937</v>
+      </c>
+      <c r="S1578" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I1579" t="s">
+        <v>2939</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1579" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L1579" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1579" t="s">
+        <v>2939</v>
+      </c>
+      <c r="P1579" t="s">
+        <v>2939</v>
+      </c>
+      <c r="Q1579">
+        <v>686751</v>
+      </c>
+      <c r="R1579" t="s">
+        <v>2939</v>
+      </c>
+      <c r="S1579" t="s">
+        <v>2939</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1529">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5443BBFA-0EA9-472D-972D-BD85E0345D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F49CF-9F3C-4F4C-8243-A2D0E31094C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9253,9 +9253,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1579" sqref="P1579"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C746" sqref="C746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44385,10 +44385,10 @@
         <v>1283</v>
       </c>
       <c r="C745" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="D745" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="E745" t="s">
         <v>1346</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F49CF-9F3C-4F4C-8243-A2D0E31094C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27163747-0197-440D-B740-90C9247E1AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20858" uniqueCount="2940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20858" uniqueCount="2941">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8854,6 +8854,9 @@
   </si>
   <si>
     <t>Seth Johnson</t>
+  </si>
+  <si>
+    <t>Reynaldo López</t>
   </si>
 </sst>
 </file>
@@ -9253,9 +9256,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S1579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C746" sqref="C746"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1178" sqref="P1178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64979,13 +64982,13 @@
         <v>1</v>
       </c>
       <c r="P1178" t="s">
-        <v>637</v>
+        <v>2940</v>
       </c>
       <c r="Q1178">
         <v>625643</v>
       </c>
       <c r="R1178" t="s">
-        <v>637</v>
+        <v>2940</v>
       </c>
       <c r="S1178" t="s">
         <v>637</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27163747-0197-440D-B740-90C9247E1AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49EF51-B10E-47E0-9B46-1F4CE33573C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20858" uniqueCount="2941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20871" uniqueCount="2942">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8857,6 +8857,9 @@
   </si>
   <si>
     <t>Reynaldo López</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
   </si>
 </sst>
 </file>
@@ -9254,11 +9257,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1579"/>
+  <dimension ref="A1:S1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1178" sqref="P1178"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1581" sqref="Q1581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84015,8 +84018,8 @@
       <c r="F1578" t="s">
         <v>1347</v>
       </c>
-      <c r="H1578" t="s">
-        <v>2938</v>
+      <c r="H1578">
+        <v>30160</v>
       </c>
       <c r="I1578" t="s">
         <v>2937</v>
@@ -84065,8 +84068,8 @@
       <c r="F1579" t="s">
         <v>1347</v>
       </c>
-      <c r="H1579" t="s">
-        <v>2938</v>
+      <c r="H1579">
+        <v>26020</v>
       </c>
       <c r="I1579" t="s">
         <v>2939</v>
@@ -84094,6 +84097,56 @@
       </c>
       <c r="S1579" t="s">
         <v>2939</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>2941</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1580" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L1580" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1580" t="s">
+        <v>2941</v>
+      </c>
+      <c r="P1580" t="s">
+        <v>2941</v>
+      </c>
+      <c r="Q1580">
+        <v>677958</v>
+      </c>
+      <c r="R1580" t="s">
+        <v>2941</v>
+      </c>
+      <c r="S1580" t="s">
+        <v>2941</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49EF51-B10E-47E0-9B46-1F4CE33573C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81E6BF1-B053-4094-A8B1-F9E2F1B1A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20871" uniqueCount="2942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20886" uniqueCount="2942">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8850,9 +8850,6 @@
     <t>Richard Fitts</t>
   </si>
   <si>
-    <t>sa123</t>
-  </si>
-  <si>
     <t>Seth Johnson</t>
   </si>
   <si>
@@ -8860,6 +8857,9 @@
   </si>
   <si>
     <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>Brady Basso</t>
   </si>
 </sst>
 </file>
@@ -9257,11 +9257,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1580"/>
+  <dimension ref="A1:S1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1581" sqref="Q1581"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1582" sqref="Q1582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38382,10 +38382,10 @@
         <v>1283</v>
       </c>
       <c r="C619" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="D619" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="E619" t="s">
         <v>1346</v>
@@ -38416,6 +38416,15 @@
       </c>
       <c r="N619">
         <v>1</v>
+      </c>
+      <c r="P619" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q619">
+        <v>594798</v>
+      </c>
+      <c r="R619" t="s">
+        <v>331</v>
       </c>
       <c r="S619" t="s">
         <v>331</v>
@@ -64985,13 +64994,13 @@
         <v>1</v>
       </c>
       <c r="P1178" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="Q1178">
         <v>625643</v>
       </c>
       <c r="R1178" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="S1178" t="s">
         <v>637</v>
@@ -84051,7 +84060,7 @@
     </row>
     <row r="1579" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B1579" t="s">
         <v>1283</v>
@@ -84072,36 +84081,36 @@
         <v>26020</v>
       </c>
       <c r="I1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="J1579" t="s">
         <v>1283</v>
       </c>
       <c r="K1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="L1579" t="s">
         <v>1283</v>
       </c>
       <c r="M1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="P1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="Q1579">
         <v>686751</v>
       </c>
       <c r="R1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="S1579" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1580" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B1580" t="s">
         <v>1283</v>
@@ -84118,34 +84127,84 @@
       <c r="F1580" t="s">
         <v>1347</v>
       </c>
-      <c r="H1580" t="s">
-        <v>2938</v>
+      <c r="H1580">
+        <v>31843</v>
       </c>
       <c r="I1580" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J1580" t="s">
         <v>1283</v>
       </c>
       <c r="K1580" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L1580" t="s">
         <v>1283</v>
       </c>
       <c r="M1580" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="P1580" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="Q1580">
         <v>677958</v>
       </c>
       <c r="R1580" t="s">
+        <v>2940</v>
+      </c>
+      <c r="S1580" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
         <v>2941</v>
       </c>
-      <c r="S1580" t="s">
+      <c r="B1581" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1581">
+        <v>25582</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>2941</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1581" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L1581" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1581" t="s">
+        <v>2941</v>
+      </c>
+      <c r="P1581" t="s">
+        <v>2941</v>
+      </c>
+      <c r="Q1581">
+        <v>669620</v>
+      </c>
+      <c r="R1581" t="s">
+        <v>2941</v>
+      </c>
+      <c r="S1581" t="s">
         <v>2941</v>
       </c>
     </row>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81E6BF1-B053-4094-A8B1-F9E2F1B1A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E0C01-2227-4219-B24F-5D3E5AD4912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20886" uniqueCount="2942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20900" uniqueCount="2944">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8860,6 +8860,12 @@
   </si>
   <si>
     <t>Brady Basso</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
   </si>
 </sst>
 </file>
@@ -9257,11 +9263,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1581"/>
+  <dimension ref="A1:S1582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1557" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1582" sqref="Q1582"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1581" sqref="A1581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83796,13 +83802,13 @@
         <v>2931</v>
       </c>
       <c r="P1573" t="s">
-        <v>2931</v>
+        <v>2942</v>
       </c>
       <c r="Q1573">
         <v>669372</v>
       </c>
       <c r="R1573" t="s">
-        <v>2931</v>
+        <v>2942</v>
       </c>
       <c r="S1573" t="s">
         <v>2931</v>
@@ -84206,6 +84212,56 @@
       </c>
       <c r="S1581" t="s">
         <v>2941</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1582">
+        <v>29878</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>2943</v>
+      </c>
+      <c r="J1582" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1582" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L1582" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1582" t="s">
+        <v>2943</v>
+      </c>
+      <c r="P1582" t="s">
+        <v>2943</v>
+      </c>
+      <c r="Q1582">
+        <v>680732</v>
+      </c>
+      <c r="R1582" t="s">
+        <v>2943</v>
+      </c>
+      <c r="S1582" t="s">
+        <v>2943</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28108"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E0C01-2227-4219-B24F-5D3E5AD4912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41035ED5-5CA1-4463-9D52-FBC2362CD30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20900" uniqueCount="2944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20914" uniqueCount="2945">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8866,6 +8866,9 @@
   </si>
   <si>
     <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Jairo Iriarte</t>
   </si>
 </sst>
 </file>
@@ -9263,11 +9266,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1582"/>
+  <dimension ref="A1:S1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1558" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1581" sqref="A1581"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1559" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1583" sqref="P1583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84264,6 +84267,56 @@
         <v>2943</v>
       </c>
     </row>
+    <row r="1583" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1583">
+        <v>26907</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1583" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L1583" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1583" t="s">
+        <v>2944</v>
+      </c>
+      <c r="P1583" t="s">
+        <v>2944</v>
+      </c>
+      <c r="Q1583">
+        <v>683568</v>
+      </c>
+      <c r="R1583" t="s">
+        <v>2944</v>
+      </c>
+      <c r="S1583" t="s">
+        <v>2944</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1497" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1529">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE4AB13-991B-4333-9263-C2937D2E9E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C951E4A5-F207-494A-B370-84E265B268A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18178" uniqueCount="2966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18192" uniqueCount="2968">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8935,6 +8935,12 @@
   </si>
   <si>
     <t>Cleveland Indians</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -8956,6 +8962,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9320,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1626"/>
   <sheetViews>
-    <sheetView topLeftCell="A1460" workbookViewId="0">
-      <selection activeCell="Q1479" sqref="Q1479"/>
+    <sheetView tabSelected="1" topLeftCell="A1460" workbookViewId="0">
+      <selection activeCell="Q1480" sqref="Q1480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60302,11 +60309,11 @@
         <v>20</v>
       </c>
       <c r="C973" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D973" t="str">
         <f>VLOOKUP(Players!C973,Teams!A:B,2,FALSE)</f>
-        <v>Cleveland Indians</v>
+        <v>Chicago Cubs</v>
       </c>
       <c r="E973" t="s">
         <v>33</v>
@@ -60352,7 +60359,7 @@
       </c>
       <c r="T973" t="str">
         <f>VLOOKUP(C973,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Cleveland</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="974" spans="1:20" x14ac:dyDescent="0.3">
@@ -86844,13 +86851,58 @@
       </c>
     </row>
     <row r="1479" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1479" t="e">
+      <c r="A1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1479" t="str">
         <f>VLOOKUP(Players!C1479,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1479" t="e">
+        <v>Baltimore Orioles</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>2967</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="L1479" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="P1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Q1479">
+        <v>608372</v>
+      </c>
+      <c r="R1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="S1479" t="s">
+        <v>2966</v>
+      </c>
+      <c r="T1479" t="str">
         <f>VLOOKUP(C1479,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Baltimore</v>
       </c>
     </row>
     <row r="1480" spans="1:20" x14ac:dyDescent="0.3">
@@ -88308,7 +88360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C59C6E-8ACD-4E52-9853-398658C656F4}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C951E4A5-F207-494A-B370-84E265B268A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D007070D-44AB-4373-BE71-420E8BC5FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18192" uniqueCount="2968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18243" uniqueCount="2974">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8940,7 +8940,25 @@
     <t>Tomoyuki Sugano</t>
   </si>
   <si>
-    <t>sa123</t>
+    <t>T. Harrington</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Easton Lucas</t>
+  </si>
+  <si>
+    <t>Tom Harrington</t>
+  </si>
+  <si>
+    <t>Thomas Harrington</t>
+  </si>
+  <si>
+    <t>Luis F. Castillo</t>
   </si>
 </sst>
 </file>
@@ -9327,8 +9345,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1460" workbookViewId="0">
-      <selection activeCell="Q1480" sqref="Q1480"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A891" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K908" sqref="K908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21795,11 +21815,11 @@
         <v>20</v>
       </c>
       <c r="C241" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D241" t="str">
         <f>VLOOKUP(Players!C241,Teams!A:B,2,FALSE)</f>
-        <v>Cleveland Indians</v>
+        <v>New York Yankees</v>
       </c>
       <c r="E241" t="s">
         <v>23</v>
@@ -21845,7 +21865,7 @@
       </c>
       <c r="T241" t="str">
         <f>VLOOKUP(C241,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Cleveland</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
@@ -56891,7 +56911,7 @@
         <v>20</v>
       </c>
       <c r="K908" t="s">
-        <v>1795</v>
+        <v>2973</v>
       </c>
       <c r="L908" t="s">
         <v>20</v>
@@ -80766,11 +80786,11 @@
         <v>20</v>
       </c>
       <c r="C1363" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D1363" t="str">
         <f>VLOOKUP(Players!C1363,Teams!A:B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Milwaukee Brewers</v>
       </c>
       <c r="E1363" t="s">
         <v>23</v>
@@ -80816,7 +80836,7 @@
       </c>
       <c r="T1363" t="str">
         <f>VLOOKUP(C1363,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Tampa Bay</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1364" spans="1:20" x14ac:dyDescent="0.3">
@@ -86870,8 +86890,8 @@
       <c r="F1479" t="s">
         <v>23</v>
       </c>
-      <c r="H1479" t="s">
-        <v>2967</v>
+      <c r="H1479">
+        <v>35321</v>
       </c>
       <c r="I1479" t="s">
         <v>2966</v>
@@ -86906,43 +86926,211 @@
       </c>
     </row>
     <row r="1480" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1480" t="e">
+      <c r="A1480" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1480" t="str">
         <f>VLOOKUP(Players!C1480,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1480" t="e">
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1480">
+        <v>31989</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>2971</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1480" t="s">
+        <v>2967</v>
+      </c>
+      <c r="L1480" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1480" t="s">
+        <v>2967</v>
+      </c>
+      <c r="P1480" t="s">
+        <v>2972</v>
+      </c>
+      <c r="R1480" t="s">
+        <v>2972</v>
+      </c>
+      <c r="S1480" t="s">
+        <v>2972</v>
+      </c>
+      <c r="T1480" t="str">
         <f>VLOOKUP(C1480,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1481" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1481" t="e">
+      <c r="A1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1481" t="str">
         <f>VLOOKUP(Players!C1481,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1481" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1481">
+        <v>31687</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="L1481" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="P1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="R1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="S1481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="T1481" t="str">
         <f>VLOOKUP(C1481,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1482" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1482" t="e">
+      <c r="A1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1482" t="str">
         <f>VLOOKUP(Players!C1482,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1482" t="e">
+        <v>Milwaukee Brewers</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1482">
+        <v>30113</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="L1482" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="P1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="R1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="S1482" t="s">
+        <v>2969</v>
+      </c>
+      <c r="T1482" t="str">
         <f>VLOOKUP(C1482,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1483" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1483" t="e">
+      <c r="A1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1483" t="str">
         <f>VLOOKUP(Players!C1483,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1483" t="e">
+        <v>Toronto Blue Jays</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1483">
+        <v>26058</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="L1483" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="P1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="R1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="S1483" t="s">
+        <v>2970</v>
+      </c>
+      <c r="T1483" t="str">
         <f>VLOOKUP(C1483,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="1484" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D007070D-44AB-4373-BE71-420E8BC5FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847BBE3-4EA1-4DBA-8982-5655BCC04F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18243" uniqueCount="2974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18292" uniqueCount="2979">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8959,6 +8959,21 @@
   </si>
   <si>
     <t>Luis F. Castillo</t>
+  </si>
+  <si>
+    <t>Jackson Jobe</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>sa23</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -9345,13 +9360,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A891" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1222" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K908" sqref="K908"/>
+      <selection pane="bottomLeft" activeCell="O1236" sqref="O1236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -10043,6 +10063,9 @@
       <c r="Q13">
         <v>605400</v>
       </c>
+      <c r="R13" t="s">
+        <v>63</v>
+      </c>
       <c r="S13" t="s">
         <v>63</v>
       </c>
@@ -36665,6 +36688,15 @@
       <c r="N523">
         <v>1</v>
       </c>
+      <c r="P523" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q523">
+        <v>608566</v>
+      </c>
+      <c r="R523" t="s">
+        <v>1067</v>
+      </c>
       <c r="S523" t="s">
         <v>1067</v>
       </c>
@@ -54348,6 +54380,15 @@
       <c r="O860" t="s">
         <v>1711</v>
       </c>
+      <c r="P860" t="s">
+        <v>1710</v>
+      </c>
+      <c r="Q860">
+        <v>663460</v>
+      </c>
+      <c r="R860" t="s">
+        <v>1710</v>
+      </c>
       <c r="S860" t="s">
         <v>1710</v>
       </c>
@@ -55278,6 +55319,12 @@
       <c r="G878">
         <v>1992</v>
       </c>
+      <c r="H878">
+        <v>19646</v>
+      </c>
+      <c r="I878" t="s">
+        <v>1736</v>
+      </c>
       <c r="J878" t="s">
         <v>20</v>
       </c>
@@ -74037,6 +74084,15 @@
       <c r="N1235">
         <v>1</v>
       </c>
+      <c r="P1235" t="s">
+        <v>2421</v>
+      </c>
+      <c r="Q1235">
+        <v>656794</v>
+      </c>
+      <c r="R1235" t="s">
+        <v>2421</v>
+      </c>
       <c r="S1235" t="s">
         <v>2421</v>
       </c>
@@ -86966,6 +87022,9 @@
       <c r="P1480" t="s">
         <v>2972</v>
       </c>
+      <c r="Q1480">
+        <v>802419</v>
+      </c>
       <c r="R1480" t="s">
         <v>2972</v>
       </c>
@@ -87018,6 +87077,9 @@
       <c r="P1481" t="s">
         <v>2968</v>
       </c>
+      <c r="Q1481">
+        <v>681343</v>
+      </c>
       <c r="R1481" t="s">
         <v>2968</v>
       </c>
@@ -87070,6 +87132,9 @@
       <c r="P1482" t="s">
         <v>2969</v>
       </c>
+      <c r="Q1482">
+        <v>694477</v>
+      </c>
       <c r="R1482" t="s">
         <v>2969</v>
       </c>
@@ -87122,6 +87187,9 @@
       <c r="P1483" t="s">
         <v>2970</v>
       </c>
+      <c r="Q1483">
+        <v>687922</v>
+      </c>
       <c r="R1483" t="s">
         <v>2970</v>
       </c>
@@ -87134,33 +87202,168 @@
       </c>
     </row>
     <row r="1484" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1484" t="e">
+      <c r="A1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1484" t="str">
         <f>VLOOKUP(Players!C1484,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1484" t="e">
+        <v>Detroit Tigers</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1484">
+        <v>30203</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="L1484" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="P1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Q1484">
+        <v>695549</v>
+      </c>
+      <c r="R1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="S1484" t="s">
+        <v>2974</v>
+      </c>
+      <c r="T1484" t="str">
         <f>VLOOKUP(C1484,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Detroit</v>
       </c>
     </row>
     <row r="1485" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1485" t="e">
+      <c r="A1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1485" t="str">
         <f>VLOOKUP(Players!C1485,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1485" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>2977</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="L1485" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="P1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="Q1485">
+        <v>801403</v>
+      </c>
+      <c r="R1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="S1485" t="s">
+        <v>2975</v>
+      </c>
+      <c r="T1485" t="str">
         <f>VLOOKUP(C1485,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1486" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1486" t="e">
+      <c r="A1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1486" t="str">
         <f>VLOOKUP(Players!C1486,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1486" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>2978</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="L1486" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="P1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Q1486">
+        <v>690928</v>
+      </c>
+      <c r="R1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="S1486" t="s">
+        <v>2976</v>
+      </c>
+      <c r="T1486" t="str">
         <f>VLOOKUP(C1486,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Boston</v>
       </c>
     </row>
     <row r="1487" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847BBE3-4EA1-4DBA-8982-5655BCC04F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC2D901-B813-4F30-9552-48317E6F5F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18292" uniqueCount="2979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="2978">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8970,10 +8970,7 @@
     <t>Hunter Dobbins</t>
   </si>
   <si>
-    <t>sa23</t>
-  </si>
-  <si>
-    <t>sa123</t>
+    <t>Ryan Gusto</t>
   </si>
 </sst>
 </file>
@@ -9360,10 +9357,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1222" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1463" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O1236" sqref="O1236"/>
+      <selection pane="bottomLeft" activeCell="I1472" sqref="I1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87276,8 +87273,8 @@
       <c r="F1485" t="s">
         <v>23</v>
       </c>
-      <c r="H1485" t="s">
-        <v>2977</v>
+      <c r="H1485">
+        <v>33482</v>
       </c>
       <c r="I1485" t="s">
         <v>2975</v>
@@ -87331,8 +87328,8 @@
       <c r="F1486" t="s">
         <v>23</v>
       </c>
-      <c r="H1486" t="s">
-        <v>2978</v>
+      <c r="H1486">
+        <v>30240</v>
       </c>
       <c r="I1486" t="s">
         <v>2976</v>
@@ -87367,13 +87364,58 @@
       </c>
     </row>
     <row r="1487" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1487" t="e">
+      <c r="A1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1487" t="str">
         <f>VLOOKUP(Players!C1487,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1487" t="e">
+        <v>Houston Astros</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1487">
+        <v>26440</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L1487" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="P1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Q1487">
+        <v>687473</v>
+      </c>
+      <c r="R1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="S1487" t="s">
+        <v>2977</v>
+      </c>
+      <c r="T1487" t="str">
         <f>VLOOKUP(C1487,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Houston</v>
       </c>
     </row>
     <row r="1488" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC2D901-B813-4F30-9552-48317E6F5F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94567CCD-EAEC-4E9F-91E0-72A7A9822270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94567CCD-EAEC-4E9F-91E0-72A7A9822270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{041E2BFC-7A51-420D-86D6-C0D0866D1684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26241,11 +26241,11 @@
         <v>20</v>
       </c>
       <c r="C324" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D324" t="str">
         <f>VLOOKUP(Players!C324,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Chicago Cubs</v>
       </c>
       <c r="E324" t="s">
         <v>23</v>
@@ -26285,7 +26285,7 @@
       </c>
       <c r="T324" t="str">
         <f>VLOOKUP(C324,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{041E2BFC-7A51-420D-86D6-C0D0866D1684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C135B59-2512-4A27-80F7-18F51683B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="2977">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8956,9 +8956,6 @@
   </si>
   <si>
     <t>Thomas Harrington</t>
-  </si>
-  <si>
-    <t>Luis F. Castillo</t>
   </si>
   <si>
     <t>Jackson Jobe</t>
@@ -9358,9 +9355,9 @@
   <dimension ref="A1:T1626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1463" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A901" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I1472" sqref="I1472"/>
+      <selection pane="bottomLeft" activeCell="K909" sqref="K909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56955,7 +56952,7 @@
         <v>20</v>
       </c>
       <c r="K908" t="s">
-        <v>2973</v>
+        <v>1795</v>
       </c>
       <c r="L908" t="s">
         <v>20</v>
@@ -67306,11 +67303,11 @@
         <v>20</v>
       </c>
       <c r="C1105" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="D1105" t="str">
         <f>VLOOKUP(Players!C1105,Teams!A:B,2,FALSE)</f>
-        <v>Boston Red Sox</v>
+        <v>Milwaukee Brewers</v>
       </c>
       <c r="E1105" t="s">
         <v>23</v>
@@ -67347,7 +67344,7 @@
       </c>
       <c r="T1105" t="str">
         <f>VLOOKUP(C1105,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Boston</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1106" spans="1:20" x14ac:dyDescent="0.3">
@@ -87200,7 +87197,7 @@
     </row>
     <row r="1484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1484" t="s">
         <v>20</v>
@@ -87222,31 +87219,31 @@
         <v>30203</v>
       </c>
       <c r="I1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="J1484" t="s">
         <v>20</v>
       </c>
       <c r="K1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="L1484" t="s">
         <v>20</v>
       </c>
       <c r="M1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="P1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="Q1484">
         <v>695549</v>
       </c>
       <c r="R1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="S1484" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="T1484" t="str">
         <f>VLOOKUP(C1484,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87255,7 +87252,7 @@
     </row>
     <row r="1485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1485" t="s">
         <v>20</v>
@@ -87277,31 +87274,31 @@
         <v>33482</v>
       </c>
       <c r="I1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="J1485" t="s">
         <v>20</v>
       </c>
       <c r="K1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="L1485" t="s">
         <v>20</v>
       </c>
       <c r="M1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="P1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="Q1485">
         <v>801403</v>
       </c>
       <c r="R1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="S1485" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="T1485" t="str">
         <f>VLOOKUP(C1485,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87310,7 +87307,7 @@
     </row>
     <row r="1486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1486" t="s">
         <v>20</v>
@@ -87332,31 +87329,31 @@
         <v>30240</v>
       </c>
       <c r="I1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="J1486" t="s">
         <v>20</v>
       </c>
       <c r="K1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="L1486" t="s">
         <v>20</v>
       </c>
       <c r="M1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="P1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="Q1486">
         <v>690928</v>
       </c>
       <c r="R1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="S1486" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="T1486" t="str">
         <f>VLOOKUP(C1486,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87365,7 +87362,7 @@
     </row>
     <row r="1487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1487" t="s">
         <v>20</v>
@@ -87387,31 +87384,31 @@
         <v>26440</v>
       </c>
       <c r="I1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="J1487" t="s">
         <v>20</v>
       </c>
       <c r="K1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="L1487" t="s">
         <v>20</v>
       </c>
       <c r="M1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="P1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="Q1487">
         <v>687473</v>
       </c>
       <c r="R1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="S1487" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="T1487" t="str">
         <f>VLOOKUP(C1487,Teams!$A$1:$C$31,3,FALSE)</f>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C135B59-2512-4A27-80F7-18F51683B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5516C368-4B72-4BBD-B375-5497773E79F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5516C368-4B72-4BBD-B375-5497773E79F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBCA4DA-D9F7-4B04-BC70-DD092B0C8AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBCA4DA-D9F7-4B04-BC70-DD092B0C8AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{858A5E26-67A9-47FE-8000-AA9FCCFE6673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="2977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18317" uniqueCount="2979">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8968,6 +8968,12 @@
   </si>
   <si>
     <t>Ryan Gusto</t>
+  </si>
+  <si>
+    <t>Nathan Wiles</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -9354,10 +9360,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A901" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1464" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K909" sqref="K909"/>
+      <selection pane="bottomLeft" activeCell="Q1489" sqref="Q1489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66104,11 +66110,11 @@
         <v>20</v>
       </c>
       <c r="C1082" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D1082" t="str">
         <f>VLOOKUP(Players!C1082,Teams!A:B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>Texas Rangers</v>
       </c>
       <c r="E1082" t="s">
         <v>33</v>
@@ -66154,7 +66160,7 @@
       </c>
       <c r="T1082" t="str">
         <f>VLOOKUP(C1082,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Washington</v>
+        <v>Texas</v>
       </c>
     </row>
     <row r="1083" spans="1:20" x14ac:dyDescent="0.3">
@@ -87416,13 +87422,58 @@
       </c>
     </row>
     <row r="1488" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1488" t="e">
+      <c r="A1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1488" t="str">
         <f>VLOOKUP(Players!C1488,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1488" t="e">
+        <v>Atlanta Braves</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>2978</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L1488" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="P1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Q1488">
+        <v>686249</v>
+      </c>
+      <c r="R1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="S1488" t="s">
+        <v>2977</v>
+      </c>
+      <c r="T1488" t="str">
         <f>VLOOKUP(C1488,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="1489" spans="4:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{858A5E26-67A9-47FE-8000-AA9FCCFE6673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA78B9C7-F82D-44AD-A04B-5FCC0DA1C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Teams" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Players!$A$1:$T$1477</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Players!$A$1:$T$1474</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18317" uniqueCount="2979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18293" uniqueCount="2974">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8601,15 +8601,6 @@
     <t>Zach Britton</t>
   </si>
   <si>
-    <t>Zack Brown</t>
-  </si>
-  <si>
-    <t>12/15/1994</t>
-  </si>
-  <si>
-    <t>Zack Burdi</t>
-  </si>
-  <si>
     <t>Zack Godley</t>
   </si>
   <si>
@@ -8637,12 +8628,6 @@
     <t>15823</t>
   </si>
   <si>
-    <t>Zack Segovia</t>
-  </si>
-  <si>
-    <t>4/11/1983</t>
-  </si>
-  <si>
     <t>Zack Thompson</t>
   </si>
   <si>
@@ -8973,7 +8958,7 @@
     <t>Nathan Wiles</t>
   </si>
   <si>
-    <t>sa123</t>
+    <t>Brandon Young</t>
   </si>
 </sst>
 </file>
@@ -9358,12 +9343,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1626"/>
+  <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1464" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1489" sqref="Q1489"/>
+      <selection pane="bottomLeft" activeCell="Q1487" sqref="Q1487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9432,7 +9417,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>2937</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -10584,7 +10569,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -10606,31 +10591,31 @@
         <v>31900</v>
       </c>
       <c r="I24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="P24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="Q24">
         <v>800049</v>
       </c>
       <c r="R24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="S24" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="T24" t="str">
         <f>VLOOKUP(C24,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -12927,7 +12912,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -12949,31 +12934,31 @@
         <v>26108</v>
       </c>
       <c r="I69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="J69" t="s">
         <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="L69" t="s">
         <v>20</v>
       </c>
       <c r="M69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="P69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="Q69">
         <v>669467</v>
       </c>
       <c r="R69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="S69" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="T69" t="str">
         <f>VLOOKUP(C69,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -14362,7 +14347,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -14384,31 +14369,31 @@
         <v>26952</v>
       </c>
       <c r="I97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="L97" t="s">
         <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="P97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="Q97">
         <v>683627</v>
       </c>
       <c r="R97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="S97" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="T97" t="str">
         <f>VLOOKUP(C97,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -17571,7 +17556,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -17593,31 +17578,31 @@
         <v>26419</v>
       </c>
       <c r="I159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="J159" t="s">
         <v>20</v>
       </c>
       <c r="K159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="L159" t="s">
         <v>20</v>
       </c>
       <c r="M159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="P159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="Q159">
         <v>687134</v>
       </c>
       <c r="R159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="S159" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="T159" t="str">
         <f>VLOOKUP(C159,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -17626,7 +17611,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -17648,31 +17633,31 @@
         <v>25582</v>
       </c>
       <c r="I160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="J160" t="s">
         <v>20</v>
       </c>
       <c r="K160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="L160" t="s">
         <v>20</v>
       </c>
       <c r="M160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="P160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="Q160">
         <v>669620</v>
       </c>
       <c r="R160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="S160" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="T160" t="str">
         <f>VLOOKUP(C160,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -18528,7 +18513,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
@@ -18550,31 +18535,31 @@
         <v>30133</v>
       </c>
       <c r="I177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="J177" t="s">
         <v>20</v>
       </c>
       <c r="K177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="L177" t="s">
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="P177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="Q177">
         <v>676428</v>
       </c>
       <c r="R177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="S177" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="T177" t="str">
         <f>VLOOKUP(C177,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -18855,7 +18840,7 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -18877,31 +18862,31 @@
         <v>16835</v>
       </c>
       <c r="I183" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="J183" t="s">
         <v>20</v>
       </c>
       <c r="K183" t="s">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="L183" t="s">
         <v>20</v>
       </c>
       <c r="M183" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="P183" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="Q183">
         <v>657514</v>
       </c>
       <c r="R183" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="S183" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="T183" t="str">
         <f>VLOOKUP(C183,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -21061,7 +21046,7 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="B226" t="s">
         <v>20</v>
@@ -21083,31 +21068,31 @@
         <v>30055</v>
       </c>
       <c r="I226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="J226" t="s">
         <v>20</v>
       </c>
       <c r="K226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="L226" t="s">
         <v>20</v>
       </c>
       <c r="M226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="P226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="Q226">
         <v>700249</v>
       </c>
       <c r="R226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="S226" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="T226" t="str">
         <f>VLOOKUP(C226,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -21116,7 +21101,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -21138,31 +21123,31 @@
         <v>31508</v>
       </c>
       <c r="I227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="J227" t="s">
         <v>20</v>
       </c>
       <c r="K227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="L227" t="s">
         <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="P227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="Q227">
         <v>702674</v>
       </c>
       <c r="R227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="S227" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="T227" t="str">
         <f>VLOOKUP(C227,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -22202,7 +22187,7 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="B248" t="s">
         <v>20</v>
@@ -22224,31 +22209,31 @@
         <v>30161</v>
       </c>
       <c r="I248" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="J248" t="s">
         <v>20</v>
       </c>
       <c r="K248" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="L248" t="s">
         <v>20</v>
       </c>
       <c r="M248" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="P248" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="Q248">
         <v>692230</v>
       </c>
       <c r="R248" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="S248" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="T248" t="str">
         <f>VLOOKUP(C248,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -22407,7 +22392,7 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="B252" t="s">
         <v>20</v>
@@ -22429,31 +22414,31 @@
         <v>27572</v>
       </c>
       <c r="I252" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="J252" t="s">
         <v>20</v>
       </c>
       <c r="K252" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="L252" t="s">
         <v>20</v>
       </c>
       <c r="M252" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="P252" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="Q252">
         <v>669387</v>
       </c>
       <c r="R252" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="S252" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="T252" t="str">
         <f>VLOOKUP(C252,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -22523,7 +22508,7 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="B254" t="s">
         <v>20</v>
@@ -22545,31 +22530,31 @@
         <v>27685</v>
       </c>
       <c r="I254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="J254" t="s">
         <v>20</v>
       </c>
       <c r="K254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="L254" t="s">
         <v>20</v>
       </c>
       <c r="M254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="P254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="Q254">
         <v>686730</v>
       </c>
       <c r="R254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="S254" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="T254" t="str">
         <f>VLOOKUP(C254,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -22578,7 +22563,7 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="B255" t="s">
         <v>20</v>
@@ -22597,34 +22582,34 @@
         <v>33</v>
       </c>
       <c r="H255" t="s">
-        <v>2891</v>
+        <v>2886</v>
       </c>
       <c r="I255" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="J255" t="s">
         <v>20</v>
       </c>
       <c r="K255" t="s">
-        <v>2892</v>
+        <v>2887</v>
       </c>
       <c r="L255" t="s">
         <v>20</v>
       </c>
       <c r="M255" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="P255" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="Q255">
         <v>687931</v>
       </c>
       <c r="R255" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="S255" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="T255" t="str">
         <f>VLOOKUP(C255,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -22633,7 +22618,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
@@ -22655,31 +22640,31 @@
         <v>9174</v>
       </c>
       <c r="I256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="J256" t="s">
         <v>20</v>
       </c>
       <c r="K256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="L256" t="s">
         <v>20</v>
       </c>
       <c r="M256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="P256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="Q256">
         <v>543391</v>
       </c>
       <c r="R256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="S256" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="T256" t="str">
         <f>VLOOKUP(C256,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -23755,7 +23740,7 @@
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="B277" t="s">
         <v>20</v>
@@ -23777,31 +23762,31 @@
         <v>29866</v>
       </c>
       <c r="I277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="J277" t="s">
         <v>20</v>
       </c>
       <c r="K277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="L277" t="s">
         <v>20</v>
       </c>
       <c r="M277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="P277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="Q277">
         <v>694646</v>
       </c>
       <c r="R277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="S277" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="T277" t="str">
         <f>VLOOKUP(C277,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -26547,7 +26532,7 @@
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="B330" t="s">
         <v>20</v>
@@ -26569,28 +26554,28 @@
         <v>26171</v>
       </c>
       <c r="I330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="J330" t="s">
         <v>20</v>
       </c>
       <c r="K330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="L330" t="s">
         <v>20</v>
       </c>
       <c r="M330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="P330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="R330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="S330" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="T330" t="str">
         <f>VLOOKUP(C330,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -27299,7 +27284,7 @@
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="B344" t="s">
         <v>20</v>
@@ -27321,31 +27306,31 @@
         <v>27974</v>
       </c>
       <c r="I344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="J344" t="s">
         <v>20</v>
       </c>
       <c r="K344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="L344" t="s">
         <v>20</v>
       </c>
       <c r="M344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="P344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="Q344">
         <v>691441</v>
       </c>
       <c r="R344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="S344" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="T344" t="str">
         <f>VLOOKUP(C344,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -29639,7 +29624,7 @@
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="B389" t="s">
         <v>20</v>
@@ -29661,31 +29646,31 @@
         <v>30056</v>
       </c>
       <c r="I389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="J389" t="s">
         <v>20</v>
       </c>
       <c r="K389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="L389" t="s">
         <v>20</v>
       </c>
       <c r="M389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="P389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="Q389">
         <v>701581</v>
       </c>
       <c r="R389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="S389" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="T389" t="str">
         <f>VLOOKUP(C389,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -30119,7 +30104,7 @@
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="B398" t="s">
         <v>20</v>
@@ -30141,31 +30126,31 @@
         <v>27582</v>
       </c>
       <c r="I398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="J398" t="s">
         <v>20</v>
       </c>
       <c r="K398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="L398" t="s">
         <v>20</v>
       </c>
       <c r="M398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="P398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="Q398">
         <v>669721</v>
       </c>
       <c r="R398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="S398" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="T398" t="str">
         <f>VLOOKUP(C398,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -30174,7 +30159,7 @@
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="B399" t="s">
         <v>20</v>
@@ -30196,31 +30181,31 @@
         <v>21448</v>
       </c>
       <c r="I399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="J399" t="s">
         <v>20</v>
       </c>
       <c r="K399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="L399" t="s">
         <v>20</v>
       </c>
       <c r="M399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="P399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="Q399">
         <v>663436</v>
       </c>
       <c r="R399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="S399" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="T399" t="str">
         <f>VLOOKUP(C399,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -31269,7 +31254,7 @@
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="B420" t="s">
         <v>20</v>
@@ -31291,31 +31276,31 @@
         <v>26389</v>
       </c>
       <c r="I420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="J420" t="s">
         <v>20</v>
       </c>
       <c r="K420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="L420" t="s">
         <v>20</v>
       </c>
       <c r="M420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="P420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="Q420">
         <v>687792</v>
       </c>
       <c r="R420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="S420" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="T420" t="str">
         <f>VLOOKUP(C420,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -34349,7 +34334,7 @@
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="B479" t="s">
         <v>20</v>
@@ -34371,31 +34356,31 @@
         <v>26252</v>
       </c>
       <c r="I479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="J479" t="s">
         <v>20</v>
       </c>
       <c r="K479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="L479" t="s">
         <v>20</v>
       </c>
       <c r="M479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="P479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="Q479">
         <v>669062</v>
       </c>
       <c r="R479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="S479" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="T479" t="str">
         <f>VLOOKUP(C479,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -37129,7 +37114,7 @@
     </row>
     <row r="532" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="B532" t="s">
         <v>20</v>
@@ -37151,31 +37136,31 @@
         <v>29519</v>
       </c>
       <c r="I532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="J532" t="s">
         <v>20</v>
       </c>
       <c r="K532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="L532" t="s">
         <v>20</v>
       </c>
       <c r="M532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="P532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="Q532">
         <v>700669</v>
       </c>
       <c r="R532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="S532" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="T532" t="str">
         <f>VLOOKUP(C532,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -37817,7 +37802,7 @@
     </row>
     <row r="545" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="B545" t="s">
         <v>20</v>
@@ -37839,31 +37824,31 @@
         <v>31635</v>
       </c>
       <c r="I545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="J545" t="s">
         <v>20</v>
       </c>
       <c r="K545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="L545" t="s">
         <v>20</v>
       </c>
       <c r="M545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="P545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="Q545">
         <v>806185</v>
       </c>
       <c r="R545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="S545" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="T545" t="str">
         <f>VLOOKUP(C545,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -39166,7 +39151,7 @@
     </row>
     <row r="571" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="B571" t="s">
         <v>20</v>
@@ -39188,31 +39173,31 @@
         <v>33527</v>
       </c>
       <c r="I571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="J571" t="s">
         <v>20</v>
       </c>
       <c r="K571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="L571" t="s">
         <v>20</v>
       </c>
       <c r="M571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="P571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="Q571">
         <v>694462</v>
       </c>
       <c r="R571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="S571" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="T571" t="str">
         <f>VLOOKUP(C571,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -40121,7 +40106,7 @@
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="B590" t="s">
         <v>20</v>
@@ -40143,31 +40128,31 @@
         <v>27889</v>
       </c>
       <c r="I590" t="s">
-        <v>2923</v>
+        <v>2918</v>
       </c>
       <c r="J590" t="s">
         <v>20</v>
       </c>
       <c r="K590" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="L590" t="s">
         <v>20</v>
       </c>
       <c r="M590" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="P590" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="Q590">
         <v>669372</v>
       </c>
       <c r="R590" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="S590" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="T590" t="str">
         <f>VLOOKUP(C590,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -40289,7 +40274,7 @@
     </row>
     <row r="593" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="B593" t="s">
         <v>20</v>
@@ -40311,31 +40296,31 @@
         <v>27688</v>
       </c>
       <c r="I593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="J593" t="s">
         <v>20</v>
       </c>
       <c r="K593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="L593" t="s">
         <v>20</v>
       </c>
       <c r="M593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="P593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="Q593">
         <v>686799</v>
       </c>
       <c r="R593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="S593" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="T593" t="str">
         <f>VLOOKUP(C593,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -41105,7 +41090,7 @@
     </row>
     <row r="608" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="B608" t="s">
         <v>20</v>
@@ -41127,31 +41112,31 @@
         <v>26907</v>
       </c>
       <c r="I608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="J608" t="s">
         <v>20</v>
       </c>
       <c r="K608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="L608" t="s">
         <v>20</v>
       </c>
       <c r="M608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="P608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="Q608">
         <v>683568</v>
       </c>
       <c r="R608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="S608" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="T608" t="str">
         <f>VLOOKUP(C608,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -41264,7 +41249,7 @@
     </row>
     <row r="611" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="B611" t="s">
         <v>20</v>
@@ -41286,31 +41271,31 @@
         <v>33168</v>
       </c>
       <c r="I611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="J611" t="s">
         <v>20</v>
       </c>
       <c r="K611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="L611" t="s">
         <v>20</v>
       </c>
       <c r="M611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="P611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="Q611">
         <v>814005</v>
       </c>
       <c r="R611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="S611" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="T611" t="str">
         <f>VLOOKUP(C611,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -51552,7 +51537,7 @@
     </row>
     <row r="807" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="B807" t="s">
         <v>20</v>
@@ -51574,31 +51559,31 @@
         <v>30031</v>
       </c>
       <c r="I807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="J807" t="s">
         <v>20</v>
       </c>
       <c r="K807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="L807" t="s">
         <v>20</v>
       </c>
       <c r="M807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="P807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="Q807">
         <v>687924</v>
       </c>
       <c r="R807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="S807" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="T807" t="str">
         <f>VLOOKUP(C807,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -52561,7 +52546,7 @@
     </row>
     <row r="826" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="B826" t="s">
         <v>20</v>
@@ -52583,31 +52568,31 @@
         <v>31204</v>
       </c>
       <c r="I826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="J826" t="s">
         <v>20</v>
       </c>
       <c r="K826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="L826" t="s">
         <v>20</v>
       </c>
       <c r="M826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="P826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="Q826">
         <v>680736</v>
       </c>
       <c r="R826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="S826" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="T826" t="str">
         <f>VLOOKUP(C826,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -52934,7 +52919,7 @@
     </row>
     <row r="833" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="B833" t="s">
         <v>20</v>
@@ -52956,31 +52941,31 @@
         <v>22630</v>
       </c>
       <c r="I833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="J833" t="s">
         <v>20</v>
       </c>
       <c r="K833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="L833" t="s">
         <v>20</v>
       </c>
       <c r="M833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="P833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="Q833">
         <v>672456</v>
       </c>
       <c r="R833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="S833" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="T833" t="str">
         <f>VLOOKUP(C833,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -53243,7 +53228,7 @@
     </row>
     <row r="839" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="B839" t="s">
         <v>20</v>
@@ -53265,31 +53250,31 @@
         <v>20009</v>
       </c>
       <c r="I839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="J839" t="s">
         <v>20</v>
       </c>
       <c r="K839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="L839" t="s">
         <v>20</v>
       </c>
       <c r="M839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="P839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="Q839">
         <v>670046</v>
       </c>
       <c r="R839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="S839" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="T839" t="str">
         <f>VLOOKUP(C839,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -54451,7 +54436,7 @@
     </row>
     <row r="862" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="B862" t="s">
         <v>20</v>
@@ -54473,31 +54458,31 @@
         <v>31843</v>
       </c>
       <c r="I862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="J862" t="s">
         <v>20</v>
       </c>
       <c r="K862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="L862" t="s">
         <v>20</v>
       </c>
       <c r="M862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="P862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="Q862">
         <v>677958</v>
       </c>
       <c r="R862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="S862" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="T862" t="str">
         <f>VLOOKUP(C862,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -54613,7 +54598,7 @@
     </row>
     <row r="865" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="B865" t="s">
         <v>20</v>
@@ -54635,31 +54620,31 @@
         <v>29823</v>
       </c>
       <c r="I865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="J865" t="s">
         <v>20</v>
       </c>
       <c r="K865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="L865" t="s">
         <v>20</v>
       </c>
       <c r="M865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="P865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="Q865">
         <v>681066</v>
       </c>
       <c r="R865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="S865" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="T865" t="str">
         <f>VLOOKUP(C865,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -56013,7 +55998,7 @@
     </row>
     <row r="891" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="B891" t="s">
         <v>20</v>
@@ -56035,31 +56020,31 @@
         <v>30076</v>
       </c>
       <c r="I891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="J891" t="s">
         <v>20</v>
       </c>
       <c r="K891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="L891" t="s">
         <v>20</v>
       </c>
       <c r="M891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="P891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="Q891">
         <v>689017</v>
       </c>
       <c r="R891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="S891" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="T891" t="str">
         <f>VLOOKUP(C891,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -58000,7 +57985,7 @@
     </row>
     <row r="928" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="B928" t="s">
         <v>20</v>
@@ -58022,31 +58007,31 @@
         <v>24581</v>
       </c>
       <c r="I928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="J928" t="s">
         <v>20</v>
       </c>
       <c r="K928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="L928" t="s">
         <v>20</v>
       </c>
       <c r="M928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="P928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="Q928">
         <v>680689</v>
       </c>
       <c r="R928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="S928" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="T928" t="str">
         <f>VLOOKUP(C928,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -61418,7 +61403,7 @@
     </row>
     <row r="992" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="B992" t="s">
         <v>20</v>
@@ -61440,31 +61425,31 @@
         <v>29869</v>
       </c>
       <c r="I992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="J992" t="s">
         <v>20</v>
       </c>
       <c r="K992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="L992" t="s">
         <v>20</v>
       </c>
       <c r="M992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="P992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="Q992">
         <v>700241</v>
       </c>
       <c r="R992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="S992" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="T992" t="str">
         <f>VLOOKUP(C992,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -61473,7 +61458,7 @@
     </row>
     <row r="993" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="B993" t="s">
         <v>20</v>
@@ -61495,31 +61480,31 @@
         <v>23223</v>
       </c>
       <c r="I993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="J993" t="s">
         <v>20</v>
       </c>
       <c r="K993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="L993" t="s">
         <v>20</v>
       </c>
       <c r="M993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="P993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="Q993">
         <v>675650</v>
       </c>
       <c r="R993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="S993" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="T993" t="str">
         <f>VLOOKUP(C993,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -65847,7 +65832,7 @@
     </row>
     <row r="1077" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="B1077" t="s">
         <v>20</v>
@@ -65869,31 +65854,31 @@
         <v>8246</v>
       </c>
       <c r="I1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="J1077" t="s">
         <v>20</v>
       </c>
       <c r="K1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="L1077" t="s">
         <v>20</v>
       </c>
       <c r="M1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="P1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="Q1077">
         <v>502179</v>
       </c>
       <c r="R1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="S1077" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="T1077" t="str">
         <f>VLOOKUP(C1077,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -68716,7 +68701,7 @@
     </row>
     <row r="1132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="B1132" t="s">
         <v>20</v>
@@ -68738,31 +68723,31 @@
         <v>33876</v>
       </c>
       <c r="I1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="J1132" t="s">
         <v>20</v>
       </c>
       <c r="K1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="L1132" t="s">
         <v>20</v>
       </c>
       <c r="M1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="P1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="Q1132">
         <v>695076</v>
       </c>
       <c r="R1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="S1132" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="T1132" t="str">
         <f>VLOOKUP(C1132,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -69040,7 +69025,7 @@
     </row>
     <row r="1138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="B1138" t="s">
         <v>20</v>
@@ -69062,31 +69047,31 @@
         <v>30160</v>
       </c>
       <c r="I1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="J1138" t="s">
         <v>20</v>
       </c>
       <c r="K1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="L1138" t="s">
         <v>20</v>
       </c>
       <c r="M1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="P1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="Q1138">
         <v>690916</v>
       </c>
       <c r="R1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="S1138" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="T1138" t="str">
         <f>VLOOKUP(C1138,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -69447,7 +69432,7 @@
     </row>
     <row r="1146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="B1146" t="s">
         <v>20</v>
@@ -69469,31 +69454,31 @@
         <v>29514</v>
       </c>
       <c r="I1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="J1146" t="s">
         <v>20</v>
       </c>
       <c r="K1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="L1146" t="s">
         <v>20</v>
       </c>
       <c r="M1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="P1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="Q1146">
         <v>689981</v>
       </c>
       <c r="R1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="S1146" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="T1146" t="str">
         <f>VLOOKUP(C1146,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -73017,7 +73002,7 @@
     </row>
     <row r="1215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="B1215" t="s">
         <v>20</v>
@@ -73039,31 +73024,31 @@
         <v>26443</v>
       </c>
       <c r="I1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="J1215" t="s">
         <v>20</v>
       </c>
       <c r="K1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="L1215" t="s">
         <v>20</v>
       </c>
       <c r="M1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="P1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="Q1215">
         <v>691951</v>
       </c>
       <c r="R1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="S1215" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="T1215" t="str">
         <f>VLOOKUP(C1215,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -73767,7 +73752,7 @@
     </row>
     <row r="1230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="B1230" t="s">
         <v>20</v>
@@ -73789,31 +73774,31 @@
         <v>29878</v>
       </c>
       <c r="I1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="J1230" t="s">
         <v>20</v>
       </c>
       <c r="K1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="L1230" t="s">
         <v>20</v>
       </c>
       <c r="M1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="P1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="Q1230">
         <v>680732</v>
       </c>
       <c r="R1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="S1230" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="T1230" t="str">
         <f>VLOOKUP(C1230,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -73926,7 +73911,7 @@
     </row>
     <row r="1233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="B1233" t="s">
         <v>20</v>
@@ -73948,31 +73933,31 @@
         <v>21481</v>
       </c>
       <c r="I1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="J1233" t="s">
         <v>20</v>
       </c>
       <c r="K1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="L1233" t="s">
         <v>20</v>
       </c>
       <c r="M1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="P1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="Q1233">
         <v>663546</v>
       </c>
       <c r="R1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="S1233" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="T1233" t="str">
         <f>VLOOKUP(C1233,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -74535,7 +74520,7 @@
     </row>
     <row r="1245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="B1245" t="s">
         <v>20</v>
@@ -74557,31 +74542,31 @@
         <v>26020</v>
       </c>
       <c r="I1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="J1245" t="s">
         <v>20</v>
       </c>
       <c r="K1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="L1245" t="s">
         <v>20</v>
       </c>
       <c r="M1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="P1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="Q1245">
         <v>686751</v>
       </c>
       <c r="R1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="S1245" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="T1245" t="str">
         <f>VLOOKUP(C1245,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -75815,7 +75800,7 @@
     </row>
     <row r="1268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="B1268" t="s">
         <v>20</v>
@@ -75837,31 +75822,31 @@
         <v>30226</v>
       </c>
       <c r="I1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="J1268" t="s">
         <v>20</v>
       </c>
       <c r="K1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="L1268" t="s">
         <v>20</v>
       </c>
       <c r="M1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="P1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="Q1268">
         <v>702352</v>
       </c>
       <c r="R1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="S1268" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="T1268" t="str">
         <f>VLOOKUP(C1268,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -75931,7 +75916,7 @@
     </row>
     <row r="1270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="B1270" t="s">
         <v>20</v>
@@ -75953,31 +75938,31 @@
         <v>31846</v>
       </c>
       <c r="I1270" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="J1270" t="s">
         <v>20</v>
       </c>
       <c r="K1270" t="s">
-        <v>2876</v>
+        <v>2871</v>
       </c>
       <c r="L1270" t="s">
         <v>20</v>
       </c>
       <c r="M1270" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="P1270" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="Q1270">
         <v>680885</v>
       </c>
       <c r="R1270" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="S1270" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="T1270" t="str">
         <f>VLOOKUP(C1270,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -77142,7 +77127,7 @@
     </row>
     <row r="1293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="B1293" t="s">
         <v>20</v>
@@ -77164,31 +77149,31 @@
         <v>27669</v>
       </c>
       <c r="I1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="J1293" t="s">
         <v>20</v>
       </c>
       <c r="K1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="L1293" t="s">
         <v>20</v>
       </c>
       <c r="M1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="P1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="Q1293">
         <v>685299</v>
       </c>
       <c r="R1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="S1293" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="T1293" t="str">
         <f>VLOOKUP(C1293,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -80735,7 +80720,7 @@
     </row>
     <row r="1361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="B1361" t="s">
         <v>20</v>
@@ -80757,31 +80742,31 @@
         <v>30140</v>
       </c>
       <c r="I1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="J1361" t="s">
         <v>20</v>
       </c>
       <c r="K1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="L1361" t="s">
         <v>20</v>
       </c>
       <c r="M1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="P1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="Q1361">
         <v>680744</v>
       </c>
       <c r="R1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="S1361" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="T1361" t="str">
         <f>VLOOKUP(C1361,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -82466,7 +82451,7 @@
     </row>
     <row r="1394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="B1394" t="s">
         <v>20</v>
@@ -82488,31 +82473,31 @@
         <v>23899</v>
       </c>
       <c r="I1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="J1394" t="s">
         <v>20</v>
       </c>
       <c r="K1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="L1394" t="s">
         <v>20</v>
       </c>
       <c r="M1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="P1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="Q1394">
         <v>678368</v>
       </c>
       <c r="R1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="S1394" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="T1394" t="str">
         <f>VLOOKUP(C1394,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -83993,7 +83978,7 @@
     </row>
     <row r="1424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="B1424" t="s">
         <v>20</v>
@@ -84015,31 +84000,31 @@
         <v>30182</v>
       </c>
       <c r="I1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="J1424" t="s">
         <v>20</v>
       </c>
       <c r="K1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="L1424" t="s">
         <v>20</v>
       </c>
       <c r="M1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="P1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="Q1424">
         <v>701542</v>
       </c>
       <c r="R1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="S1424" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="T1424" t="str">
         <f>VLOOKUP(C1424,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -84770,7 +84755,7 @@
     </row>
     <row r="1439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="B1439" t="s">
         <v>20</v>
@@ -84792,31 +84777,31 @@
         <v>29271</v>
       </c>
       <c r="I1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="J1439" t="s">
         <v>20</v>
       </c>
       <c r="K1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="L1439" t="s">
         <v>20</v>
       </c>
       <c r="M1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="P1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="Q1439">
         <v>700270</v>
       </c>
       <c r="R1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="S1439" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="T1439" t="str">
         <f>VLOOKUP(C1439,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -86341,6 +86326,12 @@
       <c r="F1468" t="s">
         <v>23</v>
       </c>
+      <c r="H1468" t="s">
+        <v>2855</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>2854</v>
+      </c>
       <c r="J1468" t="s">
         <v>20</v>
       </c>
@@ -86357,7 +86348,7 @@
         <v>1</v>
       </c>
       <c r="O1468" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="S1468" t="s">
         <v>2854</v>
@@ -86369,17 +86360,17 @@
     </row>
     <row r="1469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="B1469" t="s">
         <v>20</v>
       </c>
       <c r="C1469" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D1469" t="str">
         <f>VLOOKUP(Players!C1469,Teams!A:B,2,FALSE)</f>
-        <v>Chicago White Sox</v>
+        <v>Kansas City Royals</v>
       </c>
       <c r="E1469" t="s">
         <v>23</v>
@@ -86388,34 +86379,49 @@
         <v>23</v>
       </c>
       <c r="G1469">
-        <v>1995</v>
+        <v>1983</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>2858</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>2857</v>
       </c>
       <c r="J1469" t="s">
         <v>20</v>
       </c>
       <c r="K1469" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="L1469" t="s">
         <v>20</v>
       </c>
       <c r="M1469" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="N1469">
         <v>1</v>
       </c>
+      <c r="P1469" t="s">
+        <v>2857</v>
+      </c>
+      <c r="Q1469">
+        <v>425844</v>
+      </c>
+      <c r="R1469" t="s">
+        <v>2857</v>
+      </c>
       <c r="S1469" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="T1469" t="str">
         <f>VLOOKUP(C1469,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Chicago</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="1470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B1470" t="s">
         <v>20</v>
@@ -86433,32 +86439,32 @@
       <c r="F1470" t="s">
         <v>23</v>
       </c>
+      <c r="G1470">
+        <v>1990</v>
+      </c>
       <c r="H1470" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="I1470" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="J1470" t="s">
         <v>20</v>
       </c>
       <c r="K1470" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="L1470" t="s">
         <v>20</v>
       </c>
       <c r="M1470" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="N1470">
         <v>1</v>
       </c>
-      <c r="O1470" t="s">
+      <c r="S1470" t="s">
         <v>2859</v>
-      </c>
-      <c r="S1470" t="s">
-        <v>2857</v>
       </c>
       <c r="T1470" t="str">
         <f>VLOOKUP(C1470,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -86467,17 +86473,17 @@
     </row>
     <row r="1471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="B1471" t="s">
         <v>20</v>
       </c>
       <c r="C1471" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="D1471" t="str">
         <f>VLOOKUP(Players!C1471,Teams!A:B,2,FALSE)</f>
-        <v>Kansas City Royals</v>
+        <v>Tampa Bay Rays</v>
       </c>
       <c r="E1471" t="s">
         <v>23</v>
@@ -86486,172 +86492,181 @@
         <v>23</v>
       </c>
       <c r="G1471">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="H1471" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I1471" t="s">
         <v>2861</v>
       </c>
-      <c r="I1471" t="s">
-        <v>2860</v>
-      </c>
       <c r="J1471" t="s">
         <v>20</v>
       </c>
       <c r="K1471" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="L1471" t="s">
         <v>20</v>
       </c>
       <c r="M1471" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="N1471">
         <v>1</v>
       </c>
       <c r="P1471" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="Q1471">
-        <v>425844</v>
+        <v>641793</v>
       </c>
       <c r="R1471" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="S1471" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="T1471" t="str">
         <f>VLOOKUP(C1471,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Kansas City</v>
+        <v>Tampa Bay</v>
       </c>
     </row>
     <row r="1472" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="B1472" t="s">
         <v>20</v>
       </c>
       <c r="C1472" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D1472" t="str">
         <f>VLOOKUP(Players!C1472,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>St. Louis Cardinals</v>
       </c>
       <c r="E1472" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F1472" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1472">
-        <v>1990</v>
-      </c>
-      <c r="H1472" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1472">
+        <v>25918</v>
+      </c>
+      <c r="I1472" t="s">
         <v>2863</v>
       </c>
-      <c r="I1472" t="s">
-        <v>2862</v>
-      </c>
       <c r="J1472" t="s">
         <v>20</v>
       </c>
       <c r="K1472" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="L1472" t="s">
         <v>20</v>
       </c>
       <c r="M1472" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="N1472">
         <v>1</v>
       </c>
+      <c r="O1472" t="s">
+        <v>2864</v>
+      </c>
+      <c r="P1472" t="s">
+        <v>2863</v>
+      </c>
+      <c r="Q1472">
+        <v>668868</v>
+      </c>
+      <c r="R1472" t="s">
+        <v>2863</v>
+      </c>
       <c r="S1472" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="T1472" t="str">
         <f>VLOOKUP(C1472,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>St. Louis</v>
       </c>
     </row>
     <row r="1473" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="B1473" t="s">
         <v>20</v>
       </c>
       <c r="C1473" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D1473" t="str">
         <f>VLOOKUP(Players!C1473,Teams!A:B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Philadelphia Phillies</v>
       </c>
       <c r="E1473" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F1473" t="s">
         <v>23</v>
       </c>
       <c r="G1473">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="H1473" t="s">
+        <v>2866</v>
+      </c>
+      <c r="I1473" t="s">
         <v>2865</v>
       </c>
-      <c r="I1473" t="s">
-        <v>2864</v>
-      </c>
       <c r="J1473" t="s">
         <v>20</v>
       </c>
       <c r="K1473" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="L1473" t="s">
         <v>20</v>
       </c>
       <c r="M1473" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="N1473">
         <v>1</v>
       </c>
       <c r="P1473" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="Q1473">
-        <v>641793</v>
+        <v>554430</v>
       </c>
       <c r="R1473" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="S1473" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="T1473" t="str">
         <f>VLOOKUP(C1473,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Tampa Bay</v>
+        <v>Philadelphia</v>
       </c>
     </row>
     <row r="1474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
-        <v>2866</v>
+        <v>2914</v>
       </c>
       <c r="B1474" t="s">
         <v>20</v>
       </c>
       <c r="C1474" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D1474" t="str">
         <f>VLOOKUP(Players!C1474,Teams!A:B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="E1474" t="s">
         <v>23</v>
@@ -86659,176 +86674,164 @@
       <c r="F1474" t="s">
         <v>23</v>
       </c>
+      <c r="H1474">
+        <v>31827</v>
+      </c>
       <c r="I1474" t="s">
-        <v>2866</v>
+        <v>2915</v>
       </c>
       <c r="J1474" t="s">
         <v>20</v>
       </c>
       <c r="K1474" t="s">
-        <v>2866</v>
+        <v>2914</v>
       </c>
       <c r="L1474" t="s">
         <v>20</v>
       </c>
       <c r="M1474" t="s">
-        <v>2866</v>
-      </c>
-      <c r="N1474">
-        <v>1</v>
-      </c>
-      <c r="O1474" t="s">
-        <v>2867</v>
+        <v>2914</v>
       </c>
       <c r="P1474" t="s">
-        <v>2866</v>
+        <v>2914</v>
+      </c>
+      <c r="Q1474">
+        <v>805673</v>
       </c>
       <c r="R1474" t="s">
-        <v>2866</v>
+        <v>2914</v>
       </c>
       <c r="S1474" t="s">
-        <v>2866</v>
+        <v>2914</v>
       </c>
       <c r="T1474" t="str">
         <f>VLOOKUP(C1474,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Washington</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
       <c r="B1475" t="s">
         <v>20</v>
       </c>
       <c r="C1475" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D1475" t="str">
         <f>VLOOKUP(Players!C1475,Teams!A:B,2,FALSE)</f>
-        <v>St. Louis Cardinals</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="E1475" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F1475" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H1475">
-        <v>25918</v>
+        <v>35323</v>
       </c>
       <c r="I1475" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
       <c r="J1475" t="s">
         <v>20</v>
       </c>
       <c r="K1475" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
       <c r="L1475" t="s">
         <v>20</v>
       </c>
       <c r="M1475" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N1475">
-        <v>1</v>
-      </c>
-      <c r="O1475" t="s">
-        <v>2869</v>
+        <v>2959</v>
       </c>
       <c r="P1475" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
       <c r="Q1475">
-        <v>668868</v>
+        <v>808963</v>
       </c>
       <c r="R1475" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
       <c r="S1475" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
       <c r="T1475" t="str">
         <f>VLOOKUP(C1475,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>St. Louis</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>2870</v>
+        <v>2961</v>
       </c>
       <c r="B1476" t="s">
         <v>20</v>
       </c>
       <c r="C1476" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="D1476" t="str">
         <f>VLOOKUP(Players!C1476,Teams!A:B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="E1476" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F1476" t="s">
         <v>23</v>
       </c>
-      <c r="G1476">
-        <v>1990</v>
-      </c>
-      <c r="H1476" t="s">
-        <v>2871</v>
+      <c r="H1476">
+        <v>35321</v>
       </c>
       <c r="I1476" t="s">
-        <v>2870</v>
+        <v>2961</v>
       </c>
       <c r="J1476" t="s">
         <v>20</v>
       </c>
       <c r="K1476" t="s">
-        <v>2870</v>
+        <v>2961</v>
       </c>
       <c r="L1476" t="s">
         <v>20</v>
       </c>
       <c r="M1476" t="s">
-        <v>2870</v>
-      </c>
-      <c r="N1476">
-        <v>1</v>
+        <v>2961</v>
       </c>
       <c r="P1476" t="s">
-        <v>2870</v>
+        <v>2961</v>
       </c>
       <c r="Q1476">
-        <v>554430</v>
+        <v>608372</v>
       </c>
       <c r="R1476" t="s">
-        <v>2870</v>
+        <v>2961</v>
       </c>
       <c r="S1476" t="s">
-        <v>2870</v>
+        <v>2961</v>
       </c>
       <c r="T1476" t="str">
         <f>VLOOKUP(C1476,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Philadelphia</v>
+        <v>Baltimore</v>
       </c>
     </row>
     <row r="1477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>2919</v>
+        <v>2962</v>
       </c>
       <c r="B1477" t="s">
         <v>20</v>
       </c>
       <c r="C1477" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D1477" t="str">
         <f>VLOOKUP(Players!C1477,Teams!A:B,2,FALSE)</f>
-        <v>Minnesota Twins</v>
+        <v>Pittsburgh Pirates</v>
       </c>
       <c r="E1477" t="s">
         <v>23</v>
@@ -86837,53 +86840,53 @@
         <v>23</v>
       </c>
       <c r="H1477">
-        <v>31827</v>
+        <v>31989</v>
       </c>
       <c r="I1477" t="s">
-        <v>2920</v>
+        <v>2966</v>
       </c>
       <c r="J1477" t="s">
         <v>20</v>
       </c>
       <c r="K1477" t="s">
-        <v>2919</v>
+        <v>2962</v>
       </c>
       <c r="L1477" t="s">
         <v>20</v>
       </c>
       <c r="M1477" t="s">
-        <v>2919</v>
+        <v>2962</v>
       </c>
       <c r="P1477" t="s">
-        <v>2919</v>
+        <v>2967</v>
       </c>
       <c r="Q1477">
-        <v>805673</v>
+        <v>802419</v>
       </c>
       <c r="R1477" t="s">
-        <v>2919</v>
+        <v>2967</v>
       </c>
       <c r="S1477" t="s">
-        <v>2919</v>
+        <v>2967</v>
       </c>
       <c r="T1477" t="str">
         <f>VLOOKUP(C1477,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Minnesota</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B1478" t="s">
         <v>20</v>
       </c>
       <c r="C1478" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D1478" t="str">
         <f>VLOOKUP(Players!C1478,Teams!A:B,2,FALSE)</f>
-        <v>Los Angeles Dodgers</v>
+        <v>Chicago White Sox</v>
       </c>
       <c r="E1478" t="s">
         <v>23</v>
@@ -86892,53 +86895,53 @@
         <v>23</v>
       </c>
       <c r="H1478">
-        <v>35323</v>
+        <v>31687</v>
       </c>
       <c r="I1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="J1478" t="s">
         <v>20</v>
       </c>
       <c r="K1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="L1478" t="s">
         <v>20</v>
       </c>
       <c r="M1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="P1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="Q1478">
-        <v>808963</v>
+        <v>681343</v>
       </c>
       <c r="R1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="S1478" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="T1478" t="str">
         <f>VLOOKUP(C1478,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Los Angeles</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="B1479" t="s">
         <v>20</v>
       </c>
       <c r="C1479" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="D1479" t="str">
         <f>VLOOKUP(Players!C1479,Teams!A:B,2,FALSE)</f>
-        <v>Baltimore Orioles</v>
+        <v>Milwaukee Brewers</v>
       </c>
       <c r="E1479" t="s">
         <v>23</v>
@@ -86947,93 +86950,93 @@
         <v>23</v>
       </c>
       <c r="H1479">
-        <v>35321</v>
+        <v>30113</v>
       </c>
       <c r="I1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="J1479" t="s">
         <v>20</v>
       </c>
       <c r="K1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="L1479" t="s">
         <v>20</v>
       </c>
       <c r="M1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="P1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="Q1479">
-        <v>608372</v>
+        <v>694477</v>
       </c>
       <c r="R1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="S1479" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="T1479" t="str">
         <f>VLOOKUP(C1479,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Baltimore</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="B1480" t="s">
         <v>20</v>
       </c>
       <c r="C1480" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D1480" t="str">
         <f>VLOOKUP(Players!C1480,Teams!A:B,2,FALSE)</f>
-        <v>Pittsburgh Pirates</v>
+        <v>Toronto Blue Jays</v>
       </c>
       <c r="E1480" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F1480" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H1480">
-        <v>31989</v>
+        <v>26058</v>
       </c>
       <c r="I1480" t="s">
-        <v>2971</v>
+        <v>2965</v>
       </c>
       <c r="J1480" t="s">
         <v>20</v>
       </c>
       <c r="K1480" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="L1480" t="s">
         <v>20</v>
       </c>
       <c r="M1480" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="P1480" t="s">
-        <v>2972</v>
+        <v>2965</v>
       </c>
       <c r="Q1480">
-        <v>802419</v>
+        <v>687922</v>
       </c>
       <c r="R1480" t="s">
-        <v>2972</v>
+        <v>2965</v>
       </c>
       <c r="S1480" t="s">
-        <v>2972</v>
+        <v>2965</v>
       </c>
       <c r="T1480" t="str">
         <f>VLOOKUP(C1480,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Pittsburgh</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="1481" spans="1:20" x14ac:dyDescent="0.3">
@@ -87044,11 +87047,11 @@
         <v>20</v>
       </c>
       <c r="C1481" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="D1481" t="str">
         <f>VLOOKUP(Players!C1481,Teams!A:B,2,FALSE)</f>
-        <v>Chicago White Sox</v>
+        <v>Detroit Tigers</v>
       </c>
       <c r="E1481" t="s">
         <v>23</v>
@@ -87057,7 +87060,7 @@
         <v>23</v>
       </c>
       <c r="H1481">
-        <v>31687</v>
+        <v>30203</v>
       </c>
       <c r="I1481" t="s">
         <v>2968</v>
@@ -87078,7 +87081,7 @@
         <v>2968</v>
       </c>
       <c r="Q1481">
-        <v>681343</v>
+        <v>695549</v>
       </c>
       <c r="R1481" t="s">
         <v>2968</v>
@@ -87088,7 +87091,7 @@
       </c>
       <c r="T1481" t="str">
         <f>VLOOKUP(C1481,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Chicago</v>
+        <v>Detroit</v>
       </c>
     </row>
     <row r="1482" spans="1:20" x14ac:dyDescent="0.3">
@@ -87099,11 +87102,11 @@
         <v>20</v>
       </c>
       <c r="C1482" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D1482" t="str">
         <f>VLOOKUP(Players!C1482,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Colorado Rockies</v>
       </c>
       <c r="E1482" t="s">
         <v>23</v>
@@ -87112,7 +87115,7 @@
         <v>23</v>
       </c>
       <c r="H1482">
-        <v>30113</v>
+        <v>33482</v>
       </c>
       <c r="I1482" t="s">
         <v>2969</v>
@@ -87133,7 +87136,7 @@
         <v>2969</v>
       </c>
       <c r="Q1482">
-        <v>694477</v>
+        <v>801403</v>
       </c>
       <c r="R1482" t="s">
         <v>2969</v>
@@ -87143,7 +87146,7 @@
       </c>
       <c r="T1482" t="str">
         <f>VLOOKUP(C1482,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1483" spans="1:20" x14ac:dyDescent="0.3">
@@ -87154,20 +87157,20 @@
         <v>20</v>
       </c>
       <c r="C1483" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="D1483" t="str">
         <f>VLOOKUP(Players!C1483,Teams!A:B,2,FALSE)</f>
-        <v>Toronto Blue Jays</v>
+        <v>Boston Red Sox</v>
       </c>
       <c r="E1483" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F1483" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H1483">
-        <v>26058</v>
+        <v>30240</v>
       </c>
       <c r="I1483" t="s">
         <v>2970</v>
@@ -87188,7 +87191,7 @@
         <v>2970</v>
       </c>
       <c r="Q1483">
-        <v>687922</v>
+        <v>690928</v>
       </c>
       <c r="R1483" t="s">
         <v>2970</v>
@@ -87198,22 +87201,22 @@
       </c>
       <c r="T1483" t="str">
         <f>VLOOKUP(C1483,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Toronto</v>
+        <v>Boston</v>
       </c>
     </row>
     <row r="1484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="B1484" t="s">
         <v>20</v>
       </c>
       <c r="C1484" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D1484" t="str">
         <f>VLOOKUP(Players!C1484,Teams!A:B,2,FALSE)</f>
-        <v>Detroit Tigers</v>
+        <v>Houston Astros</v>
       </c>
       <c r="E1484" t="s">
         <v>23</v>
@@ -87222,53 +87225,53 @@
         <v>23</v>
       </c>
       <c r="H1484">
-        <v>30203</v>
+        <v>26440</v>
       </c>
       <c r="I1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="J1484" t="s">
         <v>20</v>
       </c>
       <c r="K1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="L1484" t="s">
         <v>20</v>
       </c>
       <c r="M1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="P1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="Q1484">
-        <v>695549</v>
+        <v>687473</v>
       </c>
       <c r="R1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="S1484" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="T1484" t="str">
         <f>VLOOKUP(C1484,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Detroit</v>
+        <v>Houston</v>
       </c>
     </row>
     <row r="1485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="B1485" t="s">
         <v>20</v>
       </c>
       <c r="C1485" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="D1485" t="str">
         <f>VLOOKUP(Players!C1485,Teams!A:B,2,FALSE)</f>
-        <v>Colorado Rockies</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="E1485" t="s">
         <v>23</v>
@@ -87277,203 +87280,110 @@
         <v>23</v>
       </c>
       <c r="H1485">
-        <v>33482</v>
+        <v>25474</v>
       </c>
       <c r="I1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="J1485" t="s">
         <v>20</v>
       </c>
       <c r="K1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="L1485" t="s">
         <v>20</v>
       </c>
       <c r="M1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="P1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="Q1485">
-        <v>801403</v>
+        <v>686249</v>
       </c>
       <c r="R1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="S1485" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="T1485" t="str">
         <f>VLOOKUP(C1485,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Colorado</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="1486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B1486" t="s">
         <v>20</v>
       </c>
       <c r="C1486" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="D1486" t="str">
         <f>VLOOKUP(Players!C1486,Teams!A:B,2,FALSE)</f>
-        <v>Boston Red Sox</v>
-      </c>
-      <c r="E1486" t="s">
-        <v>23</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="F1486" t="s">
         <v>23</v>
       </c>
       <c r="H1486">
-        <v>30240</v>
+        <v>27819</v>
       </c>
       <c r="I1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="J1486" t="s">
         <v>20</v>
       </c>
       <c r="K1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="L1486" t="s">
         <v>20</v>
       </c>
       <c r="M1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="P1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="Q1486">
-        <v>690928</v>
+        <v>687064</v>
       </c>
       <c r="R1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="S1486" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="T1486" t="str">
         <f>VLOOKUP(C1486,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Boston</v>
+        <v>Baltimore</v>
       </c>
     </row>
     <row r="1487" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B1487" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1487" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1487" t="str">
+      <c r="D1487" t="e">
         <f>VLOOKUP(Players!C1487,Teams!A:B,2,FALSE)</f>
-        <v>Houston Astros</v>
-      </c>
-      <c r="E1487" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1487" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1487">
-        <v>26440</v>
-      </c>
-      <c r="I1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="J1487" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="L1487" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="P1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="Q1487">
-        <v>687473</v>
-      </c>
-      <c r="R1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="S1487" t="s">
-        <v>2976</v>
-      </c>
-      <c r="T1487" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T1487" t="e">
         <f>VLOOKUP(C1487,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Houston</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1488" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="B1488" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1488" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1488" t="str">
+      <c r="D1488" t="e">
         <f>VLOOKUP(Players!C1488,Teams!A:B,2,FALSE)</f>
-        <v>Atlanta Braves</v>
-      </c>
-      <c r="E1488" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1488" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1488" t="s">
-        <v>2978</v>
-      </c>
-      <c r="I1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="J1488" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L1488" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="P1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="Q1488">
-        <v>686249</v>
-      </c>
-      <c r="R1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="S1488" t="s">
-        <v>2977</v>
-      </c>
-      <c r="T1488" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T1488" t="e">
         <f>VLOOKUP(C1488,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Atlanta</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1489" spans="4:20" x14ac:dyDescent="0.3">
@@ -88771,30 +88681,18 @@
         <f>VLOOKUP(Players!C1618,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T1618" t="e">
-        <f>VLOOKUP(C1618,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="1619" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D1619" t="e">
         <f>VLOOKUP(Players!C1619,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T1619" t="e">
-        <f>VLOOKUP(C1619,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="1620" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D1620" t="e">
         <f>VLOOKUP(Players!C1620,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T1620" t="e">
-        <f>VLOOKUP(C1620,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="1621" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D1621" t="e">
@@ -88811,24 +88709,6 @@
     <row r="1623" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D1623" t="e">
         <f>VLOOKUP(Players!C1623,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1624" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1624" t="e">
-        <f>VLOOKUP(Players!C1624,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1625" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1625" t="e">
-        <f>VLOOKUP(Players!C1625,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1626" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1626" t="e">
-        <f>VLOOKUP(Players!C1626,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -88859,7 +88739,7 @@
         <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>2938</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -88870,7 +88750,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>2939</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -88881,7 +88761,7 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>2940</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -88892,7 +88772,7 @@
         <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>2941</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -88903,7 +88783,7 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>2942</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -88914,7 +88794,7 @@
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>2943</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -88922,10 +88802,10 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="C7" t="s">
-        <v>2944</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -88936,7 +88816,7 @@
         <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>2945</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -88947,7 +88827,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>2942</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -88958,7 +88838,7 @@
         <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>2946</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -88969,7 +88849,7 @@
         <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>2947</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -88980,7 +88860,7 @@
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>2958</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -88991,7 +88871,7 @@
         <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -89002,7 +88882,7 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -89013,7 +88893,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>2948</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -89024,7 +88904,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>2949</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -89035,7 +88915,7 @@
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>2950</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -89046,7 +88926,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>2959</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -89057,7 +88937,7 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>2959</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -89079,7 +88959,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>2951</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -89090,7 +88970,7 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>2952</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -89101,7 +88981,7 @@
         <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>2960</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -89112,7 +88992,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -89123,7 +89003,7 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>2961</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -89134,7 +89014,7 @@
         <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>2962</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -89145,7 +89025,7 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>2963</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -89156,7 +89036,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -89167,18 +89047,18 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>2955</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>2935</v>
+        <v>2930</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>2956</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -89189,7 +89069,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>2956</v>
+        <v>2951</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA78B9C7-F82D-44AD-A04B-5FCC0DA1C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3D3F18-766E-4ADE-B1EA-116183B9E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3D3F18-766E-4ADE-B1EA-116183B9E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB1232E-0B02-4A2F-A9AE-3C136CE25849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18293" uniqueCount="2974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18305" uniqueCount="2975">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8959,6 +8959,9 @@
   </si>
   <si>
     <t>Brandon Young</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
   </si>
 </sst>
 </file>
@@ -9345,10 +9348,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1464" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1487" sqref="Q1487"/>
+      <selection pane="bottomLeft" activeCell="Q1488" sqref="Q1488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55173,11 +55176,11 @@
         <v>20</v>
       </c>
       <c r="C876" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D876" t="str">
         <f>VLOOKUP(Players!C876,Teams!A:B,2,FALSE)</f>
-        <v>St. Louis Cardinals</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="E876" t="s">
         <v>23</v>
@@ -55223,7 +55226,7 @@
       </c>
       <c r="T876" t="str">
         <f>VLOOKUP(C876,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>St. Louis</v>
+        <v>Baltimore</v>
       </c>
     </row>
     <row r="877" spans="1:20" x14ac:dyDescent="0.3">
@@ -65165,11 +65168,11 @@
         <v>20</v>
       </c>
       <c r="C1064" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="D1064" t="str">
         <f>VLOOKUP(Players!C1064,Teams!A:B,2,FALSE)</f>
-        <v>Colorado Rockies</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="E1064" t="s">
         <v>23</v>
@@ -65200,7 +65203,7 @@
       </c>
       <c r="T1064" t="str">
         <f>VLOOKUP(C1064,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Colorado</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1065" spans="1:20" x14ac:dyDescent="0.3">
@@ -87367,13 +87370,55 @@
       </c>
     </row>
     <row r="1487" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1487" t="e">
+      <c r="A1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1487" t="str">
         <f>VLOOKUP(Players!C1487,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1487" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1487">
+        <v>25098</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="L1487" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="P1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Q1487">
+        <v>682052</v>
+      </c>
+      <c r="R1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="S1487" t="s">
+        <v>2974</v>
+      </c>
+      <c r="T1487" t="str">
         <f>VLOOKUP(C1487,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ATH</v>
       </c>
     </row>
     <row r="1488" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB1232E-0B02-4A2F-A9AE-3C136CE25849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92342B42-3A6D-468A-A62A-9AEA50FB72E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18305" uniqueCount="2975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18333" uniqueCount="2978">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8962,6 +8962,15 @@
   </si>
   <si>
     <t>Jacob Lopez</t>
+  </si>
+  <si>
+    <t>Brad Lord</t>
+  </si>
+  <si>
+    <t>Gunnar Hoglund</t>
+  </si>
+  <si>
+    <t>sa1234</t>
   </si>
 </sst>
 </file>
@@ -9348,14 +9357,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1488" sqref="Q1488"/>
+      <selection pane="bottomLeft" activeCell="Q1490" sqref="Q1490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -87373,6 +87383,9 @@
       <c r="A1487" t="s">
         <v>2974</v>
       </c>
+      <c r="B1487" t="s">
+        <v>20</v>
+      </c>
       <c r="C1487" t="s">
         <v>1133</v>
       </c>
@@ -87422,26 +87435,116 @@
       </c>
     </row>
     <row r="1488" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1488" t="e">
+      <c r="A1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1488" t="str">
         <f>VLOOKUP(Players!C1488,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1488" t="e">
+        <v>Washington Nationals</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1488">
+        <v>31972</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="L1488" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="P1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="Q1488">
+        <v>695418</v>
+      </c>
+      <c r="R1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="S1488" t="s">
+        <v>2975</v>
+      </c>
+      <c r="T1488" t="str">
         <f>VLOOKUP(C1488,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1489" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1489" t="e">
+        <v>Washington</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1489" t="str">
         <f>VLOOKUP(Players!C1489,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1489" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>2977</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="L1489" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="P1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Q1489">
+        <v>680684</v>
+      </c>
+      <c r="R1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="S1489" t="s">
+        <v>2976</v>
+      </c>
+      <c r="T1489" t="str">
         <f>VLOOKUP(C1489,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1490" spans="4:20" x14ac:dyDescent="0.3">
+        <v>ATH</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1490" t="e">
         <f>VLOOKUP(Players!C1490,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87451,7 +87554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1491" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1491" t="e">
         <f>VLOOKUP(Players!C1491,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87461,7 +87564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1492" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1492" t="e">
         <f>VLOOKUP(Players!C1492,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87471,7 +87574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1493" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1493" t="e">
         <f>VLOOKUP(Players!C1493,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87481,7 +87584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1494" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1494" t="e">
         <f>VLOOKUP(Players!C1494,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87491,7 +87594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1495" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1495" t="e">
         <f>VLOOKUP(Players!C1495,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87501,7 +87604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1496" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1496" t="e">
         <f>VLOOKUP(Players!C1496,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87511,7 +87614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1497" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1497" t="e">
         <f>VLOOKUP(Players!C1497,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87521,7 +87624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1498" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1498" t="e">
         <f>VLOOKUP(Players!C1498,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87531,7 +87634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1499" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1499" t="e">
         <f>VLOOKUP(Players!C1499,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87541,7 +87644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1500" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1500" t="e">
         <f>VLOOKUP(Players!C1500,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87551,7 +87654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1501" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1501" t="e">
         <f>VLOOKUP(Players!C1501,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87561,7 +87664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1502" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1502" t="e">
         <f>VLOOKUP(Players!C1502,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87571,7 +87674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1503" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1503" t="e">
         <f>VLOOKUP(Players!C1503,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -87581,7 +87684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1504" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1504" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1504" t="e">
         <f>VLOOKUP(Players!C1504,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92342B42-3A6D-468A-A62A-9AEA50FB72E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{283C6D54-9484-44A5-8CE7-889533920C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18333" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18385" uniqueCount="2982">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8970,7 +8970,19 @@
     <t>Gunnar Hoglund</t>
   </si>
   <si>
-    <t>sa1234</t>
+    <t>Blade Tidwell</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>sa234</t>
+  </si>
+  <si>
+    <t>Ben Casparius</t>
   </si>
 </sst>
 </file>
@@ -9357,10 +9369,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1469" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1490" sqref="Q1490"/>
+      <selection pane="bottomLeft" activeCell="I1490" sqref="I1490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -67340,6 +67352,9 @@
       <c r="P1105" t="s">
         <v>2175</v>
       </c>
+      <c r="Q1105">
+        <v>682990</v>
+      </c>
       <c r="R1105" t="s">
         <v>2175</v>
       </c>
@@ -87509,8 +87524,8 @@
       <c r="F1489" t="s">
         <v>23</v>
       </c>
-      <c r="H1489" t="s">
-        <v>2977</v>
+      <c r="H1489">
+        <v>31318</v>
       </c>
       <c r="I1489" t="s">
         <v>2976</v>
@@ -87545,43 +87560,223 @@
       </c>
     </row>
     <row r="1490" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1490" t="e">
+      <c r="A1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1490" t="str">
         <f>VLOOKUP(Players!C1490,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1490" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L1490" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="P1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Q1490">
+        <v>694918</v>
+      </c>
+      <c r="R1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="S1490" t="s">
+        <v>2977</v>
+      </c>
+      <c r="T1490" t="str">
         <f>VLOOKUP(C1490,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1491" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1491" t="e">
+      <c r="A1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1491" t="str">
         <f>VLOOKUP(Players!C1491,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1491" t="e">
+        <v>San Diego Padres</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1491">
+        <v>21487</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="L1491" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="P1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="Q1491">
+        <v>663568</v>
+      </c>
+      <c r="R1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="S1491" t="s">
+        <v>2978</v>
+      </c>
+      <c r="T1491" t="str">
         <f>VLOOKUP(C1491,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="1492" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1492" t="e">
+      <c r="A1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1492" t="str">
         <f>VLOOKUP(Players!C1492,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1492" t="e">
+        <v>Seattle Mariners</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1492">
+        <v>33699</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="L1492" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="P1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="Q1492">
+        <v>688138</v>
+      </c>
+      <c r="R1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="S1492" t="s">
+        <v>2979</v>
+      </c>
+      <c r="T1492" t="str">
         <f>VLOOKUP(C1492,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seattle</v>
       </c>
     </row>
     <row r="1493" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1493" t="e">
+      <c r="A1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1493" t="str">
         <f>VLOOKUP(Players!C1493,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1493" t="e">
+        <v>Los Angeles Dodgers</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1493">
+        <v>30085</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="L1493" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="P1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="Q1493">
+        <v>676508</v>
+      </c>
+      <c r="R1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="S1493" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T1493" t="str">
         <f>VLOOKUP(C1493,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1494" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{283C6D54-9484-44A5-8CE7-889533920C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5097C439-D5F9-464A-AC2E-2CE29EA40807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49959,11 +49959,11 @@
         <v>20</v>
       </c>
       <c r="C776" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D776" t="str">
         <f>VLOOKUP(Players!C776,Teams!A:B,2,FALSE)</f>
-        <v>Texas Rangers</v>
+        <v>Toronto Blue Jays</v>
       </c>
       <c r="E776" t="s">
         <v>23</v>
@@ -50009,7 +50009,7 @@
       </c>
       <c r="T776" t="str">
         <f>VLOOKUP(C776,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Texas</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="777" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5097C439-D5F9-464A-AC2E-2CE29EA40807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76CBF19-7D08-47FB-8474-179D239FBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76CBF19-7D08-47FB-8474-179D239FBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3470366-FBE5-4CBF-804B-C5AC8F286ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18385" uniqueCount="2982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18450" uniqueCount="2987">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8979,10 +8979,25 @@
     <t>Logan Evans</t>
   </si>
   <si>
-    <t>sa234</t>
-  </si>
-  <si>
     <t>Ben Casparius</t>
+  </si>
+  <si>
+    <t>Logan Henderson</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Matt Sauer</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -9369,10 +9384,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1469" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1474" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I1490" sqref="I1490"/>
+      <selection pane="bottomLeft" activeCell="Q1499" sqref="Q1499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87579,8 +87594,8 @@
       <c r="F1490" t="s">
         <v>23</v>
       </c>
-      <c r="H1490" t="s">
-        <v>2980</v>
+      <c r="H1490">
+        <v>31701</v>
       </c>
       <c r="I1490" t="s">
         <v>2977</v>
@@ -87726,7 +87741,7 @@
     </row>
     <row r="1493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1493" t="s">
         <v>20</v>
@@ -87748,31 +87763,31 @@
         <v>30085</v>
       </c>
       <c r="I1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="J1493" t="s">
         <v>20</v>
       </c>
       <c r="K1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="L1493" t="s">
         <v>20</v>
       </c>
       <c r="M1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="P1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="Q1493">
         <v>676508</v>
       </c>
       <c r="R1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="S1493" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="T1493" t="str">
         <f>VLOOKUP(C1493,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87780,53 +87795,278 @@
       </c>
     </row>
     <row r="1494" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1494" t="e">
+      <c r="A1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1494" t="str">
         <f>VLOOKUP(Players!C1494,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1494" t="e">
+        <v>Milwaukee Brewers</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1494">
+        <v>31475</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="L1494" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="P1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="Q1494">
+        <v>701656</v>
+      </c>
+      <c r="R1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="S1494" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T1494" t="str">
         <f>VLOOKUP(C1494,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1495" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1495" t="e">
+      <c r="A1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1495" t="str">
         <f>VLOOKUP(Players!C1495,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1495" t="e">
+        <v>Houston Astros</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1495">
+        <v>31312</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="L1495" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="P1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="Q1495">
+        <v>676467</v>
+      </c>
+      <c r="R1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S1495" t="s">
+        <v>2982</v>
+      </c>
+      <c r="T1495" t="str">
         <f>VLOOKUP(C1495,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Houston</v>
       </c>
     </row>
     <row r="1496" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1496" t="e">
+      <c r="A1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1496" t="str">
         <f>VLOOKUP(Players!C1496,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1496" t="e">
+        <v>Los Angeles Dodgers</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1496">
+        <v>22284</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="L1496" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="P1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="Q1496">
+        <v>669422</v>
+      </c>
+      <c r="R1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="S1496" t="s">
+        <v>2983</v>
+      </c>
+      <c r="T1496" t="str">
         <f>VLOOKUP(C1496,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1497" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1497" t="e">
+      <c r="A1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1497" t="str">
         <f>VLOOKUP(Players!C1497,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1497" t="e">
+        <v>Chicago Cubs</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1497">
+        <v>31872</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="J1497" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L1497" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="P1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="Q1497">
+        <v>690990</v>
+      </c>
+      <c r="R1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="S1497" t="s">
+        <v>2984</v>
+      </c>
+      <c r="T1497" t="str">
         <f>VLOOKUP(C1497,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1498" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1498" t="e">
+      <c r="A1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1498" t="str">
         <f>VLOOKUP(Players!C1498,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1498" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>2986</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="J1498" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="L1498" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="P1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="Q1498">
+        <v>687223</v>
+      </c>
+      <c r="R1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="S1498" t="s">
+        <v>2985</v>
+      </c>
+      <c r="T1498" t="str">
         <f>VLOOKUP(C1498,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1499" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3470366-FBE5-4CBF-804B-C5AC8F286ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DC6C9F-2FBD-4FA9-8982-48A8EA1F76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18450" uniqueCount="2987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18472" uniqueCount="2989">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8998,6 +8998,12 @@
   </si>
   <si>
     <t>sa123</t>
+  </si>
+  <si>
+    <t>Chase Petty</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
   </si>
 </sst>
 </file>
@@ -9384,10 +9390,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1474" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1476" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1499" sqref="Q1499"/>
+      <selection pane="bottomLeft" activeCell="Q1501" sqref="Q1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34111,11 +34117,11 @@
         <v>20</v>
       </c>
       <c r="C474" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D474" t="str">
         <f>VLOOKUP(Players!C474,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Toronto Blue Jays</v>
       </c>
       <c r="E474" t="s">
         <v>23</v>
@@ -34152,7 +34158,7 @@
       </c>
       <c r="T474" t="str">
         <f>VLOOKUP(C474,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.3">
@@ -75678,11 +75684,11 @@
         <v>20</v>
       </c>
       <c r="C1265" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="D1265" t="str">
         <f>VLOOKUP(Players!C1265,Teams!A:B,2,FALSE)</f>
-        <v>Arizona Diamondbacks</v>
+        <v>Cleveland Indians</v>
       </c>
       <c r="E1265" t="s">
         <v>23</v>
@@ -75722,7 +75728,7 @@
       </c>
       <c r="T1265" t="str">
         <f>VLOOKUP(C1265,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Arizona</v>
+        <v>Cleveland</v>
       </c>
     </row>
     <row r="1266" spans="1:20" x14ac:dyDescent="0.3">
@@ -88070,23 +88076,101 @@
       </c>
     </row>
     <row r="1499" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1499" t="e">
+      <c r="A1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1499" t="str">
         <f>VLOOKUP(Players!C1499,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1499" t="e">
+        <v>Cincinnati Reds</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1499">
+        <v>30170</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="K1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="M1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="P1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="Q1499">
+        <v>695534</v>
+      </c>
+      <c r="R1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="S1499" t="s">
+        <v>2987</v>
+      </c>
+      <c r="T1499" t="str">
         <f>VLOOKUP(C1499,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Cincinnati</v>
       </c>
     </row>
     <row r="1500" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1500" t="e">
+      <c r="A1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1500" t="str">
         <f>VLOOKUP(Players!C1500,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1500" t="e">
+        <v>Kansas City Royals</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1500">
+        <v>30184</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="K1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="M1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="P1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q1500">
+        <v>702070</v>
+      </c>
+      <c r="R1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="S1500" t="s">
+        <v>2988</v>
+      </c>
+      <c r="T1500" t="str">
         <f>VLOOKUP(C1500,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="1501" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DC6C9F-2FBD-4FA9-8982-48A8EA1F76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{904F8A2F-97C7-426F-A39B-8C8ECECDBD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18472" uniqueCount="2989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18489" uniqueCount="2990">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8997,13 +8997,16 @@
     <t>Carson Palmquist</t>
   </si>
   <si>
-    <t>sa123</t>
-  </si>
-  <si>
     <t>Chase Petty</t>
   </si>
   <si>
     <t>Noah Cameron</t>
+  </si>
+  <si>
+    <t>Mick Abel</t>
+  </si>
+  <si>
+    <t>SA123</t>
   </si>
 </sst>
 </file>
@@ -9391,9 +9394,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1476" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1477" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1501" sqref="Q1501"/>
+      <selection pane="bottomLeft" activeCell="Q1502" sqref="Q1502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88040,8 +88043,8 @@
       <c r="F1498" t="s">
         <v>33</v>
       </c>
-      <c r="H1498" t="s">
-        <v>2986</v>
+      <c r="H1498">
+        <v>31612</v>
       </c>
       <c r="I1498" t="s">
         <v>2985</v>
@@ -88077,7 +88080,7 @@
     </row>
     <row r="1499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1499" t="s">
         <v>20</v>
@@ -88099,25 +88102,31 @@
         <v>30170</v>
       </c>
       <c r="I1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
+      </c>
+      <c r="J1499" t="s">
+        <v>20</v>
       </c>
       <c r="K1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
+      </c>
+      <c r="L1499" t="s">
+        <v>20</v>
       </c>
       <c r="M1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="P1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="Q1499">
         <v>695534</v>
       </c>
       <c r="R1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="S1499" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="T1499" t="str">
         <f>VLOOKUP(C1499,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88126,7 +88135,7 @@
     </row>
     <row r="1500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1500" t="s">
         <v>20</v>
@@ -88148,25 +88157,31 @@
         <v>30184</v>
       </c>
       <c r="I1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
+      </c>
+      <c r="J1500" t="s">
+        <v>20</v>
       </c>
       <c r="K1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
+      </c>
+      <c r="L1500" t="s">
+        <v>20</v>
       </c>
       <c r="M1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="P1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="Q1500">
         <v>702070</v>
       </c>
       <c r="R1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="S1500" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="T1500" t="str">
         <f>VLOOKUP(C1500,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88174,13 +88189,58 @@
       </c>
     </row>
     <row r="1501" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1501" t="e">
+      <c r="A1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1501" t="str">
         <f>VLOOKUP(Players!C1501,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1501" t="e">
+        <v>Philadelphia Phillies</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>2989</v>
+      </c>
+      <c r="I1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="L1501" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="P1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q1501">
+        <v>690953</v>
+      </c>
+      <c r="R1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="S1501" t="s">
+        <v>2988</v>
+      </c>
+      <c r="T1501" t="str">
         <f>VLOOKUP(C1501,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Philadelphia</v>
       </c>
     </row>
     <row r="1502" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904F8A2F-97C7-426F-A39B-8C8ECECDBD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82231FAD-C0F6-4551-BA95-A8DA5960E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82231FAD-C0F6-4551-BA95-A8DA5960E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823B996B-3255-48C5-8CB6-4875CCE827D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -11202,11 +11202,11 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(Players!C35,Teams!A:B,2,FALSE)</f>
-        <v>Texas Rangers</v>
+        <v>Chicago White Sox</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="T35" t="str">
         <f>VLOOKUP(C35,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Texas</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -71998,11 +71998,11 @@
         <v>20</v>
       </c>
       <c r="C1194" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D1194" t="str">
         <f>VLOOKUP(Players!C1194,Teams!A:B,2,FALSE)</f>
-        <v>Toronto Blue Jays</v>
+        <v>New York Yankees</v>
       </c>
       <c r="E1194" t="s">
         <v>23</v>
@@ -72048,7 +72048,7 @@
       </c>
       <c r="T1194" t="str">
         <f>VLOOKUP(C1194,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1195" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{823B996B-3255-48C5-8CB6-4875CCE827D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41F90B2-C0AE-43BC-A012-CCFCCD0C13C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18489" uniqueCount="2990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18501" uniqueCount="2990">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9006,7 +9006,7 @@
     <t>Mick Abel</t>
   </si>
   <si>
-    <t>SA123</t>
+    <t>Mike Burrows</t>
   </si>
 </sst>
 </file>
@@ -9393,10 +9393,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1477" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1478" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1502" sqref="Q1502"/>
+      <selection pane="bottomLeft" activeCell="W1502" sqref="W1502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88208,8 +88208,8 @@
       <c r="F1501" t="s">
         <v>23</v>
       </c>
-      <c r="H1501" t="s">
-        <v>2989</v>
+      <c r="H1501">
+        <v>27756</v>
       </c>
       <c r="I1501" t="s">
         <v>2988</v>
@@ -88244,13 +88244,58 @@
       </c>
     </row>
     <row r="1502" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1502" t="e">
+      <c r="A1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1502" t="str">
         <f>VLOOKUP(Players!C1502,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1502" t="e">
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1502">
+        <v>24728</v>
+      </c>
+      <c r="I1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="J1502" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="L1502" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="P1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="Q1502">
+        <v>681347</v>
+      </c>
+      <c r="R1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="S1502" t="s">
+        <v>2989</v>
+      </c>
+      <c r="T1502" t="str">
         <f>VLOOKUP(C1502,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1503" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41F90B2-C0AE-43BC-A012-CCFCCD0C13C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D9F497-0B88-43E5-808E-878A99BC0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D9F497-0B88-43E5-808E-878A99BC0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8AEBB1-0CDF-4469-9C68-373394A9AC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8AEBB1-0CDF-4469-9C68-373394A9AC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7D34F44-267E-48D7-B2BA-DC2AB1FA7D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7D34F44-267E-48D7-B2BA-DC2AB1FA7D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD67766-7B44-403F-823E-88643A733A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD67766-7B44-403F-823E-88643A733A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D22F33E-7F3E-48F9-AE34-A28F15F2A962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54317,11 +54317,11 @@
         <v>20</v>
       </c>
       <c r="C859" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D859" t="str">
         <f>VLOOKUP(Players!C859,Teams!A:B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Cleveland Indians</v>
       </c>
       <c r="E859" t="s">
         <v>33</v>
@@ -54367,7 +54367,7 @@
       </c>
       <c r="T859" t="str">
         <f>VLOOKUP(C859,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Philadelphia</v>
+        <v>Cleveland</v>
       </c>
     </row>
     <row r="860" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D22F33E-7F3E-48F9-AE34-A28F15F2A962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBECBB4A-1000-4A1A-A05C-39F741E6BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBECBB4A-1000-4A1A-A05C-39F741E6BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33738248-8207-4990-BA16-8BF109EA4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33738248-8207-4990-BA16-8BF109EA4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41861A0-A7BE-4F9F-885B-9CF5A754A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18501" uniqueCount="2990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18540" uniqueCount="2994">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9007,6 +9007,18 @@
   </si>
   <si>
     <t>Mike Burrows</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
+    <t>S. Gipson-Long</t>
+  </si>
+  <si>
+    <t>Mike Vasil</t>
+  </si>
+  <si>
+    <t>Sawyer Gipson-Long</t>
   </si>
 </sst>
 </file>
@@ -9393,10 +9405,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1478" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1481" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="W1502" sqref="W1502"/>
+      <selection pane="bottomLeft" activeCell="A1505" sqref="A1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88299,36 +88311,171 @@
       </c>
     </row>
     <row r="1503" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1503" t="e">
+      <c r="A1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1503" t="str">
         <f>VLOOKUP(Players!C1503,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1503" t="e">
+        <v>San Diego Padres</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1503">
+        <v>29863</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L1503" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="P1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="Q1503">
+        <v>686701</v>
+      </c>
+      <c r="R1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="S1503" t="s">
+        <v>2990</v>
+      </c>
+      <c r="T1503" t="str">
         <f>VLOOKUP(C1503,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="1504" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1504" t="e">
+      <c r="A1504" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1504" t="str">
         <f>VLOOKUP(Players!C1504,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1504" t="e">
+        <v>Detroit Tigers</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1504">
+        <v>26048</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>2993</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1504" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L1504" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1504" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P1504" t="s">
+        <v>2993</v>
+      </c>
+      <c r="Q1504">
+        <v>687830</v>
+      </c>
+      <c r="R1504" t="s">
+        <v>2991</v>
+      </c>
+      <c r="S1504" t="s">
+        <v>2991</v>
+      </c>
+      <c r="T1504" t="str">
         <f>VLOOKUP(C1504,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1505" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1505" t="e">
+        <v>Detroit</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1505" t="str">
         <f>VLOOKUP(Players!C1505,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1505" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1505">
+        <v>30105</v>
+      </c>
+      <c r="I1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="L1505" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="P1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Q1505">
+        <v>678024</v>
+      </c>
+      <c r="R1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="S1505" t="s">
+        <v>2992</v>
+      </c>
+      <c r="T1505" t="str">
         <f>VLOOKUP(C1505,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1506" spans="4:20" x14ac:dyDescent="0.3">
+        <v>Chicago</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1506" t="e">
         <f>VLOOKUP(Players!C1506,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88338,7 +88485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1507" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1507" t="e">
         <f>VLOOKUP(Players!C1507,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88348,7 +88495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1508" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1508" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1508" t="e">
         <f>VLOOKUP(Players!C1508,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88358,7 +88505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1509" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1509" t="e">
         <f>VLOOKUP(Players!C1509,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88368,7 +88515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1510" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1510" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1510" t="e">
         <f>VLOOKUP(Players!C1510,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88378,7 +88525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1511" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1511" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1511" t="e">
         <f>VLOOKUP(Players!C1511,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88388,7 +88535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1512" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1512" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1512" t="e">
         <f>VLOOKUP(Players!C1512,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88398,7 +88545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1513" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1513" t="e">
         <f>VLOOKUP(Players!C1513,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88408,7 +88555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1514" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1514" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1514" t="e">
         <f>VLOOKUP(Players!C1514,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88418,7 +88565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1515" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1515" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1515" t="e">
         <f>VLOOKUP(Players!C1515,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88428,7 +88575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1516" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1516" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1516" t="e">
         <f>VLOOKUP(Players!C1516,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88438,7 +88585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1517" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1517" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1517" t="e">
         <f>VLOOKUP(Players!C1517,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88448,7 +88595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1518" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1518" t="e">
         <f>VLOOKUP(Players!C1518,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88458,7 +88605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1519" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1519" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1519" t="e">
         <f>VLOOKUP(Players!C1519,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -88468,7 +88615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1520" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1520" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1520" t="e">
         <f>VLOOKUP(Players!C1520,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41861A0-A7BE-4F9F-885B-9CF5A754A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4234A2F7-2A23-4BD4-99E2-D956087A0E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4234A2F7-2A23-4BD4-99E2-D956087A0E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{300085EE-ACE4-470A-BA77-E90B049E2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300085EE-ACE4-470A-BA77-E90B049E2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C11D2E-D560-47BB-B656-5ADCF09DE965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18540" uniqueCount="2994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18555" uniqueCount="2995">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9019,6 +9019,9 @@
   </si>
   <si>
     <t>Sawyer Gipson-Long</t>
+  </si>
+  <si>
+    <t>Caleb Boushley</t>
   </si>
 </sst>
 </file>
@@ -9406,9 +9409,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1481" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1482" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A1505" sqref="A1505"/>
+      <selection pane="bottomLeft" activeCell="Q1507" sqref="Q1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25185,6 +25188,15 @@
       <c r="N302">
         <v>1</v>
       </c>
+      <c r="P302" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q302">
+        <v>605280</v>
+      </c>
+      <c r="R302" t="s">
+        <v>642</v>
+      </c>
       <c r="S302" t="s">
         <v>642</v>
       </c>
@@ -88476,13 +88488,58 @@
       </c>
     </row>
     <row r="1506" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1506" t="e">
+      <c r="A1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1506" t="str">
         <f>VLOOKUP(Players!C1506,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1506" t="e">
+        <v>Texas Rangers</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1506">
+        <v>19736</v>
+      </c>
+      <c r="I1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L1506" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="P1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="Q1506">
+        <v>676961</v>
+      </c>
+      <c r="R1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="S1506" t="s">
+        <v>2994</v>
+      </c>
+      <c r="T1506" t="str">
         <f>VLOOKUP(C1506,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Texas</v>
       </c>
     </row>
     <row r="1507" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C11D2E-D560-47BB-B656-5ADCF09DE965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B454538C-0F68-4476-B459-BDE75FB754FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B454538C-0F68-4476-B459-BDE75FB754FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC1338FA-938A-4819-B5EA-1764E3F69E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18555" uniqueCount="2995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18568" uniqueCount="2998">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9022,6 +9022,15 @@
   </si>
   <si>
     <t>Caleb Boushley</t>
+  </si>
+  <si>
+    <t>J. Misiorowski</t>
+  </si>
+  <si>
+    <t>Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -9409,9 +9418,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1482" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1483" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1507" sqref="Q1507"/>
+      <selection pane="bottomLeft" activeCell="Q1508" sqref="Q1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83038,11 +83047,11 @@
         <v>20</v>
       </c>
       <c r="C1404" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="D1404" t="str">
         <f>VLOOKUP(Players!C1404,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Cincinnati Reds</v>
       </c>
       <c r="E1404" t="s">
         <v>33</v>
@@ -83088,7 +83097,7 @@
       </c>
       <c r="T1404" t="str">
         <f>VLOOKUP(C1404,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>Cincinnati</v>
       </c>
     </row>
     <row r="1405" spans="1:20" x14ac:dyDescent="0.3">
@@ -88543,13 +88552,55 @@
       </c>
     </row>
     <row r="1507" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1507" t="e">
+      <c r="A1507" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1507" t="str">
         <f>VLOOKUP(Players!C1507,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1507" t="e">
+        <v>Milwaukee Brewers</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>2997</v>
+      </c>
+      <c r="I1507" t="s">
+        <v>2996</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1507" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L1507" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1507" t="s">
+        <v>2996</v>
+      </c>
+      <c r="P1507" t="s">
+        <v>2996</v>
+      </c>
+      <c r="Q1507">
+        <v>694819</v>
+      </c>
+      <c r="R1507" t="s">
+        <v>2996</v>
+      </c>
+      <c r="T1507" t="str">
         <f>VLOOKUP(C1507,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1508" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC1338FA-938A-4819-B5EA-1764E3F69E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4BB32F-3974-4BFF-BCFC-5657384C1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18568" uniqueCount="2998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18581" uniqueCount="2998">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9030,7 +9030,7 @@
     <t>Jacob Misiorowski</t>
   </si>
   <si>
-    <t>sa123</t>
+    <t>Jason Alexander</t>
   </si>
 </sst>
 </file>
@@ -9418,9 +9418,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1483" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1508" sqref="Q1508"/>
+      <selection pane="bottomLeft" activeCell="F1509" sqref="F1509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88571,8 +88571,8 @@
       <c r="F1507" t="s">
         <v>23</v>
       </c>
-      <c r="H1507" t="s">
-        <v>2997</v>
+      <c r="H1507">
+        <v>31623</v>
       </c>
       <c r="I1507" t="s">
         <v>2996</v>
@@ -88596,6 +88596,9 @@
         <v>694819</v>
       </c>
       <c r="R1507" t="s">
+        <v>2996</v>
+      </c>
+      <c r="S1507" t="s">
         <v>2996</v>
       </c>
       <c r="T1507" t="str">
@@ -88604,13 +88607,58 @@
       </c>
     </row>
     <row r="1508" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1508" t="e">
+      <c r="A1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1508" t="str">
         <f>VLOOKUP(Players!C1508,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1508" t="e">
+        <v>Houston Astros</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1508">
+        <v>19666</v>
+      </c>
+      <c r="I1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L1508" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="P1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="Q1508">
+        <v>669920</v>
+      </c>
+      <c r="R1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="S1508" t="s">
+        <v>2997</v>
+      </c>
+      <c r="T1508" t="str">
         <f>VLOOKUP(C1508,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Houston</v>
       </c>
     </row>
     <row r="1509" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4BB32F-3974-4BFF-BCFC-5657384C1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3E02EE-1BF9-4E1E-ABE4-AE2C24197FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10648,11 +10648,11 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(Players!C24,Teams!A:B,2,FALSE)</f>
-        <v>San Diego Padres</v>
+        <v>Miami Marlins</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="T24" t="str">
         <f>VLOOKUP(C24,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>San Diego</v>
+        <v>Miami</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3E02EE-1BF9-4E1E-ABE4-AE2C24197FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{780FDC19-38F0-438A-925B-73751773B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18581" uniqueCount="2998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18620" uniqueCount="3001">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9031,6 +9031,15 @@
   </si>
   <si>
     <t>Jason Alexander</t>
+  </si>
+  <si>
+    <t>Jacob Latz</t>
+  </si>
+  <si>
+    <t>Didier Fuentes</t>
+  </si>
+  <si>
+    <t>Braxton Ashcraft</t>
   </si>
 </sst>
 </file>
@@ -9418,9 +9427,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1487" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F1509" sqref="F1509"/>
+      <selection pane="bottomLeft" activeCell="Q1512" sqref="Q1512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76117,11 +76126,11 @@
         <v>20</v>
       </c>
       <c r="C1272" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D1272" t="str">
         <f>VLOOKUP(Players!C1272,Teams!A:B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Toronto Blue Jays</v>
       </c>
       <c r="E1272" t="s">
         <v>23</v>
@@ -76167,7 +76176,7 @@
       </c>
       <c r="T1272" t="str">
         <f>VLOOKUP(C1272,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Philadelphia</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="1273" spans="1:20" x14ac:dyDescent="0.3">
@@ -80912,11 +80921,11 @@
         <v>20</v>
       </c>
       <c r="C1363" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D1363" t="str">
         <f>VLOOKUP(Players!C1363,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Chicago White Sox</v>
       </c>
       <c r="E1363" t="s">
         <v>23</v>
@@ -80962,7 +80971,7 @@
       </c>
       <c r="T1363" t="str">
         <f>VLOOKUP(C1363,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1364" spans="1:20" x14ac:dyDescent="0.3">
@@ -88662,33 +88671,168 @@
       </c>
     </row>
     <row r="1509" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1509" t="e">
+      <c r="A1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1509" t="str">
         <f>VLOOKUP(Players!C1509,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1509" t="e">
+        <v>Texas Rangers</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1509">
+        <v>21306</v>
+      </c>
+      <c r="I1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L1509" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="P1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="Q1509">
+        <v>656641</v>
+      </c>
+      <c r="R1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="S1509" t="s">
+        <v>2998</v>
+      </c>
+      <c r="T1509" t="str">
         <f>VLOOKUP(C1509,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Texas</v>
       </c>
     </row>
     <row r="1510" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1510" t="e">
+      <c r="A1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1510" t="str">
         <f>VLOOKUP(Players!C1510,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1510" t="e">
+        <v>Atlanta Braves</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1510">
+        <v>30661</v>
+      </c>
+      <c r="I1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J1510" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L1510" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="P1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="Q1510">
+        <v>800311</v>
+      </c>
+      <c r="R1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="S1510" t="s">
+        <v>2999</v>
+      </c>
+      <c r="T1510" t="str">
         <f>VLOOKUP(C1510,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="1511" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1511" t="e">
+      <c r="A1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1511" t="str">
         <f>VLOOKUP(Players!C1511,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1511" t="e">
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1511">
+        <v>23793</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="J1511" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="L1511" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="P1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="Q1511">
+        <v>677952</v>
+      </c>
+      <c r="R1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="S1511" t="s">
+        <v>3000</v>
+      </c>
+      <c r="T1511" t="str">
         <f>VLOOKUP(C1511,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1512" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{780FDC19-38F0-438A-925B-73751773B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0ECCDEC-1BD9-4415-822D-9D1599D53525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18620" uniqueCount="3001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18646" uniqueCount="3003">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9040,6 +9040,12 @@
   </si>
   <si>
     <t>Braxton Ashcraft</t>
+  </si>
+  <si>
+    <t>Travis Adams</t>
+  </si>
+  <si>
+    <t>Justin Hagenman</t>
   </si>
 </sst>
 </file>
@@ -9427,9 +9433,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1487" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1489" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1512" sqref="Q1512"/>
+      <selection pane="bottomLeft" activeCell="P1500" sqref="P1500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35698,11 +35704,11 @@
         <v>20</v>
       </c>
       <c r="C504" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D504" t="str">
         <f>VLOOKUP(Players!C504,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>New York Mets</v>
       </c>
       <c r="E504" t="s">
         <v>23</v>
@@ -35748,7 +35754,7 @@
       </c>
       <c r="T504" t="str">
         <f>VLOOKUP(C504,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="505" spans="1:20" x14ac:dyDescent="0.3">
@@ -88836,23 +88842,113 @@
       </c>
     </row>
     <row r="1512" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1512" t="e">
+      <c r="A1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1512" t="str">
         <f>VLOOKUP(Players!C1512,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1512" t="e">
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1512">
+        <v>30180</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="J1512" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L1512" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="Q1512">
+        <v>701519</v>
+      </c>
+      <c r="R1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="S1512" t="s">
+        <v>3001</v>
+      </c>
+      <c r="T1512" t="str">
         <f>VLOOKUP(C1512,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1513" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1513" t="e">
+      <c r="A1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1513" t="str">
         <f>VLOOKUP(Players!C1513,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1513" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1513">
+        <v>21546</v>
+      </c>
+      <c r="I1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="J1513" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="L1513" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="P1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="Q1513">
+        <v>663795</v>
+      </c>
+      <c r="R1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="S1513" t="s">
+        <v>3002</v>
+      </c>
+      <c r="T1513" t="str">
         <f>VLOOKUP(C1513,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1514" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0ECCDEC-1BD9-4415-822D-9D1599D53525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B20BE7-8CAE-4E03-9A6C-5C5E2C9B9775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -9935,11 +9935,11 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(Players!C10,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Chicago White Sox</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="T10" t="str">
         <f>VLOOKUP(C10,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -30207,11 +30207,11 @@
         <v>20</v>
       </c>
       <c r="C398" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="D398" t="str">
         <f>VLOOKUP(Players!C398,Teams!A:B,2,FALSE)</f>
-        <v>Los Angeles Angels</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="E398" t="s">
         <v>23</v>
@@ -30251,7 +30251,7 @@
       </c>
       <c r="T398" t="str">
         <f>VLOOKUP(C398,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Los Angeles</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B20BE7-8CAE-4E03-9A6C-5C5E2C9B9775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F2524F-C8CD-4E73-8BCC-808CB1DF3BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18646" uniqueCount="3003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18659" uniqueCount="3004">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9046,6 +9046,9 @@
   </si>
   <si>
     <t>Justin Hagenman</t>
+  </si>
+  <si>
+    <t>Ryan Zeferjahn</t>
   </si>
 </sst>
 </file>
@@ -9433,9 +9436,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1489" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1491" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="P1500" sqref="P1500"/>
+      <selection pane="bottomLeft" activeCell="A1514" sqref="A1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46832,11 +46835,11 @@
         <v>20</v>
       </c>
       <c r="C715" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D715" t="str">
         <f>VLOOKUP(Players!C715,Teams!A:B,2,FALSE)</f>
-        <v>Pittsburgh Pirates</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="E715" t="s">
         <v>33</v>
@@ -46876,7 +46879,7 @@
       </c>
       <c r="T715" t="str">
         <f>VLOOKUP(C715,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Pittsburgh</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="716" spans="1:20" x14ac:dyDescent="0.3">
@@ -51340,11 +51343,11 @@
         <v>20</v>
       </c>
       <c r="C801" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D801" t="str">
         <f>VLOOKUP(Players!C801,Teams!A:B,2,FALSE)</f>
-        <v>Pittsburgh Pirates</v>
+        <v>New York Yankees</v>
       </c>
       <c r="E801" t="s">
         <v>23</v>
@@ -51381,7 +51384,7 @@
       </c>
       <c r="T801" t="str">
         <f>VLOOKUP(C801,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Pittsburgh</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="802" spans="1:20" x14ac:dyDescent="0.3">
@@ -88952,13 +88955,58 @@
       </c>
     </row>
     <row r="1514" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1514" t="e">
+      <c r="A1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1514" t="str">
         <f>VLOOKUP(Players!C1514,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1514" t="e">
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1514">
+        <v>25420</v>
+      </c>
+      <c r="I1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="J1514" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="L1514" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="P1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="Q1514">
+        <v>666171</v>
+      </c>
+      <c r="R1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="S1514" t="s">
+        <v>3003</v>
+      </c>
+      <c r="T1514" t="str">
         <f>VLOOKUP(C1514,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1515" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F2524F-C8CD-4E73-8BCC-808CB1DF3BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6FE192-6AE6-40F7-8D2C-B77CBA4A79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6FE192-6AE6-40F7-8D2C-B77CBA4A79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3871B0E7-3F44-4D3D-9143-3A65153CCEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18659" uniqueCount="3004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18687" uniqueCount="3006">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9049,6 +9049,12 @@
   </si>
   <si>
     <t>Ryan Zeferjahn</t>
+  </si>
+  <si>
+    <t>Chase Burns</t>
+  </si>
+  <si>
+    <t>Cam Schlittler</t>
   </si>
 </sst>
 </file>
@@ -9435,10 +9441,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1491" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A1514" sqref="A1514"/>
+      <selection pane="bottomLeft" activeCell="Q434" sqref="Q434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32081,6 +32087,15 @@
       <c r="O433" t="s">
         <v>895</v>
       </c>
+      <c r="P433" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q433">
+        <v>656876</v>
+      </c>
+      <c r="R433" t="s">
+        <v>894</v>
+      </c>
       <c r="S433" t="s">
         <v>894</v>
       </c>
@@ -69021,11 +69036,11 @@
         <v>20</v>
       </c>
       <c r="C1136" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="D1136" t="str">
         <f>VLOOKUP(Players!C1136,Teams!A:B,2,FALSE)</f>
-        <v>Pittsburgh Pirates</v>
+        <v>Kansas City Royals</v>
       </c>
       <c r="E1136" t="s">
         <v>33</v>
@@ -69071,7 +69086,7 @@
       </c>
       <c r="T1136" t="str">
         <f>VLOOKUP(C1136,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Pittsburgh</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="1137" spans="1:20" x14ac:dyDescent="0.3">
@@ -89010,23 +89025,113 @@
       </c>
     </row>
     <row r="1515" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1515" t="e">
+      <c r="A1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1515" t="str">
         <f>VLOOKUP(Players!C1515,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1515" t="e">
+        <v>Cincinnati Reds</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1515">
+        <v>35333</v>
+      </c>
+      <c r="I1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="J1515" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="L1515" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="P1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="Q1515">
+        <v>695505</v>
+      </c>
+      <c r="R1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="S1515" t="s">
+        <v>3004</v>
+      </c>
+      <c r="T1515" t="str">
         <f>VLOOKUP(C1515,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Cincinnati</v>
       </c>
     </row>
     <row r="1516" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1516" t="e">
+      <c r="A1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1516" t="str">
         <f>VLOOKUP(Players!C1516,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1516" t="e">
+        <v>New York Yankees</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1516">
+        <v>32095</v>
+      </c>
+      <c r="I1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="J1516" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L1516" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="P1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="Q1516">
+        <v>693645</v>
+      </c>
+      <c r="R1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="S1516" t="s">
+        <v>3005</v>
+      </c>
+      <c r="T1516" t="str">
         <f>VLOOKUP(C1516,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1517" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3871B0E7-3F44-4D3D-9143-3A65153CCEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0567F29-3137-47B5-9F5B-C4B6E1C0D1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18687" uniqueCount="3006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18700" uniqueCount="3007">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9055,6 +9055,9 @@
   </si>
   <si>
     <t>Cam Schlittler</t>
+  </si>
+  <si>
+    <t>Carson Seymour</t>
   </si>
 </sst>
 </file>
@@ -9441,10 +9444,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1493" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q434" sqref="Q434"/>
+      <selection pane="bottomLeft" activeCell="Q1517" sqref="Q1517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89135,13 +89138,58 @@
       </c>
     </row>
     <row r="1517" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1517" t="e">
+      <c r="A1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1517" t="str">
         <f>VLOOKUP(Players!C1517,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1517" t="e">
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1517">
+        <v>30084</v>
+      </c>
+      <c r="I1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J1517" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="L1517" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="P1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="Q1517">
+        <v>693313</v>
+      </c>
+      <c r="R1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="S1517" t="s">
+        <v>3006</v>
+      </c>
+      <c r="T1517" t="str">
         <f>VLOOKUP(C1517,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="1518" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0567F29-3137-47B5-9F5B-C4B6E1C0D1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A03BC5-D7B4-4D9C-BA7E-521EAA97B812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18700" uniqueCount="3007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18713" uniqueCount="3008">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9058,6 +9058,9 @@
   </si>
   <si>
     <t>Carson Seymour</t>
+  </si>
+  <si>
+    <t>Troy Melton</t>
   </si>
 </sst>
 </file>
@@ -9445,9 +9448,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1493" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1494" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1517" sqref="Q1517"/>
+      <selection pane="bottomLeft" activeCell="H1519" sqref="H1519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89193,13 +89196,58 @@
       </c>
     </row>
     <row r="1518" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1518" t="e">
+      <c r="A1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1518" t="str">
         <f>VLOOKUP(Players!C1518,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1518" t="e">
+        <v>Detroit Tigers</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1518">
+        <v>31807</v>
+      </c>
+      <c r="I1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="J1518" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="L1518" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="P1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="Q1518">
+        <v>675512</v>
+      </c>
+      <c r="R1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="S1518" t="s">
+        <v>3007</v>
+      </c>
+      <c r="T1518" t="str">
         <f>VLOOKUP(C1518,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Detroit</v>
       </c>
     </row>
     <row r="1519" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A03BC5-D7B4-4D9C-BA7E-521EAA97B812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8837FDAE-5FDA-4BA5-B6D6-0F6103E83174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18713" uniqueCount="3008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18726" uniqueCount="3010">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9061,6 +9061,12 @@
   </si>
   <si>
     <t>Troy Melton</t>
+  </si>
+  <si>
+    <t>Pierson Ohl</t>
+  </si>
+  <si>
+    <t>SA123</t>
   </si>
 </sst>
 </file>
@@ -9447,10 +9453,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1494" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1507" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H1519" sqref="H1519"/>
+      <selection pane="bottomLeft" activeCell="H1520" sqref="H1520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34348,11 +34354,11 @@
         <v>20</v>
       </c>
       <c r="C477" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="D477" t="str">
         <f>VLOOKUP(Players!C477,Teams!A:B,2,FALSE)</f>
-        <v>St. Louis Cardinals</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="E477" t="s">
         <v>23</v>
@@ -34398,7 +34404,7 @@
       </c>
       <c r="T477" t="str">
         <f>VLOOKUP(C477,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>St. Louis</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.3">
@@ -89251,13 +89257,55 @@
       </c>
     </row>
     <row r="1519" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1519" t="e">
+      <c r="A1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1519" t="str">
         <f>VLOOKUP(Players!C1519,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1519" t="e">
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>3009</v>
+      </c>
+      <c r="I1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J1519" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L1519" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="P1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="Q1519">
+        <v>701487</v>
+      </c>
+      <c r="R1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="T1519" t="str">
         <f>VLOOKUP(C1519,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1520" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8837FDAE-5FDA-4BA5-B6D6-0F6103E83174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF3564A-419A-45FD-A1B1-700FD172C280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18726" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18728" uniqueCount="3010">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9454,9 +9454,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1507" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H1520" sqref="H1520"/>
+      <selection pane="bottomLeft" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11262,11 +11262,11 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(Players!C35,Teams!A:B,2,FALSE)</f>
-        <v>Chicago White Sox</v>
+        <v>Tampa Bay Rays</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="T35" t="str">
         <f>VLOOKUP(C35,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Chicago</v>
+        <v>Tampa Bay</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -15906,11 +15906,11 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(Players!C125,Teams!A:B,2,FALSE)</f>
-        <v>Pittsburgh Pirates</v>
+        <v>Kansas City Royals</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="T125" t="str">
         <f>VLOOKUP(C125,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Pittsburgh</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
@@ -21932,11 +21932,11 @@
         <v>20</v>
       </c>
       <c r="C241" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D241" t="str">
         <f>VLOOKUP(Players!C241,Teams!A:B,2,FALSE)</f>
-        <v>New York Yankees</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="E241" t="s">
         <v>23</v>
@@ -21982,7 +21982,7 @@
       </c>
       <c r="T241" t="str">
         <f>VLOOKUP(C241,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>New York</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
@@ -23470,11 +23470,11 @@
         <v>20</v>
       </c>
       <c r="C270" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D270" t="str">
         <f>VLOOKUP(Players!C270,Teams!A:B,2,FALSE)</f>
-        <v>Baltimore Orioles</v>
+        <v>Detroit Tigers</v>
       </c>
       <c r="E270" t="s">
         <v>23</v>
@@ -23520,7 +23520,7 @@
       </c>
       <c r="T270" t="str">
         <f>VLOOKUP(C270,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Baltimore</v>
+        <v>Detroit</v>
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
@@ -34234,6 +34234,15 @@
       <c r="N474">
         <v>1</v>
       </c>
+      <c r="P474" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q474">
+        <v>641778</v>
+      </c>
+      <c r="R474" t="s">
+        <v>975</v>
+      </c>
       <c r="S474" t="s">
         <v>975</v>
       </c>
@@ -50061,11 +50070,11 @@
         <v>20</v>
       </c>
       <c r="C776" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D776" t="str">
         <f>VLOOKUP(Players!C776,Teams!A:B,2,FALSE)</f>
-        <v>Toronto Blue Jays</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="E776" t="s">
         <v>23</v>
@@ -50111,7 +50120,7 @@
       </c>
       <c r="T776" t="str">
         <f>VLOOKUP(C776,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Toronto</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="777" spans="1:20" x14ac:dyDescent="0.3">
@@ -51315,11 +51324,11 @@
         <v>20</v>
       </c>
       <c r="C800" t="s">
-        <v>1133</v>
+        <v>114</v>
       </c>
       <c r="D800" t="str">
         <f>VLOOKUP(Players!C800,Teams!A:B,2,FALSE)</f>
-        <v>ATH</v>
+        <v>San Diego Padres</v>
       </c>
       <c r="E800" t="s">
         <v>33</v>
@@ -51359,7 +51368,7 @@
       </c>
       <c r="T800" t="str">
         <f>VLOOKUP(C800,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>ATH</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="801" spans="1:20" x14ac:dyDescent="0.3">
@@ -61744,11 +61753,11 @@
         <v>20</v>
       </c>
       <c r="C996" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D996" t="str">
         <f>VLOOKUP(Players!C996,Teams!A:B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>Chicago Cubs</v>
       </c>
       <c r="E996" t="s">
         <v>23</v>
@@ -61788,7 +61797,7 @@
       </c>
       <c r="T996" t="str">
         <f>VLOOKUP(C996,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Washington</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="997" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF3564A-419A-45FD-A1B1-700FD172C280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8662D86-50FE-4A87-BF07-0DB6102A8268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8662D86-50FE-4A87-BF07-0DB6102A8268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE99C74-FB22-41DB-852D-7F8E3BC614C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18728" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18744" uniqueCount="3010">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9066,7 +9066,7 @@
     <t>Pierson Ohl</t>
   </si>
   <si>
-    <t>SA123</t>
+    <t>Kai-Wei Teng</t>
   </si>
 </sst>
 </file>
@@ -9453,10 +9453,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1017" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomLeft" activeCell="Q1031" sqref="Q1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24659,11 +24659,11 @@
         <v>20</v>
       </c>
       <c r="C292" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D292" t="str">
         <f>VLOOKUP(Players!C292,Teams!A:B,2,FALSE)</f>
-        <v>Minnesota Twins</v>
+        <v>Detroit Tigers</v>
       </c>
       <c r="E292" t="s">
         <v>23</v>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="T292" t="str">
         <f>VLOOKUP(C292,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Minnesota</v>
+        <v>Detroit</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
@@ -60992,11 +60992,11 @@
         <v>20</v>
       </c>
       <c r="C982" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="D982" t="str">
         <f>VLOOKUP(Players!C982,Teams!A:B,2,FALSE)</f>
-        <v>Arizona Diamondbacks</v>
+        <v>Texas Rangers</v>
       </c>
       <c r="E982" t="s">
         <v>23</v>
@@ -61042,7 +61042,7 @@
       </c>
       <c r="T982" t="str">
         <f>VLOOKUP(C982,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Arizona</v>
+        <v>Texas</v>
       </c>
     </row>
     <row r="983" spans="1:20" x14ac:dyDescent="0.3">
@@ -63545,17 +63545,23 @@
         <v>20</v>
       </c>
       <c r="C1030" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="D1030" t="str">
         <f>VLOOKUP(Players!C1030,Teams!A:B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Arizona Diamondbacks</v>
       </c>
       <c r="E1030" t="s">
         <v>23</v>
       </c>
       <c r="F1030" t="s">
         <v>23</v>
+      </c>
+      <c r="H1030">
+        <v>17732</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>2031</v>
       </c>
       <c r="J1030" t="s">
         <v>20</v>
@@ -63575,12 +63581,21 @@
       <c r="O1030" t="s">
         <v>2032</v>
       </c>
+      <c r="P1030" t="s">
+        <v>2031</v>
+      </c>
+      <c r="Q1030">
+        <v>622503</v>
+      </c>
+      <c r="R1030" t="s">
+        <v>2031</v>
+      </c>
       <c r="S1030" t="s">
         <v>2031</v>
       </c>
       <c r="T1030" t="str">
         <f>VLOOKUP(C1030,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Philadelphia</v>
+        <v>Arizona</v>
       </c>
     </row>
     <row r="1031" spans="1:20" x14ac:dyDescent="0.3">
@@ -78223,11 +78238,11 @@
         <v>20</v>
       </c>
       <c r="C1311" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D1311" t="str">
         <f>VLOOKUP(Players!C1311,Teams!A:B,2,FALSE)</f>
-        <v>Toronto Blue Jays</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="E1311" t="s">
         <v>23</v>
@@ -78264,7 +78279,7 @@
       </c>
       <c r="T1311" t="str">
         <f>VLOOKUP(C1311,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Toronto</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1312" spans="1:20" x14ac:dyDescent="0.3">
@@ -88393,11 +88408,11 @@
         <v>20</v>
       </c>
       <c r="C1503" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D1503" t="str">
         <f>VLOOKUP(Players!C1503,Teams!A:B,2,FALSE)</f>
-        <v>San Diego Padres</v>
+        <v>Kansas City Royals</v>
       </c>
       <c r="E1503" t="s">
         <v>23</v>
@@ -88437,7 +88452,7 @@
       </c>
       <c r="T1503" t="str">
         <f>VLOOKUP(C1503,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>San Diego</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="1504" spans="1:20" x14ac:dyDescent="0.3">
@@ -89285,8 +89300,8 @@
       <c r="F1519" t="s">
         <v>23</v>
       </c>
-      <c r="H1519" t="s">
-        <v>3009</v>
+      <c r="H1519">
+        <v>30179</v>
       </c>
       <c r="I1519" t="s">
         <v>3008</v>
@@ -89310,6 +89325,9 @@
         <v>701487</v>
       </c>
       <c r="R1519" t="s">
+        <v>3008</v>
+      </c>
+      <c r="S1519" t="s">
         <v>3008</v>
       </c>
       <c r="T1519" t="str">
@@ -89318,13 +89336,58 @@
       </c>
     </row>
     <row r="1520" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1520" t="e">
+      <c r="A1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1520" t="str">
         <f>VLOOKUP(Players!C1520,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1520" t="e">
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1520">
+        <v>24282</v>
+      </c>
+      <c r="I1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="J1520" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="L1520" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="P1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="Q1520">
+        <v>678906</v>
+      </c>
+      <c r="R1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="S1520" t="s">
+        <v>3009</v>
+      </c>
+      <c r="T1520" t="str">
         <f>VLOOKUP(C1520,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="1521" spans="4:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE99C74-FB22-41DB-852D-7F8E3BC614C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DC1508-3FFB-4CBC-8583-705186D33F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18744" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18766" uniqueCount="3012">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9067,6 +9067,12 @@
   </si>
   <si>
     <t>Kai-Wei Teng</t>
+  </si>
+  <si>
+    <t>Parker Messick</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -9453,10 +9459,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1017" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1497" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1031" sqref="Q1031"/>
+      <selection pane="bottomLeft" activeCell="T1519" sqref="T1519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14789,6 +14795,15 @@
       <c r="N103">
         <v>1</v>
       </c>
+      <c r="P103" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q103">
+        <v>622608</v>
+      </c>
+      <c r="R103" t="s">
+        <v>276</v>
+      </c>
       <c r="S103" t="s">
         <v>276</v>
       </c>
@@ -18560,6 +18575,15 @@
       <c r="N175">
         <v>1</v>
       </c>
+      <c r="P175" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q175">
+        <v>605540</v>
+      </c>
+      <c r="R175" t="s">
+        <v>411</v>
+      </c>
       <c r="S175" t="s">
         <v>411</v>
       </c>
@@ -33977,6 +34001,9 @@
       <c r="P469" t="s">
         <v>966</v>
       </c>
+      <c r="Q469">
+        <v>686218</v>
+      </c>
       <c r="R469" t="s">
         <v>966</v>
       </c>
@@ -42864,6 +42891,15 @@
       <c r="M638" t="s">
         <v>1283</v>
       </c>
+      <c r="P638" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q638">
+        <v>676083</v>
+      </c>
+      <c r="R638" t="s">
+        <v>1283</v>
+      </c>
       <c r="S638" t="s">
         <v>1283</v>
       </c>
@@ -75505,11 +75541,11 @@
         <v>20</v>
       </c>
       <c r="C1260" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="D1260" t="str">
         <f>VLOOKUP(Players!C1260,Teams!A:B,2,FALSE)</f>
-        <v>Los Angeles Angels</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="E1260" t="s">
         <v>33</v>
@@ -78274,6 +78310,15 @@
       <c r="N1311">
         <v>1</v>
       </c>
+      <c r="P1311" t="s">
+        <v>2557</v>
+      </c>
+      <c r="Q1311">
+        <v>641672</v>
+      </c>
+      <c r="R1311" t="s">
+        <v>2557</v>
+      </c>
       <c r="S1311" t="s">
         <v>2557</v>
       </c>
@@ -89390,17 +89435,62 @@
         <v>San Francisco</v>
       </c>
     </row>
-    <row r="1521" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1521" t="e">
+    <row r="1521" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1521" t="str">
         <f>VLOOKUP(Players!C1521,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1521" t="e">
+        <v>Cleveland Indians</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="J1521" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="L1521" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="P1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="Q1521">
+        <v>800048</v>
+      </c>
+      <c r="R1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="S1521" t="s">
+        <v>3010</v>
+      </c>
+      <c r="T1521" t="str">
         <f>VLOOKUP(C1521,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1522" spans="4:20" x14ac:dyDescent="0.3">
+        <v>Cleveland</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1522" t="e">
         <f>VLOOKUP(Players!C1522,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89410,7 +89500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1523" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1523" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1523" t="e">
         <f>VLOOKUP(Players!C1523,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89420,7 +89510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1524" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1524" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1524" t="e">
         <f>VLOOKUP(Players!C1524,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89430,7 +89520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1525" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1525" t="e">
         <f>VLOOKUP(Players!C1525,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89440,7 +89530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1526" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1526" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1526" t="e">
         <f>VLOOKUP(Players!C1526,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89450,7 +89540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1527" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1527" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1527" t="e">
         <f>VLOOKUP(Players!C1527,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89460,7 +89550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1528" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1528" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1528" t="e">
         <f>VLOOKUP(Players!C1528,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89470,7 +89560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1529" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1529" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1529" t="e">
         <f>VLOOKUP(Players!C1529,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89480,7 +89570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1530" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1530" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1530" t="e">
         <f>VLOOKUP(Players!C1530,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89490,7 +89580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1531" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1531" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1531" t="e">
         <f>VLOOKUP(Players!C1531,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89500,7 +89590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1532" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1532" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1532" t="e">
         <f>VLOOKUP(Players!C1532,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89510,7 +89600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1533" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1533" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1533" t="e">
         <f>VLOOKUP(Players!C1533,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89520,7 +89610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1534" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1534" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1534" t="e">
         <f>VLOOKUP(Players!C1534,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89530,7 +89620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1535" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1535" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1535" t="e">
         <f>VLOOKUP(Players!C1535,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -89540,7 +89630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1536" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1536" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1536" t="e">
         <f>VLOOKUP(Players!C1536,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DC1508-3FFB-4CBC-8583-705186D33F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB44C753-4621-4ED3-B46C-28DE1B272D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18766" uniqueCount="3012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18778" uniqueCount="3012">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9072,7 +9072,7 @@
     <t>Parker Messick</t>
   </si>
   <si>
-    <t>sa123</t>
+    <t>Jack Perkins</t>
   </si>
 </sst>
 </file>
@@ -9459,10 +9459,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1497" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1498" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="T1519" sqref="T1519"/>
+      <selection pane="bottomLeft" activeCell="Q1523" sqref="Q1523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89455,8 +89455,8 @@
       <c r="F1521" t="s">
         <v>33</v>
       </c>
-      <c r="H1521" t="s">
-        <v>3011</v>
+      <c r="H1521">
+        <v>31986</v>
       </c>
       <c r="I1521" t="s">
         <v>3010</v>
@@ -89491,13 +89491,58 @@
       </c>
     </row>
     <row r="1522" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1522" t="e">
+      <c r="A1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1522" t="str">
         <f>VLOOKUP(Players!C1522,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1522" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1522">
+        <v>31468</v>
+      </c>
+      <c r="I1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="J1522" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="L1522" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="P1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Q1522">
+        <v>678022</v>
+      </c>
+      <c r="R1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="S1522" t="s">
+        <v>3011</v>
+      </c>
+      <c r="T1522" t="str">
         <f>VLOOKUP(C1522,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ATH</v>
       </c>
     </row>
     <row r="1523" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29220"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB44C753-4621-4ED3-B46C-28DE1B272D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8194CEC-C128-487D-8D92-86B8FC01D48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18778" uniqueCount="3012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18820" uniqueCount="3016">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9073,6 +9073,18 @@
   </si>
   <si>
     <t>Jack Perkins</t>
+  </si>
+  <si>
+    <t>Victor Mederos</t>
+  </si>
+  <si>
+    <t>McCade Brown</t>
+  </si>
+  <si>
+    <t>sa123</t>
+  </si>
+  <si>
+    <t>Yoendrys Gomez</t>
   </si>
 </sst>
 </file>
@@ -9459,10 +9471,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1498" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1523" sqref="Q1523"/>
+      <selection pane="bottomLeft" activeCell="P442" sqref="P442:R442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21295,11 +21307,11 @@
         <v>20</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D228" t="str">
         <f>VLOOKUP(Players!C228,Teams!A:B,2,FALSE)</f>
-        <v>Miami Marlins</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="E228" t="s">
         <v>33</v>
@@ -21345,7 +21357,7 @@
       </c>
       <c r="T228" t="str">
         <f>VLOOKUP(C228,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Miami</v>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
@@ -32561,11 +32573,11 @@
         <v>20</v>
       </c>
       <c r="C442" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="D442" t="str">
         <f>VLOOKUP(Players!C442,Teams!A:B,2,FALSE)</f>
-        <v>Los Angeles Dodgers</v>
+        <v>Boston Red Sox</v>
       </c>
       <c r="E442" t="s">
         <v>23</v>
@@ -32597,12 +32609,21 @@
       <c r="N442">
         <v>1</v>
       </c>
+      <c r="P442" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q442">
+        <v>669160</v>
+      </c>
+      <c r="R442" t="s">
+        <v>912</v>
+      </c>
       <c r="S442" t="s">
         <v>912</v>
       </c>
       <c r="T442" t="str">
         <f>VLOOKUP(C442,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Los Angeles</v>
+        <v>Boston</v>
       </c>
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.3">
@@ -64009,11 +64030,11 @@
         <v>20</v>
       </c>
       <c r="C1038" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D1038" t="str">
         <f>VLOOKUP(Players!C1038,Teams!A:B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>San Diego Padres</v>
       </c>
       <c r="E1038" t="s">
         <v>33</v>
@@ -64053,7 +64074,7 @@
       </c>
       <c r="T1038" t="str">
         <f>VLOOKUP(C1038,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Milwaukee</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="1039" spans="1:20" x14ac:dyDescent="0.3">
@@ -77161,11 +77182,11 @@
         <v>20</v>
       </c>
       <c r="C1290" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1290" t="str">
         <f>VLOOKUP(Players!C1290,Teams!A:B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="E1290" t="s">
         <v>23</v>
@@ -77205,7 +77226,7 @@
       </c>
       <c r="T1290" t="str">
         <f>VLOOKUP(C1290,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Tampa Bay</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1291" spans="1:20" x14ac:dyDescent="0.3">
@@ -88343,11 +88364,11 @@
         <v>20</v>
       </c>
       <c r="C1501" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D1501" t="str">
         <f>VLOOKUP(Players!C1501,Teams!A:B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="E1501" t="s">
         <v>23</v>
@@ -88387,7 +88408,7 @@
       </c>
       <c r="T1501" t="str">
         <f>VLOOKUP(C1501,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Philadelphia</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1502" spans="1:20" x14ac:dyDescent="0.3">
@@ -89546,33 +89567,168 @@
       </c>
     </row>
     <row r="1523" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1523" t="e">
+      <c r="A1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1523" t="str">
         <f>VLOOKUP(Players!C1523,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1523" t="e">
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1523">
+        <v>31533</v>
+      </c>
+      <c r="I1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L1523" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="P1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Q1523">
+        <v>682929</v>
+      </c>
+      <c r="R1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="S1523" t="s">
+        <v>3012</v>
+      </c>
+      <c r="T1523" t="str">
         <f>VLOOKUP(C1523,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1524" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1524" t="e">
+      <c r="A1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1524" t="str">
         <f>VLOOKUP(Players!C1524,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1524" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>3014</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="J1524" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L1524" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="P1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="Q1524">
+        <v>685326</v>
+      </c>
+      <c r="R1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="S1524" t="s">
+        <v>3013</v>
+      </c>
+      <c r="T1524" t="str">
         <f>VLOOKUP(C1524,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1525" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1525" t="e">
+      <c r="A1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1525" t="str">
         <f>VLOOKUP(Players!C1525,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1525" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1525">
+        <v>22872</v>
+      </c>
+      <c r="I1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J1525" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L1525" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="P1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Q1525">
+        <v>672782</v>
+      </c>
+      <c r="R1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="S1525" t="s">
+        <v>3015</v>
+      </c>
+      <c r="T1525" t="str">
         <f>VLOOKUP(C1525,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1526" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8194CEC-C128-487D-8D92-86B8FC01D48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72614AE3-BCAF-4C6F-88C8-3650943BD7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18820" uniqueCount="3016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18832" uniqueCount="3016">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9081,10 +9081,10 @@
     <t>McCade Brown</t>
   </si>
   <si>
-    <t>sa123</t>
-  </si>
-  <si>
     <t>Yoendrys Gomez</t>
+  </si>
+  <si>
+    <t>Ian Seymour</t>
   </si>
 </sst>
 </file>
@@ -9472,9 +9472,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1502" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="P442" sqref="P442:R442"/>
+      <selection pane="bottomLeft" activeCell="H1525" sqref="H1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89641,8 +89641,8 @@
       <c r="F1524" t="s">
         <v>23</v>
       </c>
-      <c r="H1524" t="s">
-        <v>3014</v>
+      <c r="H1524">
+        <v>30004</v>
       </c>
       <c r="I1524" t="s">
         <v>3013</v>
@@ -89678,7 +89678,7 @@
     </row>
     <row r="1525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B1525" t="s">
         <v>20</v>
@@ -89700,31 +89700,31 @@
         <v>22872</v>
       </c>
       <c r="I1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="J1525" t="s">
         <v>20</v>
       </c>
       <c r="K1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="L1525" t="s">
         <v>20</v>
       </c>
       <c r="M1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="P1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="Q1525">
         <v>672782</v>
       </c>
       <c r="R1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="S1525" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="T1525" t="str">
         <f>VLOOKUP(C1525,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89732,13 +89732,58 @@
       </c>
     </row>
     <row r="1526" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1526" t="e">
+      <c r="A1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1526" t="str">
         <f>VLOOKUP(Players!C1526,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1526" t="e">
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1526">
+        <v>27932</v>
+      </c>
+      <c r="I1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J1526" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L1526" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="P1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Q1526">
+        <v>693855</v>
+      </c>
+      <c r="R1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="S1526" t="s">
+        <v>3015</v>
+      </c>
+      <c r="T1526" t="str">
         <f>VLOOKUP(C1526,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Tampa Bay</v>
       </c>
     </row>
     <row r="1527" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72614AE3-BCAF-4C6F-88C8-3650943BD7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9DE035-EF46-4044-B508-F234E738BC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9DE035-EF46-4044-B508-F234E738BC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B716B2A-1583-4274-9E2C-9868A3D56C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18832" uniqueCount="3016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18873" uniqueCount="3018">
   <si>
     <t>mlb_name</t>
   </si>
@@ -8697,9 +8697,6 @@
     <t>Carson Whisenhunt</t>
   </si>
   <si>
-    <t>sa3020529</t>
-  </si>
-  <si>
     <t>C. Whisenhunt</t>
   </si>
   <si>
@@ -9085,6 +9082,15 @@
   </si>
   <si>
     <t>Ian Seymour</t>
+  </si>
+  <si>
+    <t>Nolan McLean</t>
+  </si>
+  <si>
+    <t>Bubba Chandler</t>
+  </si>
+  <si>
+    <t>Luis Morales</t>
   </si>
 </sst>
 </file>
@@ -9471,10 +9477,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1502" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H1525" sqref="H1525"/>
+      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9544,7 +9550,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -17692,7 +17698,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -17714,31 +17720,31 @@
         <v>26419</v>
       </c>
       <c r="I159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="J159" t="s">
         <v>20</v>
       </c>
       <c r="K159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="L159" t="s">
         <v>20</v>
       </c>
       <c r="M159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="P159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="Q159">
         <v>687134</v>
       </c>
       <c r="R159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="S159" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="T159" t="str">
         <f>VLOOKUP(C159,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -17747,7 +17753,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -17769,31 +17775,31 @@
         <v>25582</v>
       </c>
       <c r="I160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="J160" t="s">
         <v>20</v>
       </c>
       <c r="K160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="L160" t="s">
         <v>20</v>
       </c>
       <c r="M160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="P160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="Q160">
         <v>669620</v>
       </c>
       <c r="R160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="S160" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="T160" t="str">
         <f>VLOOKUP(C160,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -18658,7 +18664,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
@@ -18680,31 +18686,31 @@
         <v>30133</v>
       </c>
       <c r="I177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="J177" t="s">
         <v>20</v>
       </c>
       <c r="K177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="L177" t="s">
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="P177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="Q177">
         <v>676428</v>
       </c>
       <c r="R177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="S177" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="T177" t="str">
         <f>VLOOKUP(C177,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -21163,6 +21169,12 @@
       <c r="F225" t="s">
         <v>23</v>
       </c>
+      <c r="H225">
+        <v>27473</v>
+      </c>
+      <c r="I225" t="s">
+        <v>504</v>
+      </c>
       <c r="J225" t="s">
         <v>20</v>
       </c>
@@ -21180,6 +21192,15 @@
       </c>
       <c r="O225" t="s">
         <v>505</v>
+      </c>
+      <c r="P225" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q225">
+        <v>676917</v>
+      </c>
+      <c r="R225" t="s">
+        <v>504</v>
       </c>
       <c r="S225" t="s">
         <v>504</v>
@@ -21246,7 +21267,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -21268,31 +21289,31 @@
         <v>31508</v>
       </c>
       <c r="I227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="J227" t="s">
         <v>20</v>
       </c>
       <c r="K227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="L227" t="s">
         <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="P227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="Q227">
         <v>702674</v>
       </c>
       <c r="R227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="S227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="T227" t="str">
         <f>VLOOKUP(C227,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -22726,8 +22747,8 @@
       <c r="F255" t="s">
         <v>33</v>
       </c>
-      <c r="H255" t="s">
-        <v>2886</v>
+      <c r="H255">
+        <v>31676</v>
       </c>
       <c r="I255" t="s">
         <v>2885</v>
@@ -22736,7 +22757,7 @@
         <v>20</v>
       </c>
       <c r="K255" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="L255" t="s">
         <v>20</v>
@@ -22763,7 +22784,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
@@ -22785,31 +22806,31 @@
         <v>9174</v>
       </c>
       <c r="I256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="J256" t="s">
         <v>20</v>
       </c>
       <c r="K256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="L256" t="s">
         <v>20</v>
       </c>
       <c r="M256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="P256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="Q256">
         <v>543391</v>
       </c>
       <c r="R256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="S256" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="T256" t="str">
         <f>VLOOKUP(C256,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -23885,7 +23906,7 @@
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B277" t="s">
         <v>20</v>
@@ -23907,31 +23928,31 @@
         <v>29866</v>
       </c>
       <c r="I277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="J277" t="s">
         <v>20</v>
       </c>
       <c r="K277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="L277" t="s">
         <v>20</v>
       </c>
       <c r="M277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="P277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="Q277">
         <v>694646</v>
       </c>
       <c r="R277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="S277" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="T277" t="str">
         <f>VLOOKUP(C277,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -26686,7 +26707,7 @@
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B330" t="s">
         <v>20</v>
@@ -26708,28 +26729,28 @@
         <v>26171</v>
       </c>
       <c r="I330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="J330" t="s">
         <v>20</v>
       </c>
       <c r="K330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="L330" t="s">
         <v>20</v>
       </c>
       <c r="M330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="P330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="R330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="S330" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="T330" t="str">
         <f>VLOOKUP(C330,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -27438,7 +27459,7 @@
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B344" t="s">
         <v>20</v>
@@ -27460,31 +27481,31 @@
         <v>27974</v>
       </c>
       <c r="I344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="J344" t="s">
         <v>20</v>
       </c>
       <c r="K344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="L344" t="s">
         <v>20</v>
       </c>
       <c r="M344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="P344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="Q344">
         <v>691441</v>
       </c>
       <c r="R344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="S344" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="T344" t="str">
         <f>VLOOKUP(C344,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -29778,7 +29799,7 @@
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B389" t="s">
         <v>20</v>
@@ -29800,31 +29821,31 @@
         <v>30056</v>
       </c>
       <c r="I389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="J389" t="s">
         <v>20</v>
       </c>
       <c r="K389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="L389" t="s">
         <v>20</v>
       </c>
       <c r="M389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="P389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="Q389">
         <v>701581</v>
       </c>
       <c r="R389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="S389" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="T389" t="str">
         <f>VLOOKUP(C389,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -30258,7 +30279,7 @@
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B398" t="s">
         <v>20</v>
@@ -30280,31 +30301,31 @@
         <v>27582</v>
       </c>
       <c r="I398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="J398" t="s">
         <v>20</v>
       </c>
       <c r="K398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="L398" t="s">
         <v>20</v>
       </c>
       <c r="M398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="P398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="Q398">
         <v>669721</v>
       </c>
       <c r="R398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="S398" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="T398" t="str">
         <f>VLOOKUP(C398,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -30313,7 +30334,7 @@
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B399" t="s">
         <v>20</v>
@@ -30335,31 +30356,31 @@
         <v>21448</v>
       </c>
       <c r="I399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="J399" t="s">
         <v>20</v>
       </c>
       <c r="K399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="L399" t="s">
         <v>20</v>
       </c>
       <c r="M399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="P399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="Q399">
         <v>663436</v>
       </c>
       <c r="R399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="S399" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="T399" t="str">
         <f>VLOOKUP(C399,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -34518,7 +34539,7 @@
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B479" t="s">
         <v>20</v>
@@ -34540,31 +34561,31 @@
         <v>26252</v>
       </c>
       <c r="I479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="J479" t="s">
         <v>20</v>
       </c>
       <c r="K479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="L479" t="s">
         <v>20</v>
       </c>
       <c r="M479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="P479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="Q479">
         <v>669062</v>
       </c>
       <c r="R479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="S479" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="T479" t="str">
         <f>VLOOKUP(C479,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -37298,7 +37319,7 @@
     </row>
     <row r="532" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B532" t="s">
         <v>20</v>
@@ -37320,31 +37341,31 @@
         <v>29519</v>
       </c>
       <c r="I532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="J532" t="s">
         <v>20</v>
       </c>
       <c r="K532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="L532" t="s">
         <v>20</v>
       </c>
       <c r="M532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="P532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="Q532">
         <v>700669</v>
       </c>
       <c r="R532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="S532" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="T532" t="str">
         <f>VLOOKUP(C532,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -37986,7 +38007,7 @@
     </row>
     <row r="545" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B545" t="s">
         <v>20</v>
@@ -38008,31 +38029,31 @@
         <v>31635</v>
       </c>
       <c r="I545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="J545" t="s">
         <v>20</v>
       </c>
       <c r="K545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="L545" t="s">
         <v>20</v>
       </c>
       <c r="M545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="P545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="Q545">
         <v>806185</v>
       </c>
       <c r="R545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="S545" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="T545" t="str">
         <f>VLOOKUP(C545,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -40290,7 +40311,7 @@
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B590" t="s">
         <v>20</v>
@@ -40312,31 +40333,31 @@
         <v>27889</v>
       </c>
       <c r="I590" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J590" t="s">
+        <v>20</v>
+      </c>
+      <c r="K590" t="s">
+        <v>2916</v>
+      </c>
+      <c r="L590" t="s">
+        <v>20</v>
+      </c>
+      <c r="M590" t="s">
+        <v>2916</v>
+      </c>
+      <c r="P590" t="s">
         <v>2918</v>
-      </c>
-      <c r="J590" t="s">
-        <v>20</v>
-      </c>
-      <c r="K590" t="s">
-        <v>2917</v>
-      </c>
-      <c r="L590" t="s">
-        <v>20</v>
-      </c>
-      <c r="M590" t="s">
-        <v>2917</v>
-      </c>
-      <c r="P590" t="s">
-        <v>2919</v>
       </c>
       <c r="Q590">
         <v>669372</v>
       </c>
       <c r="R590" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="S590" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="T590" t="str">
         <f>VLOOKUP(C590,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -40458,7 +40479,7 @@
     </row>
     <row r="593" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B593" t="s">
         <v>20</v>
@@ -40480,31 +40501,31 @@
         <v>27688</v>
       </c>
       <c r="I593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="J593" t="s">
         <v>20</v>
       </c>
       <c r="K593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="L593" t="s">
         <v>20</v>
       </c>
       <c r="M593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="P593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="Q593">
         <v>686799</v>
       </c>
       <c r="R593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="S593" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="T593" t="str">
         <f>VLOOKUP(C593,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -41274,7 +41295,7 @@
     </row>
     <row r="608" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B608" t="s">
         <v>20</v>
@@ -41296,31 +41317,31 @@
         <v>26907</v>
       </c>
       <c r="I608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="J608" t="s">
         <v>20</v>
       </c>
       <c r="K608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="L608" t="s">
         <v>20</v>
       </c>
       <c r="M608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="P608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="Q608">
         <v>683568</v>
       </c>
       <c r="R608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="S608" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="T608" t="str">
         <f>VLOOKUP(C608,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -51730,7 +51751,7 @@
     </row>
     <row r="807" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B807" t="s">
         <v>20</v>
@@ -51752,31 +51773,31 @@
         <v>30031</v>
       </c>
       <c r="I807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="J807" t="s">
         <v>20</v>
       </c>
       <c r="K807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L807" t="s">
         <v>20</v>
       </c>
       <c r="M807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="P807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="Q807">
         <v>687924</v>
       </c>
       <c r="R807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="S807" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="T807" t="str">
         <f>VLOOKUP(C807,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -52739,7 +52760,7 @@
     </row>
     <row r="826" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B826" t="s">
         <v>20</v>
@@ -52761,31 +52782,31 @@
         <v>31204</v>
       </c>
       <c r="I826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="J826" t="s">
         <v>20</v>
       </c>
       <c r="K826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="L826" t="s">
         <v>20</v>
       </c>
       <c r="M826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="P826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="Q826">
         <v>680736</v>
       </c>
       <c r="R826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="S826" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="T826" t="str">
         <f>VLOOKUP(C826,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -53421,7 +53442,7 @@
     </row>
     <row r="839" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B839" t="s">
         <v>20</v>
@@ -53443,31 +53464,31 @@
         <v>20009</v>
       </c>
       <c r="I839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="J839" t="s">
         <v>20</v>
       </c>
       <c r="K839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="L839" t="s">
         <v>20</v>
       </c>
       <c r="M839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="P839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="Q839">
         <v>670046</v>
       </c>
       <c r="R839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="S839" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="T839" t="str">
         <f>VLOOKUP(C839,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -54629,7 +54650,7 @@
     </row>
     <row r="862" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B862" t="s">
         <v>20</v>
@@ -54651,31 +54672,31 @@
         <v>31843</v>
       </c>
       <c r="I862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="J862" t="s">
         <v>20</v>
       </c>
       <c r="K862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="L862" t="s">
         <v>20</v>
       </c>
       <c r="M862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="P862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="Q862">
         <v>677958</v>
       </c>
       <c r="R862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="S862" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="T862" t="str">
         <f>VLOOKUP(C862,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -54791,7 +54812,7 @@
     </row>
     <row r="865" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B865" t="s">
         <v>20</v>
@@ -54813,31 +54834,31 @@
         <v>29823</v>
       </c>
       <c r="I865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="J865" t="s">
         <v>20</v>
       </c>
       <c r="K865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="L865" t="s">
         <v>20</v>
       </c>
       <c r="M865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="P865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="Q865">
         <v>681066</v>
       </c>
       <c r="R865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="S865" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="T865" t="str">
         <f>VLOOKUP(C865,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -56191,7 +56212,7 @@
     </row>
     <row r="891" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B891" t="s">
         <v>20</v>
@@ -56213,31 +56234,31 @@
         <v>30076</v>
       </c>
       <c r="I891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="J891" t="s">
         <v>20</v>
       </c>
       <c r="K891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="L891" t="s">
         <v>20</v>
       </c>
       <c r="M891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="P891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="Q891">
         <v>689017</v>
       </c>
       <c r="R891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="S891" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="T891" t="str">
         <f>VLOOKUP(C891,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -58178,7 +58199,7 @@
     </row>
     <row r="928" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B928" t="s">
         <v>20</v>
@@ -58200,31 +58221,31 @@
         <v>24581</v>
       </c>
       <c r="I928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="J928" t="s">
         <v>20</v>
       </c>
       <c r="K928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="L928" t="s">
         <v>20</v>
       </c>
       <c r="M928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="P928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="Q928">
         <v>680689</v>
       </c>
       <c r="R928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="S928" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="T928" t="str">
         <f>VLOOKUP(C928,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -61596,7 +61617,7 @@
     </row>
     <row r="992" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B992" t="s">
         <v>20</v>
@@ -61618,31 +61639,31 @@
         <v>29869</v>
       </c>
       <c r="I992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="J992" t="s">
         <v>20</v>
       </c>
       <c r="K992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="L992" t="s">
         <v>20</v>
       </c>
       <c r="M992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="P992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="Q992">
         <v>700241</v>
       </c>
       <c r="R992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="S992" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="T992" t="str">
         <f>VLOOKUP(C992,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -61651,7 +61672,7 @@
     </row>
     <row r="993" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B993" t="s">
         <v>20</v>
@@ -61673,31 +61694,31 @@
         <v>23223</v>
       </c>
       <c r="I993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="J993" t="s">
         <v>20</v>
       </c>
       <c r="K993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="L993" t="s">
         <v>20</v>
       </c>
       <c r="M993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="P993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="Q993">
         <v>675650</v>
       </c>
       <c r="R993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="S993" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="T993" t="str">
         <f>VLOOKUP(C993,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -66040,7 +66061,7 @@
     </row>
     <row r="1077" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1077" t="s">
         <v>20</v>
@@ -66062,31 +66083,31 @@
         <v>8246</v>
       </c>
       <c r="I1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="J1077" t="s">
         <v>20</v>
       </c>
       <c r="K1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="L1077" t="s">
         <v>20</v>
       </c>
       <c r="M1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="P1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="Q1077">
         <v>502179</v>
       </c>
       <c r="R1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="S1077" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="T1077" t="str">
         <f>VLOOKUP(C1077,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -68912,7 +68933,7 @@
     </row>
     <row r="1132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B1132" t="s">
         <v>20</v>
@@ -68934,31 +68955,31 @@
         <v>33876</v>
       </c>
       <c r="I1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="J1132" t="s">
         <v>20</v>
       </c>
       <c r="K1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="L1132" t="s">
         <v>20</v>
       </c>
       <c r="M1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="P1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="Q1132">
         <v>695076</v>
       </c>
       <c r="R1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="S1132" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="T1132" t="str">
         <f>VLOOKUP(C1132,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -69236,7 +69257,7 @@
     </row>
     <row r="1138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1138" t="s">
         <v>20</v>
@@ -69258,31 +69279,31 @@
         <v>30160</v>
       </c>
       <c r="I1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="J1138" t="s">
         <v>20</v>
       </c>
       <c r="K1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="L1138" t="s">
         <v>20</v>
       </c>
       <c r="M1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="P1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="Q1138">
         <v>690916</v>
       </c>
       <c r="R1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="S1138" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="T1138" t="str">
         <f>VLOOKUP(C1138,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -69643,7 +69664,7 @@
     </row>
     <row r="1146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B1146" t="s">
         <v>20</v>
@@ -69665,31 +69686,31 @@
         <v>29514</v>
       </c>
       <c r="I1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="J1146" t="s">
         <v>20</v>
       </c>
       <c r="K1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="L1146" t="s">
         <v>20</v>
       </c>
       <c r="M1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="P1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="Q1146">
         <v>689981</v>
       </c>
       <c r="R1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="S1146" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="T1146" t="str">
         <f>VLOOKUP(C1146,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -73213,7 +73234,7 @@
     </row>
     <row r="1215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1215" t="s">
         <v>20</v>
@@ -73235,31 +73256,31 @@
         <v>26443</v>
       </c>
       <c r="I1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="J1215" t="s">
         <v>20</v>
       </c>
       <c r="K1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="L1215" t="s">
         <v>20</v>
       </c>
       <c r="M1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="P1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="Q1215">
         <v>691951</v>
       </c>
       <c r="R1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="S1215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="T1215" t="str">
         <f>VLOOKUP(C1215,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -73963,7 +73984,7 @@
     </row>
     <row r="1230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B1230" t="s">
         <v>20</v>
@@ -73985,31 +74006,31 @@
         <v>29878</v>
       </c>
       <c r="I1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="J1230" t="s">
         <v>20</v>
       </c>
       <c r="K1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="L1230" t="s">
         <v>20</v>
       </c>
       <c r="M1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="P1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="Q1230">
         <v>680732</v>
       </c>
       <c r="R1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="S1230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="T1230" t="str">
         <f>VLOOKUP(C1230,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -74122,7 +74143,7 @@
     </row>
     <row r="1233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B1233" t="s">
         <v>20</v>
@@ -74144,31 +74165,31 @@
         <v>21481</v>
       </c>
       <c r="I1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="J1233" t="s">
         <v>20</v>
       </c>
       <c r="K1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="L1233" t="s">
         <v>20</v>
       </c>
       <c r="M1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="P1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="Q1233">
         <v>663546</v>
       </c>
       <c r="R1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="S1233" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="T1233" t="str">
         <f>VLOOKUP(C1233,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -74731,7 +74752,7 @@
     </row>
     <row r="1245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1245" t="s">
         <v>20</v>
@@ -74753,31 +74774,31 @@
         <v>26020</v>
       </c>
       <c r="I1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="J1245" t="s">
         <v>20</v>
       </c>
       <c r="K1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="L1245" t="s">
         <v>20</v>
       </c>
       <c r="M1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="P1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="Q1245">
         <v>686751</v>
       </c>
       <c r="R1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="S1245" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="T1245" t="str">
         <f>VLOOKUP(C1245,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -77338,7 +77359,7 @@
     </row>
     <row r="1293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B1293" t="s">
         <v>20</v>
@@ -77360,31 +77381,31 @@
         <v>27669</v>
       </c>
       <c r="I1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="J1293" t="s">
         <v>20</v>
       </c>
       <c r="K1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="L1293" t="s">
         <v>20</v>
       </c>
       <c r="M1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="P1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="Q1293">
         <v>685299</v>
       </c>
       <c r="R1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="S1293" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="T1293" t="str">
         <f>VLOOKUP(C1293,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -80940,7 +80961,7 @@
     </row>
     <row r="1361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1361" t="s">
         <v>20</v>
@@ -80962,31 +80983,31 @@
         <v>30140</v>
       </c>
       <c r="I1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="J1361" t="s">
         <v>20</v>
       </c>
       <c r="K1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="L1361" t="s">
         <v>20</v>
       </c>
       <c r="M1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="P1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="Q1361">
         <v>680744</v>
       </c>
       <c r="R1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="S1361" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="T1361" t="str">
         <f>VLOOKUP(C1361,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -82671,7 +82692,7 @@
     </row>
     <row r="1394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B1394" t="s">
         <v>20</v>
@@ -82693,31 +82714,31 @@
         <v>23899</v>
       </c>
       <c r="I1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="J1394" t="s">
         <v>20</v>
       </c>
       <c r="K1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="L1394" t="s">
         <v>20</v>
       </c>
       <c r="M1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="P1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="Q1394">
         <v>678368</v>
       </c>
       <c r="R1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="S1394" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="T1394" t="str">
         <f>VLOOKUP(C1394,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -84198,7 +84219,7 @@
     </row>
     <row r="1424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B1424" t="s">
         <v>20</v>
@@ -84220,31 +84241,31 @@
         <v>30182</v>
       </c>
       <c r="I1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="J1424" t="s">
         <v>20</v>
       </c>
       <c r="K1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="L1424" t="s">
         <v>20</v>
       </c>
       <c r="M1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="P1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="Q1424">
         <v>701542</v>
       </c>
       <c r="R1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="S1424" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="T1424" t="str">
         <f>VLOOKUP(C1424,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -84975,7 +84996,7 @@
     </row>
     <row r="1439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B1439" t="s">
         <v>20</v>
@@ -84997,31 +85018,31 @@
         <v>29271</v>
       </c>
       <c r="I1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="J1439" t="s">
         <v>20</v>
       </c>
       <c r="K1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="L1439" t="s">
         <v>20</v>
       </c>
       <c r="M1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="P1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="Q1439">
         <v>700270</v>
       </c>
       <c r="R1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="S1439" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="T1439" t="str">
         <f>VLOOKUP(C1439,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -86876,7 +86897,7 @@
     </row>
     <row r="1474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B1474" t="s">
         <v>20</v>
@@ -86898,31 +86919,31 @@
         <v>31827</v>
       </c>
       <c r="I1474" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="J1474" t="s">
         <v>20</v>
       </c>
       <c r="K1474" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1474" t="s">
         <v>20</v>
       </c>
       <c r="M1474" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="P1474" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="Q1474">
         <v>805673</v>
       </c>
       <c r="R1474" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="S1474" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="T1474" t="str">
         <f>VLOOKUP(C1474,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -86931,7 +86952,7 @@
     </row>
     <row r="1475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B1475" t="s">
         <v>20</v>
@@ -86953,31 +86974,31 @@
         <v>35323</v>
       </c>
       <c r="I1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="J1475" t="s">
         <v>20</v>
       </c>
       <c r="K1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="L1475" t="s">
         <v>20</v>
       </c>
       <c r="M1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="P1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="Q1475">
         <v>808963</v>
       </c>
       <c r="R1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="S1475" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="T1475" t="str">
         <f>VLOOKUP(C1475,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -86986,7 +87007,7 @@
     </row>
     <row r="1476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B1476" t="s">
         <v>20</v>
@@ -87008,31 +87029,31 @@
         <v>35321</v>
       </c>
       <c r="I1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="J1476" t="s">
         <v>20</v>
       </c>
       <c r="K1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="L1476" t="s">
         <v>20</v>
       </c>
       <c r="M1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="P1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="Q1476">
         <v>608372</v>
       </c>
       <c r="R1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="S1476" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="T1476" t="str">
         <f>VLOOKUP(C1476,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87041,7 +87062,7 @@
     </row>
     <row r="1477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B1477" t="s">
         <v>20</v>
@@ -87063,31 +87084,31 @@
         <v>31989</v>
       </c>
       <c r="I1477" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1477" t="s">
+        <v>2961</v>
+      </c>
+      <c r="L1477" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1477" t="s">
+        <v>2961</v>
+      </c>
+      <c r="P1477" t="s">
         <v>2966</v>
-      </c>
-      <c r="J1477" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1477" t="s">
-        <v>2962</v>
-      </c>
-      <c r="L1477" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1477" t="s">
-        <v>2962</v>
-      </c>
-      <c r="P1477" t="s">
-        <v>2967</v>
       </c>
       <c r="Q1477">
         <v>802419</v>
       </c>
       <c r="R1477" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="S1477" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="T1477" t="str">
         <f>VLOOKUP(C1477,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87096,7 +87117,7 @@
     </row>
     <row r="1478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B1478" t="s">
         <v>20</v>
@@ -87118,31 +87139,31 @@
         <v>31687</v>
       </c>
       <c r="I1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="J1478" t="s">
         <v>20</v>
       </c>
       <c r="K1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="L1478" t="s">
         <v>20</v>
       </c>
       <c r="M1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="P1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="Q1478">
         <v>681343</v>
       </c>
       <c r="R1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="S1478" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="T1478" t="str">
         <f>VLOOKUP(C1478,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87151,7 +87172,7 @@
     </row>
     <row r="1479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B1479" t="s">
         <v>20</v>
@@ -87173,31 +87194,31 @@
         <v>30113</v>
       </c>
       <c r="I1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="J1479" t="s">
         <v>20</v>
       </c>
       <c r="K1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="L1479" t="s">
         <v>20</v>
       </c>
       <c r="M1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="P1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="Q1479">
         <v>694477</v>
       </c>
       <c r="R1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="S1479" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="T1479" t="str">
         <f>VLOOKUP(C1479,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87206,7 +87227,7 @@
     </row>
     <row r="1480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B1480" t="s">
         <v>20</v>
@@ -87228,31 +87249,31 @@
         <v>26058</v>
       </c>
       <c r="I1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="J1480" t="s">
         <v>20</v>
       </c>
       <c r="K1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="L1480" t="s">
         <v>20</v>
       </c>
       <c r="M1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="P1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="Q1480">
         <v>687922</v>
       </c>
       <c r="R1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="S1480" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="T1480" t="str">
         <f>VLOOKUP(C1480,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87261,7 +87282,7 @@
     </row>
     <row r="1481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B1481" t="s">
         <v>20</v>
@@ -87283,31 +87304,31 @@
         <v>30203</v>
       </c>
       <c r="I1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="J1481" t="s">
         <v>20</v>
       </c>
       <c r="K1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="L1481" t="s">
         <v>20</v>
       </c>
       <c r="M1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="P1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="Q1481">
         <v>695549</v>
       </c>
       <c r="R1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="S1481" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="T1481" t="str">
         <f>VLOOKUP(C1481,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87316,7 +87337,7 @@
     </row>
     <row r="1482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B1482" t="s">
         <v>20</v>
@@ -87338,31 +87359,31 @@
         <v>33482</v>
       </c>
       <c r="I1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="J1482" t="s">
         <v>20</v>
       </c>
       <c r="K1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="L1482" t="s">
         <v>20</v>
       </c>
       <c r="M1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="P1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="Q1482">
         <v>801403</v>
       </c>
       <c r="R1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="S1482" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="T1482" t="str">
         <f>VLOOKUP(C1482,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87371,7 +87392,7 @@
     </row>
     <row r="1483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B1483" t="s">
         <v>20</v>
@@ -87393,31 +87414,31 @@
         <v>30240</v>
       </c>
       <c r="I1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="J1483" t="s">
         <v>20</v>
       </c>
       <c r="K1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="L1483" t="s">
         <v>20</v>
       </c>
       <c r="M1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="P1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="Q1483">
         <v>690928</v>
       </c>
       <c r="R1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="S1483" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="T1483" t="str">
         <f>VLOOKUP(C1483,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87426,17 +87447,17 @@
     </row>
     <row r="1484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B1484" t="s">
         <v>20</v>
       </c>
       <c r="C1484" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="D1484" t="str">
         <f>VLOOKUP(Players!C1484,Teams!A:B,2,FALSE)</f>
-        <v>Houston Astros</v>
+        <v>Miami Marlins</v>
       </c>
       <c r="E1484" t="s">
         <v>23</v>
@@ -87448,40 +87469,40 @@
         <v>26440</v>
       </c>
       <c r="I1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="J1484" t="s">
         <v>20</v>
       </c>
       <c r="K1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="L1484" t="s">
         <v>20</v>
       </c>
       <c r="M1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="P1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="Q1484">
         <v>687473</v>
       </c>
       <c r="R1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="S1484" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="T1484" t="str">
         <f>VLOOKUP(C1484,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Houston</v>
+        <v>Miami</v>
       </c>
     </row>
     <row r="1485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B1485" t="s">
         <v>20</v>
@@ -87503,31 +87524,31 @@
         <v>25474</v>
       </c>
       <c r="I1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="J1485" t="s">
         <v>20</v>
       </c>
       <c r="K1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="L1485" t="s">
         <v>20</v>
       </c>
       <c r="M1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="P1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="Q1485">
         <v>686249</v>
       </c>
       <c r="R1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="S1485" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="T1485" t="str">
         <f>VLOOKUP(C1485,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87536,7 +87557,7 @@
     </row>
     <row r="1486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B1486" t="s">
         <v>20</v>
@@ -87555,31 +87576,31 @@
         <v>27819</v>
       </c>
       <c r="I1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="J1486" t="s">
         <v>20</v>
       </c>
       <c r="K1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="L1486" t="s">
         <v>20</v>
       </c>
       <c r="M1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="P1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="Q1486">
         <v>687064</v>
       </c>
       <c r="R1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="S1486" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="T1486" t="str">
         <f>VLOOKUP(C1486,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87588,7 +87609,7 @@
     </row>
     <row r="1487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1487" t="s">
         <v>20</v>
@@ -87610,31 +87631,31 @@
         <v>25098</v>
       </c>
       <c r="I1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="J1487" t="s">
         <v>20</v>
       </c>
       <c r="K1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="L1487" t="s">
         <v>20</v>
       </c>
       <c r="M1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="P1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="Q1487">
         <v>682052</v>
       </c>
       <c r="R1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="S1487" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="T1487" t="str">
         <f>VLOOKUP(C1487,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87643,7 +87664,7 @@
     </row>
     <row r="1488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1488" t="s">
         <v>20</v>
@@ -87665,31 +87686,31 @@
         <v>31972</v>
       </c>
       <c r="I1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="J1488" t="s">
         <v>20</v>
       </c>
       <c r="K1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="L1488" t="s">
         <v>20</v>
       </c>
       <c r="M1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="P1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="Q1488">
         <v>695418</v>
       </c>
       <c r="R1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="S1488" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="T1488" t="str">
         <f>VLOOKUP(C1488,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87698,7 +87719,7 @@
     </row>
     <row r="1489" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1489" t="s">
         <v>20</v>
@@ -87720,31 +87741,31 @@
         <v>31318</v>
       </c>
       <c r="I1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="J1489" t="s">
         <v>20</v>
       </c>
       <c r="K1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="L1489" t="s">
         <v>20</v>
       </c>
       <c r="M1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="P1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="Q1489">
         <v>680684</v>
       </c>
       <c r="R1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="S1489" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="T1489" t="str">
         <f>VLOOKUP(C1489,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87753,7 +87774,7 @@
     </row>
     <row r="1490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1490" t="s">
         <v>20</v>
@@ -87775,31 +87796,31 @@
         <v>31701</v>
       </c>
       <c r="I1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="J1490" t="s">
         <v>20</v>
       </c>
       <c r="K1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="L1490" t="s">
         <v>20</v>
       </c>
       <c r="M1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="P1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="Q1490">
         <v>694918</v>
       </c>
       <c r="R1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="S1490" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="T1490" t="str">
         <f>VLOOKUP(C1490,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87808,7 +87829,7 @@
     </row>
     <row r="1491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1491" t="s">
         <v>20</v>
@@ -87830,31 +87851,31 @@
         <v>21487</v>
       </c>
       <c r="I1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="J1491" t="s">
         <v>20</v>
       </c>
       <c r="K1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="L1491" t="s">
         <v>20</v>
       </c>
       <c r="M1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="P1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="Q1491">
         <v>663568</v>
       </c>
       <c r="R1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="S1491" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="T1491" t="str">
         <f>VLOOKUP(C1491,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87863,7 +87884,7 @@
     </row>
     <row r="1492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B1492" t="s">
         <v>20</v>
@@ -87885,31 +87906,31 @@
         <v>33699</v>
       </c>
       <c r="I1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="J1492" t="s">
         <v>20</v>
       </c>
       <c r="K1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="L1492" t="s">
         <v>20</v>
       </c>
       <c r="M1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="P1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="Q1492">
         <v>688138</v>
       </c>
       <c r="R1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="S1492" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="T1492" t="str">
         <f>VLOOKUP(C1492,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87918,7 +87939,7 @@
     </row>
     <row r="1493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1493" t="s">
         <v>20</v>
@@ -87940,31 +87961,31 @@
         <v>30085</v>
       </c>
       <c r="I1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="J1493" t="s">
         <v>20</v>
       </c>
       <c r="K1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="L1493" t="s">
         <v>20</v>
       </c>
       <c r="M1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="P1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="Q1493">
         <v>676508</v>
       </c>
       <c r="R1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="S1493" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="T1493" t="str">
         <f>VLOOKUP(C1493,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -87973,7 +87994,7 @@
     </row>
     <row r="1494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1494" t="s">
         <v>20</v>
@@ -87995,31 +88016,31 @@
         <v>31475</v>
       </c>
       <c r="I1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="J1494" t="s">
         <v>20</v>
       </c>
       <c r="K1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="L1494" t="s">
         <v>20</v>
       </c>
       <c r="M1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="P1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="Q1494">
         <v>701656</v>
       </c>
       <c r="R1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="S1494" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="T1494" t="str">
         <f>VLOOKUP(C1494,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88028,7 +88049,7 @@
     </row>
     <row r="1495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1495" t="s">
         <v>20</v>
@@ -88050,31 +88071,31 @@
         <v>31312</v>
       </c>
       <c r="I1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="J1495" t="s">
         <v>20</v>
       </c>
       <c r="K1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="L1495" t="s">
         <v>20</v>
       </c>
       <c r="M1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="P1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="Q1495">
         <v>676467</v>
       </c>
       <c r="R1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="S1495" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="T1495" t="str">
         <f>VLOOKUP(C1495,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88083,7 +88104,7 @@
     </row>
     <row r="1496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1496" t="s">
         <v>20</v>
@@ -88105,31 +88126,31 @@
         <v>22284</v>
       </c>
       <c r="I1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="J1496" t="s">
         <v>20</v>
       </c>
       <c r="K1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="L1496" t="s">
         <v>20</v>
       </c>
       <c r="M1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="P1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="Q1496">
         <v>669422</v>
       </c>
       <c r="R1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="S1496" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="T1496" t="str">
         <f>VLOOKUP(C1496,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88138,7 +88159,7 @@
     </row>
     <row r="1497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1497" t="s">
         <v>20</v>
@@ -88160,31 +88181,31 @@
         <v>31872</v>
       </c>
       <c r="I1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="J1497" t="s">
         <v>20</v>
       </c>
       <c r="K1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="L1497" t="s">
         <v>20</v>
       </c>
       <c r="M1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="P1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="Q1497">
         <v>690990</v>
       </c>
       <c r="R1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="S1497" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="T1497" t="str">
         <f>VLOOKUP(C1497,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88193,7 +88214,7 @@
     </row>
     <row r="1498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1498" t="s">
         <v>20</v>
@@ -88215,31 +88236,31 @@
         <v>31612</v>
       </c>
       <c r="I1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="J1498" t="s">
         <v>20</v>
       </c>
       <c r="K1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="L1498" t="s">
         <v>20</v>
       </c>
       <c r="M1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="P1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="Q1498">
         <v>687223</v>
       </c>
       <c r="R1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="S1498" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="T1498" t="str">
         <f>VLOOKUP(C1498,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88248,7 +88269,7 @@
     </row>
     <row r="1499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1499" t="s">
         <v>20</v>
@@ -88270,31 +88291,31 @@
         <v>30170</v>
       </c>
       <c r="I1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="J1499" t="s">
         <v>20</v>
       </c>
       <c r="K1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="L1499" t="s">
         <v>20</v>
       </c>
       <c r="M1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="P1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="Q1499">
         <v>695534</v>
       </c>
       <c r="R1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="S1499" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="T1499" t="str">
         <f>VLOOKUP(C1499,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88303,7 +88324,7 @@
     </row>
     <row r="1500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1500" t="s">
         <v>20</v>
@@ -88325,31 +88346,31 @@
         <v>30184</v>
       </c>
       <c r="I1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="J1500" t="s">
         <v>20</v>
       </c>
       <c r="K1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="L1500" t="s">
         <v>20</v>
       </c>
       <c r="M1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="P1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="Q1500">
         <v>702070</v>
       </c>
       <c r="R1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="S1500" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="T1500" t="str">
         <f>VLOOKUP(C1500,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88358,7 +88379,7 @@
     </row>
     <row r="1501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1501" t="s">
         <v>20</v>
@@ -88380,31 +88401,31 @@
         <v>27756</v>
       </c>
       <c r="I1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="J1501" t="s">
         <v>20</v>
       </c>
       <c r="K1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1501" t="s">
         <v>20</v>
       </c>
       <c r="M1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="P1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="Q1501">
         <v>690953</v>
       </c>
       <c r="R1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="S1501" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="T1501" t="str">
         <f>VLOOKUP(C1501,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88413,7 +88434,7 @@
     </row>
     <row r="1502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1502" t="s">
         <v>20</v>
@@ -88435,31 +88456,31 @@
         <v>24728</v>
       </c>
       <c r="I1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="J1502" t="s">
         <v>20</v>
       </c>
       <c r="K1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1502" t="s">
         <v>20</v>
       </c>
       <c r="M1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="P1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="Q1502">
         <v>681347</v>
       </c>
       <c r="R1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="S1502" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="T1502" t="str">
         <f>VLOOKUP(C1502,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88468,7 +88489,7 @@
     </row>
     <row r="1503" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1503" t="s">
         <v>20</v>
@@ -88490,31 +88511,31 @@
         <v>29863</v>
       </c>
       <c r="I1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="J1503" t="s">
         <v>20</v>
       </c>
       <c r="K1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="L1503" t="s">
         <v>20</v>
       </c>
       <c r="M1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="P1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="Q1503">
         <v>686701</v>
       </c>
       <c r="R1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="S1503" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="T1503" t="str">
         <f>VLOOKUP(C1503,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88523,7 +88544,7 @@
     </row>
     <row r="1504" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1504" t="s">
         <v>20</v>
@@ -88545,31 +88566,31 @@
         <v>26048</v>
       </c>
       <c r="I1504" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="J1504" t="s">
         <v>20</v>
       </c>
       <c r="K1504" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="L1504" t="s">
         <v>20</v>
       </c>
       <c r="M1504" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="P1504" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="Q1504">
         <v>687830</v>
       </c>
       <c r="R1504" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="S1504" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="T1504" t="str">
         <f>VLOOKUP(C1504,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88578,7 +88599,7 @@
     </row>
     <row r="1505" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1505" t="s">
         <v>20</v>
@@ -88600,31 +88621,31 @@
         <v>30105</v>
       </c>
       <c r="I1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="J1505" t="s">
         <v>20</v>
       </c>
       <c r="K1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="L1505" t="s">
         <v>20</v>
       </c>
       <c r="M1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="P1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="Q1505">
         <v>678024</v>
       </c>
       <c r="R1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="S1505" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="T1505" t="str">
         <f>VLOOKUP(C1505,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88633,7 +88654,7 @@
     </row>
     <row r="1506" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1506" t="s">
         <v>20</v>
@@ -88655,31 +88676,31 @@
         <v>19736</v>
       </c>
       <c r="I1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="J1506" t="s">
         <v>20</v>
       </c>
       <c r="K1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="L1506" t="s">
         <v>20</v>
       </c>
       <c r="M1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="P1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="Q1506">
         <v>676961</v>
       </c>
       <c r="R1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="S1506" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="T1506" t="str">
         <f>VLOOKUP(C1506,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88688,7 +88709,7 @@
     </row>
     <row r="1507" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1507" t="s">
         <v>20</v>
@@ -88710,31 +88731,31 @@
         <v>31623</v>
       </c>
       <c r="I1507" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="J1507" t="s">
         <v>20</v>
       </c>
       <c r="K1507" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L1507" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1507" t="s">
         <v>2995</v>
       </c>
-      <c r="L1507" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1507" t="s">
-        <v>2996</v>
-      </c>
       <c r="P1507" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="Q1507">
         <v>694819</v>
       </c>
       <c r="R1507" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="S1507" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="T1507" t="str">
         <f>VLOOKUP(C1507,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88743,7 +88764,7 @@
     </row>
     <row r="1508" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B1508" t="s">
         <v>20</v>
@@ -88765,31 +88786,31 @@
         <v>19666</v>
       </c>
       <c r="I1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="J1508" t="s">
         <v>20</v>
       </c>
       <c r="K1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="L1508" t="s">
         <v>20</v>
       </c>
       <c r="M1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="P1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="Q1508">
         <v>669920</v>
       </c>
       <c r="R1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="S1508" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="T1508" t="str">
         <f>VLOOKUP(C1508,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88798,7 +88819,7 @@
     </row>
     <row r="1509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1509" t="s">
         <v>20</v>
@@ -88820,31 +88841,31 @@
         <v>21306</v>
       </c>
       <c r="I1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="J1509" t="s">
         <v>20</v>
       </c>
       <c r="K1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="L1509" t="s">
         <v>20</v>
       </c>
       <c r="M1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="P1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="Q1509">
         <v>656641</v>
       </c>
       <c r="R1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="S1509" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="T1509" t="str">
         <f>VLOOKUP(C1509,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88853,7 +88874,7 @@
     </row>
     <row r="1510" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B1510" t="s">
         <v>20</v>
@@ -88875,31 +88896,31 @@
         <v>30661</v>
       </c>
       <c r="I1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="J1510" t="s">
         <v>20</v>
       </c>
       <c r="K1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="L1510" t="s">
         <v>20</v>
       </c>
       <c r="M1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="P1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="Q1510">
         <v>800311</v>
       </c>
       <c r="R1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="S1510" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="T1510" t="str">
         <f>VLOOKUP(C1510,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88908,7 +88929,7 @@
     </row>
     <row r="1511" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1511" t="s">
         <v>20</v>
@@ -88930,31 +88951,31 @@
         <v>23793</v>
       </c>
       <c r="I1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="J1511" t="s">
         <v>20</v>
       </c>
       <c r="K1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="L1511" t="s">
         <v>20</v>
       </c>
       <c r="M1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="P1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="Q1511">
         <v>677952</v>
       </c>
       <c r="R1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="S1511" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="T1511" t="str">
         <f>VLOOKUP(C1511,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -88963,7 +88984,7 @@
     </row>
     <row r="1512" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B1512" t="s">
         <v>20</v>
@@ -88985,31 +89006,31 @@
         <v>30180</v>
       </c>
       <c r="I1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="J1512" t="s">
         <v>20</v>
       </c>
       <c r="K1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="L1512" t="s">
         <v>20</v>
       </c>
       <c r="M1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="P1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="Q1512">
         <v>701519</v>
       </c>
       <c r="R1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="S1512" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="T1512" t="str">
         <f>VLOOKUP(C1512,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89018,7 +89039,7 @@
     </row>
     <row r="1513" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1513" t="s">
         <v>20</v>
@@ -89040,31 +89061,31 @@
         <v>21546</v>
       </c>
       <c r="I1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="J1513" t="s">
         <v>20</v>
       </c>
       <c r="K1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="L1513" t="s">
         <v>20</v>
       </c>
       <c r="M1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="P1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="Q1513">
         <v>663795</v>
       </c>
       <c r="R1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="S1513" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="T1513" t="str">
         <f>VLOOKUP(C1513,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89073,7 +89094,7 @@
     </row>
     <row r="1514" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B1514" t="s">
         <v>20</v>
@@ -89095,31 +89116,31 @@
         <v>25420</v>
       </c>
       <c r="I1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="J1514" t="s">
         <v>20</v>
       </c>
       <c r="K1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="L1514" t="s">
         <v>20</v>
       </c>
       <c r="M1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="P1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="Q1514">
         <v>666171</v>
       </c>
       <c r="R1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="S1514" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="T1514" t="str">
         <f>VLOOKUP(C1514,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89128,7 +89149,7 @@
     </row>
     <row r="1515" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B1515" t="s">
         <v>20</v>
@@ -89150,31 +89171,31 @@
         <v>35333</v>
       </c>
       <c r="I1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="J1515" t="s">
         <v>20</v>
       </c>
       <c r="K1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="L1515" t="s">
         <v>20</v>
       </c>
       <c r="M1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="P1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="Q1515">
         <v>695505</v>
       </c>
       <c r="R1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="S1515" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="T1515" t="str">
         <f>VLOOKUP(C1515,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89183,7 +89204,7 @@
     </row>
     <row r="1516" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B1516" t="s">
         <v>20</v>
@@ -89205,31 +89226,31 @@
         <v>32095</v>
       </c>
       <c r="I1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="J1516" t="s">
         <v>20</v>
       </c>
       <c r="K1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="L1516" t="s">
         <v>20</v>
       </c>
       <c r="M1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="P1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="Q1516">
         <v>693645</v>
       </c>
       <c r="R1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="S1516" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="T1516" t="str">
         <f>VLOOKUP(C1516,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89238,7 +89259,7 @@
     </row>
     <row r="1517" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B1517" t="s">
         <v>20</v>
@@ -89260,31 +89281,31 @@
         <v>30084</v>
       </c>
       <c r="I1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="J1517" t="s">
         <v>20</v>
       </c>
       <c r="K1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="L1517" t="s">
         <v>20</v>
       </c>
       <c r="M1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="P1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="Q1517">
         <v>693313</v>
       </c>
       <c r="R1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="S1517" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="T1517" t="str">
         <f>VLOOKUP(C1517,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89293,7 +89314,7 @@
     </row>
     <row r="1518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B1518" t="s">
         <v>20</v>
@@ -89315,31 +89336,31 @@
         <v>31807</v>
       </c>
       <c r="I1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="J1518" t="s">
         <v>20</v>
       </c>
       <c r="K1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="L1518" t="s">
         <v>20</v>
       </c>
       <c r="M1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="P1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="Q1518">
         <v>675512</v>
       </c>
       <c r="R1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="S1518" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="T1518" t="str">
         <f>VLOOKUP(C1518,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89348,7 +89369,7 @@
     </row>
     <row r="1519" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B1519" t="s">
         <v>20</v>
@@ -89370,31 +89391,31 @@
         <v>30179</v>
       </c>
       <c r="I1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="J1519" t="s">
         <v>20</v>
       </c>
       <c r="K1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="L1519" t="s">
         <v>20</v>
       </c>
       <c r="M1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="P1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="Q1519">
         <v>701487</v>
       </c>
       <c r="R1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="S1519" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="T1519" t="str">
         <f>VLOOKUP(C1519,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89403,7 +89424,7 @@
     </row>
     <row r="1520" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B1520" t="s">
         <v>20</v>
@@ -89425,31 +89446,31 @@
         <v>24282</v>
       </c>
       <c r="I1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="J1520" t="s">
         <v>20</v>
       </c>
       <c r="K1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="L1520" t="s">
         <v>20</v>
       </c>
       <c r="M1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="P1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="Q1520">
         <v>678906</v>
       </c>
       <c r="R1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="S1520" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="T1520" t="str">
         <f>VLOOKUP(C1520,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89458,7 +89479,7 @@
     </row>
     <row r="1521" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B1521" t="s">
         <v>20</v>
@@ -89480,31 +89501,31 @@
         <v>31986</v>
       </c>
       <c r="I1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="J1521" t="s">
         <v>20</v>
       </c>
       <c r="K1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="L1521" t="s">
         <v>20</v>
       </c>
       <c r="M1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="P1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="Q1521">
         <v>800048</v>
       </c>
       <c r="R1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="S1521" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="T1521" t="str">
         <f>VLOOKUP(C1521,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89513,7 +89534,7 @@
     </row>
     <row r="1522" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B1522" t="s">
         <v>20</v>
@@ -89535,31 +89556,31 @@
         <v>31468</v>
       </c>
       <c r="I1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="J1522" t="s">
         <v>20</v>
       </c>
       <c r="K1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="L1522" t="s">
         <v>20</v>
       </c>
       <c r="M1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="P1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="Q1522">
         <v>678022</v>
       </c>
       <c r="R1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="S1522" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="T1522" t="str">
         <f>VLOOKUP(C1522,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89568,7 +89589,7 @@
     </row>
     <row r="1523" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B1523" t="s">
         <v>20</v>
@@ -89590,31 +89611,31 @@
         <v>31533</v>
       </c>
       <c r="I1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="J1523" t="s">
         <v>20</v>
       </c>
       <c r="K1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="L1523" t="s">
         <v>20</v>
       </c>
       <c r="M1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="P1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="Q1523">
         <v>682929</v>
       </c>
       <c r="R1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="S1523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="T1523" t="str">
         <f>VLOOKUP(C1523,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89623,7 +89644,7 @@
     </row>
     <row r="1524" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B1524" t="s">
         <v>20</v>
@@ -89645,31 +89666,31 @@
         <v>30004</v>
       </c>
       <c r="I1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="J1524" t="s">
         <v>20</v>
       </c>
       <c r="K1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="L1524" t="s">
         <v>20</v>
       </c>
       <c r="M1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="P1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="Q1524">
         <v>685326</v>
       </c>
       <c r="R1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="S1524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="T1524" t="str">
         <f>VLOOKUP(C1524,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89678,7 +89699,7 @@
     </row>
     <row r="1525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B1525" t="s">
         <v>20</v>
@@ -89700,31 +89721,31 @@
         <v>22872</v>
       </c>
       <c r="I1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="J1525" t="s">
         <v>20</v>
       </c>
       <c r="K1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="L1525" t="s">
         <v>20</v>
       </c>
       <c r="M1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="P1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="Q1525">
         <v>672782</v>
       </c>
       <c r="R1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="S1525" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="T1525" t="str">
         <f>VLOOKUP(C1525,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89733,7 +89754,7 @@
     </row>
     <row r="1526" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B1526" t="s">
         <v>20</v>
@@ -89755,31 +89776,31 @@
         <v>27932</v>
       </c>
       <c r="I1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="J1526" t="s">
         <v>20</v>
       </c>
       <c r="K1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="L1526" t="s">
         <v>20</v>
       </c>
       <c r="M1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="P1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="Q1526">
         <v>693855</v>
       </c>
       <c r="R1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="S1526" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="T1526" t="str">
         <f>VLOOKUP(C1526,Teams!$A$1:$C$31,3,FALSE)</f>
@@ -89787,33 +89808,168 @@
       </c>
     </row>
     <row r="1527" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1527" t="e">
+      <c r="A1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1527" t="str">
         <f>VLOOKUP(Players!C1527,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1527" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1527">
+        <v>33703</v>
+      </c>
+      <c r="I1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J1527" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L1527" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="P1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Q1527">
+        <v>690997</v>
+      </c>
+      <c r="R1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="S1527" t="s">
+        <v>3015</v>
+      </c>
+      <c r="T1527" t="str">
         <f>VLOOKUP(C1527,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1528" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1528" t="e">
+      <c r="A1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1528" t="str">
         <f>VLOOKUP(Players!C1528,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1528" t="e">
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1528">
+        <v>29868</v>
+      </c>
+      <c r="I1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="J1528" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="L1528" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="P1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="Q1528">
+        <v>696149</v>
+      </c>
+      <c r="R1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="S1528" t="s">
+        <v>3016</v>
+      </c>
+      <c r="T1528" t="str">
         <f>VLOOKUP(C1528,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1529" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1529" t="e">
+      <c r="A1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1529" t="str">
         <f>VLOOKUP(Players!C1529,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1529" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1529">
+        <v>32227</v>
+      </c>
+      <c r="I1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J1529" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="L1529" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="P1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="Q1529">
+        <v>806960</v>
+      </c>
+      <c r="R1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="S1529" t="s">
+        <v>3017</v>
+      </c>
+      <c r="T1529" t="str">
         <f>VLOOKUP(C1529,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ATH</v>
       </c>
     </row>
     <row r="1530" spans="1:20" x14ac:dyDescent="0.3">
@@ -90759,7 +90915,7 @@
         <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -90770,7 +90926,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -90781,7 +90937,7 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -90792,7 +90948,7 @@
         <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -90803,7 +90959,7 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -90814,7 +90970,7 @@
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -90822,10 +90978,10 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="C7" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -90836,7 +90992,7 @@
         <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -90847,7 +91003,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -90858,7 +91014,7 @@
         <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -90869,7 +91025,7 @@
         <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -90880,7 +91036,7 @@
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -90891,7 +91047,7 @@
         <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -90902,7 +91058,7 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -90913,7 +91069,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -90924,7 +91080,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -90935,7 +91091,7 @@
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -90946,7 +91102,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -90957,7 +91113,7 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -90979,7 +91135,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -90990,7 +91146,7 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -91001,7 +91157,7 @@
         <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -91012,7 +91168,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -91023,7 +91179,7 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -91034,7 +91190,7 @@
         <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -91045,7 +91201,7 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -91056,7 +91212,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -91067,18 +91223,18 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -91089,7 +91245,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B716B2A-1583-4274-9E2C-9868A3D56C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C25AA9E-A8F5-4903-9867-036E2DAA49DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18873" uniqueCount="3018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18913" uniqueCount="3022">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9091,6 +9091,18 @@
   </si>
   <si>
     <t>Luis Morales</t>
+  </si>
+  <si>
+    <t>Payton Tolle</t>
+  </si>
+  <si>
+    <t>Jonah Tong</t>
+  </si>
+  <si>
+    <t>Mason Barnett</t>
+  </si>
+  <si>
+    <t>sa302</t>
   </si>
 </sst>
 </file>
@@ -9477,10 +9489,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1508" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
+      <selection pane="bottomLeft" activeCell="Q1533" sqref="Q1533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75033,11 +75045,11 @@
         <v>20</v>
       </c>
       <c r="C1250" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D1250" t="str">
         <f>VLOOKUP(Players!C1250,Teams!A:B,2,FALSE)</f>
-        <v>Cleveland Indians</v>
+        <v>Toronto Blue Jays</v>
       </c>
       <c r="E1250" t="s">
         <v>23</v>
@@ -75083,7 +75095,7 @@
       </c>
       <c r="T1250" t="str">
         <f>VLOOKUP(C1250,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Cleveland</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="1251" spans="1:20" x14ac:dyDescent="0.3">
@@ -86720,11 +86732,11 @@
         <v>20</v>
       </c>
       <c r="C1471" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="D1471" t="str">
         <f>VLOOKUP(Players!C1471,Teams!A:B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Cincinnati Reds</v>
       </c>
       <c r="E1471" t="s">
         <v>23</v>
@@ -86770,7 +86782,7 @@
       </c>
       <c r="T1471" t="str">
         <f>VLOOKUP(C1471,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>Tampa Bay</v>
+        <v>Cincinnati</v>
       </c>
     </row>
     <row r="1472" spans="1:20" x14ac:dyDescent="0.3">
@@ -87835,11 +87847,11 @@
         <v>20</v>
       </c>
       <c r="C1491" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D1491" t="str">
         <f>VLOOKUP(Players!C1491,Teams!A:B,2,FALSE)</f>
-        <v>San Diego Padres</v>
+        <v>Kansas City Royals</v>
       </c>
       <c r="E1491" t="s">
         <v>23</v>
@@ -87879,7 +87891,7 @@
       </c>
       <c r="T1491" t="str">
         <f>VLOOKUP(C1491,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>San Diego</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="1492" spans="1:20" x14ac:dyDescent="0.3">
@@ -89973,33 +89985,168 @@
       </c>
     </row>
     <row r="1530" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1530" t="e">
+      <c r="A1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1530" t="str">
         <f>VLOOKUP(Players!C1530,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1530" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1530">
+        <v>35466</v>
+      </c>
+      <c r="I1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="J1530" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="L1530" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="P1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="Q1530">
+        <v>801139</v>
+      </c>
+      <c r="R1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="S1530" t="s">
+        <v>3018</v>
+      </c>
+      <c r="T1530" t="str">
         <f>VLOOKUP(C1530,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Boston</v>
       </c>
     </row>
     <row r="1531" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1531" t="e">
+      <c r="A1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1531" t="str">
         <f>VLOOKUP(Players!C1531,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1531" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1531">
+        <v>32157</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="J1531" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="L1531" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="P1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="Q1531">
+        <v>804636</v>
+      </c>
+      <c r="R1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="S1531" t="s">
+        <v>3019</v>
+      </c>
+      <c r="T1531" t="str">
         <f>VLOOKUP(C1531,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1532" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1532" t="e">
+      <c r="A1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1532" t="str">
         <f>VLOOKUP(Players!C1532,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1532" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>3021</v>
+      </c>
+      <c r="I1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="J1532" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="L1532" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="P1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="Q1532">
+        <v>686930</v>
+      </c>
+      <c r="R1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="S1532" t="s">
+        <v>3020</v>
+      </c>
+      <c r="T1532" t="str">
         <f>VLOOKUP(C1532,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ATH</v>
       </c>
     </row>
     <row r="1533" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C25AA9E-A8F5-4903-9867-036E2DAA49DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD018577-5B61-46A6-A19D-C141F8FE8329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18913" uniqueCount="3022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18915" uniqueCount="3022">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9490,9 +9490,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1508" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A865" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1533" sqref="Q1533"/>
+      <selection pane="bottomLeft" activeCell="P878" sqref="P878:R878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55550,6 +55550,15 @@
       </c>
       <c r="N878">
         <v>1</v>
+      </c>
+      <c r="P878" t="s">
+        <v>1736</v>
+      </c>
+      <c r="Q878">
+        <v>606996</v>
+      </c>
+      <c r="R878" t="s">
+        <v>1736</v>
       </c>
       <c r="S878" t="s">
         <v>1736</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD018577-5B61-46A6-A19D-C141F8FE8329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D2480C-7266-498A-BE2C-DEAEAE9D00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D2480C-7266-498A-BE2C-DEAEAE9D00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490FCB91-6D16-4F44-A479-A0C8D2589137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18915" uniqueCount="3022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18943" uniqueCount="3024">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9102,7 +9102,13 @@
     <t>Mason Barnett</t>
   </si>
   <si>
-    <t>sa302</t>
+    <t>Luarbert Arias</t>
+  </si>
+  <si>
+    <t>Andrew Alvarez</t>
+  </si>
+  <si>
+    <t>sa1323</t>
   </si>
 </sst>
 </file>
@@ -9489,10 +9495,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A865" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A894" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="P878" sqref="P878:R878"/>
+      <selection pane="bottomLeft" activeCell="Q912" sqref="Q912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50029,7 +50035,7 @@
         <v>667755</v>
       </c>
       <c r="R773" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="S773" t="s">
         <v>1544</v>
@@ -57452,6 +57458,15 @@
       <c r="O913" t="s">
         <v>1806</v>
       </c>
+      <c r="P913" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Q913">
+        <v>677651</v>
+      </c>
+      <c r="R913" t="s">
+        <v>1805</v>
+      </c>
       <c r="S913" t="s">
         <v>1805</v>
       </c>
@@ -90123,8 +90138,8 @@
       <c r="F1532" t="s">
         <v>23</v>
       </c>
-      <c r="H1532" t="s">
-        <v>3021</v>
+      <c r="H1532">
+        <v>31741</v>
       </c>
       <c r="I1532" t="s">
         <v>3020</v>
@@ -90159,23 +90174,113 @@
       </c>
     </row>
     <row r="1533" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1533" t="e">
+      <c r="A1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1533" t="str">
         <f>VLOOKUP(Players!C1533,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1533" t="e">
+        <v>Miami Marlins</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1533">
+        <v>23811</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="L1533" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="P1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="Q1533">
+        <v>678215</v>
+      </c>
+      <c r="R1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="S1533" t="s">
+        <v>3021</v>
+      </c>
+      <c r="T1533" t="str">
         <f>VLOOKUP(C1533,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Miami</v>
       </c>
     </row>
     <row r="1534" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1534" t="e">
+      <c r="A1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1534" t="str">
         <f>VLOOKUP(Players!C1534,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1534" t="e">
+        <v>Washington Nationals</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>3023</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="L1534" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="P1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="Q1534">
+        <v>674841</v>
+      </c>
+      <c r="R1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="S1534" t="s">
+        <v>3022</v>
+      </c>
+      <c r="T1534" t="str">
         <f>VLOOKUP(C1534,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Washington</v>
       </c>
     </row>
     <row r="1535" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490FCB91-6D16-4F44-A479-A0C8D2589137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B165F459-A5A3-4871-8A1A-910F490B6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18943" uniqueCount="3024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18956" uniqueCount="3025">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9108,7 +9108,10 @@
     <t>Andrew Alvarez</t>
   </si>
   <si>
-    <t>sa1323</t>
+    <t>Mitch Farris</t>
+  </si>
+  <si>
+    <t>sa302</t>
   </si>
 </sst>
 </file>
@@ -9496,9 +9499,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A894" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1511" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q912" sqref="Q912"/>
+      <selection pane="bottomLeft" activeCell="U1535" sqref="U1535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90248,8 +90251,8 @@
       <c r="F1534" t="s">
         <v>33</v>
       </c>
-      <c r="H1534" t="s">
-        <v>3023</v>
+      <c r="H1534">
+        <v>29914</v>
       </c>
       <c r="I1534" t="s">
         <v>3022</v>
@@ -90284,13 +90287,58 @@
       </c>
     </row>
     <row r="1535" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1535" t="e">
+      <c r="A1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1535" t="str">
         <f>VLOOKUP(Players!C1535,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1535" t="e">
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>3024</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="L1535" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="P1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Q1535">
+        <v>815083</v>
+      </c>
+      <c r="R1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="S1535" t="s">
+        <v>3023</v>
+      </c>
+      <c r="T1535" t="str">
         <f>VLOOKUP(C1535,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1536" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92702482-06AC-4907-81D0-0DBDB26C563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DB51B5-CA20-471A-9CE6-CF4449D342C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18955" uniqueCount="3024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18968" uniqueCount="3025">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9108,7 +9108,10 @@
     <t>Mitch Farris</t>
   </si>
   <si>
-    <t>sa302</t>
+    <t>Brandon Sproat</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -9495,10 +9498,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A886" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1512" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H900" sqref="H900"/>
+      <selection pane="bottomLeft" activeCell="Q1537" sqref="Q1537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90303,8 +90306,8 @@
       <c r="F1535" t="s">
         <v>33</v>
       </c>
-      <c r="H1535" t="s">
-        <v>3023</v>
+      <c r="H1535">
+        <v>33628</v>
       </c>
       <c r="I1535" t="s">
         <v>3022</v>
@@ -90339,13 +90342,58 @@
       </c>
     </row>
     <row r="1536" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1536" t="e">
+      <c r="A1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1536" t="str">
         <f>VLOOKUP(Players!C1536,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1536" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>3024</v>
+      </c>
+      <c r="I1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="L1536" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="P1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Q1536">
+        <v>687075</v>
+      </c>
+      <c r="R1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="S1536" t="s">
+        <v>3023</v>
+      </c>
+      <c r="T1536" t="str">
         <f>VLOOKUP(C1536,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1537" spans="4:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DB51B5-CA20-471A-9CE6-CF4449D342C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28640573-5F83-479B-9F37-874D770E0BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18968" uniqueCount="3025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18982" uniqueCount="3026">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9112,6 +9112,9 @@
   </si>
   <si>
     <t>sa123</t>
+  </si>
+  <si>
+    <t>Trey Yesavage</t>
   </si>
 </sst>
 </file>
@@ -9499,9 +9502,9 @@
   <dimension ref="A1:T1623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1512" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1532" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q1537" sqref="Q1537"/>
+      <selection pane="bottomLeft" activeCell="U1538" sqref="U1538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90396,17 +90399,62 @@
         <v>New York</v>
       </c>
     </row>
-    <row r="1537" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D1537" t="e">
+    <row r="1537" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1537" t="str">
         <f>VLOOKUP(Players!C1537,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1537" t="e">
+        <v>Toronto Blue Jays</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>3024</v>
+      </c>
+      <c r="I1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L1537" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="P1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q1537">
+        <v>702056</v>
+      </c>
+      <c r="R1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="S1537" t="s">
+        <v>3025</v>
+      </c>
+      <c r="T1537" t="str">
         <f>VLOOKUP(C1537,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1538" spans="4:20" x14ac:dyDescent="0.3">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1538" t="e">
         <f>VLOOKUP(Players!C1538,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90416,7 +90464,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1539" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1539" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1539" t="e">
         <f>VLOOKUP(Players!C1539,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90426,7 +90474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1540" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1540" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1540" t="e">
         <f>VLOOKUP(Players!C1540,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90436,7 +90484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1541" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1541" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1541" t="e">
         <f>VLOOKUP(Players!C1541,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90446,7 +90494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1542" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1542" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1542" t="e">
         <f>VLOOKUP(Players!C1542,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90456,7 +90504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1543" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1543" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1543" t="e">
         <f>VLOOKUP(Players!C1543,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90466,7 +90514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1544" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1544" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1544" t="e">
         <f>VLOOKUP(Players!C1544,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90476,7 +90524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1545" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1545" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1545" t="e">
         <f>VLOOKUP(Players!C1545,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90486,7 +90534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1546" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1546" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1546" t="e">
         <f>VLOOKUP(Players!C1546,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90496,7 +90544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1547" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1547" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1547" t="e">
         <f>VLOOKUP(Players!C1547,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90506,7 +90554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1548" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1548" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1548" t="e">
         <f>VLOOKUP(Players!C1548,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90516,7 +90564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1549" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1549" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1549" t="e">
         <f>VLOOKUP(Players!C1549,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90526,7 +90574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1550" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1550" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1550" t="e">
         <f>VLOOKUP(Players!C1550,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90536,7 +90584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1551" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1551" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1551" t="e">
         <f>VLOOKUP(Players!C1551,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -90546,7 +90594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1552" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="1552" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1552" t="e">
         <f>VLOOKUP(Players!C1552,Teams!A:B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28640573-5F83-479B-9F37-874D770E0BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D2D29C-60AD-45B8-BC16-A39DE96618CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18982" uniqueCount="3026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19008" uniqueCount="3028">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9115,6 +9115,12 @@
   </si>
   <si>
     <t>Trey Yesavage</t>
+  </si>
+  <si>
+    <t>Connelly Early</t>
+  </si>
+  <si>
+    <t>AJ Blubaugh</t>
   </si>
 </sst>
 </file>
@@ -9501,10 +9507,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1532" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="U1538" sqref="U1538"/>
+      <selection pane="bottomLeft" activeCell="H1539" sqref="H1539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90455,23 +90461,113 @@
       </c>
     </row>
     <row r="1538" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1538" t="e">
+      <c r="A1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1538" t="str">
         <f>VLOOKUP(Players!C1538,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1538" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1538">
+        <v>33666</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="L1538" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="P1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="Q1538">
+        <v>813349</v>
+      </c>
+      <c r="R1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="S1538" t="s">
+        <v>3026</v>
+      </c>
+      <c r="T1538" t="str">
         <f>VLOOKUP(C1538,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Boston</v>
       </c>
     </row>
     <row r="1539" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D1539" t="e">
+      <c r="A1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1539" t="str">
         <f>VLOOKUP(Players!C1539,Teams!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T1539" t="e">
+        <v>Houston Astros</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1539">
+        <v>31764</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="L1539" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="P1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="Q1539">
+        <v>805123</v>
+      </c>
+      <c r="R1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="S1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="T1539" t="str">
         <f>VLOOKUP(C1539,Teams!$A$1:$C$31,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Houston</v>
       </c>
     </row>
     <row r="1540" spans="1:20" x14ac:dyDescent="0.3">

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D2D29C-60AD-45B8-BC16-A39DE96618CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5265CD-8AF4-4B10-8D06-C9BEFD0A36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Pitcher_Listing.xlsx
+++ b/assets/My_Pitcher_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5265CD-8AF4-4B10-8D06-C9BEFD0A36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F25844-E26F-491D-BE18-96CBA93CF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
